--- a/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、強力なインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
+          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、パフォーマンスの低いインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -15732,7 +15732,7 @@
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>回復性: プロビジョニングされたスループットを使用している場合は、オーバーフローを処理するために従量課金制インスタンスをデプロイすることも検討してください。プロビジョニングされたスループットモデルが調整されているときに、ゲートウェイ経由で従量課金制インスタンスに通話をルーティングできます。また、モニタリングを使用して、モデルがスロットリングされるタイミングを予測し、通話を従量課金制インスタンスにプリエンプティブにルーティングすることもできます。</t>
+          <t>回復性: プロビジョニングされたスループットを使用している場合は、オーバーフローを処理するために従量課金制インスタンスをデプロイすることも検討してください。プロビジョニングされたスループットモデルが調整されているときに、ゲートウェイ経由で従量課金制インスタンスに通話をルーティングできます。</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>4b6855b3-069d-4bb2-b9c6-f1c021803f77</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
@@ -15768,7 +15768,7 @@
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>回復性: 大きなデータ ファイルのガイダンスに従い、Azure BLOB ストアからデータをインポートします。100 MB 以上の大きなファイルは、マルチパート フォームを介してアップロードすると、要求がアトミックであり、再試行または再開できないため、不安定になる可能性があります。</t>
+          <t>回復性: 大きなデータ ファイルを使用した微調整のガイダンスに従い、Azure BLOB ストアからデータをインポートします。100 MB 以上の大きなファイルは、マルチパート フォームを介してアップロードすると、要求がアトミックであり、再試行または再開できないため、不安定になる可能性があります。</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>c41d1ed1-6f1d-4e6e-9dde-2d8172365170</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
@@ -6808,7 +6808,7 @@
       <c r="B193" s="21" t="n"/>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスと Azure の間のアクティブ/アクティブ ExpressRoute 接続を構成します。</t>
+          <t>運用ワークロードの回復性が最大または高の ExpressRoute 回線を構成します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="inlineStr"/>
@@ -6823,7 +6823,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
+          <t>e58c1767-6db4-4b40-a26e-1ab8967517f4</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -6836,7 +6836,7 @@
       <c r="B194" s="21" t="n"/>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーン対応の ExpressRoute 仮想ネットワーク ゲートウェイを設定します。</t>
+          <t>オンプレミスと Azure の間のアクティブ/アクティブ ExpressRoute 接続を構成します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="inlineStr"/>
@@ -6851,7 +6851,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
+          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -6864,7 +6864,7 @@
       <c r="B195" s="21" t="n"/>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 仮想ネットワーク ゲートウェイをさまざまなリージョンで構成します。</t>
+          <t>可用性ゾーン対応の ExpressRoute 仮想ネットワーク ゲートウェイを設定します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="inlineStr"/>
@@ -6879,7 +6879,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
+          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -6892,7 +6892,7 @@
       <c r="B196" s="21" t="n"/>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>サイト間 VPN を ExpressRoute プライベート ピアリングのバックアップとして構成します。</t>
+          <t>ExpressRoute 仮想ネットワーク ゲートウェイをさまざまなリージョンで構成します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="inlineStr"/>
@@ -6907,7 +6907,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
+          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -6920,7 +6920,7 @@
       <c r="B197" s="21" t="n"/>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 回線のメンテナンス通知を受け取るようにサービス正常性を構成します。</t>
+          <t>サイト間 VPN を ExpressRoute プライベート ピアリングのバックアップとして構成します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="inlineStr"/>
@@ -6935,7 +6935,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>198fd707-5344-46d9-a3f9-c05a90749ccb</t>
+          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -6948,14 +6948,10 @@
       <c r="B198" s="21" t="n"/>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 回線または ExpressRoute Direct の計画</t>
-        </is>
-      </c>
-      <c r="D198" s="21" t="inlineStr">
-        <is>
-          <t>最初の計画フェーズでは、ExpressRoute 回線と ExpressRoute Direct 接続のどちらを構成するかを決定します。ExpressRoute 回線を使用すると、接続プロバイダーの助けを借りて Azure へのプライベート専用接続が可能になります。ExpressRoute Direct を使用すると、オンプレミス ネットワークをピアリングの場所にある Microsoft ネットワークに直接拡張できます。また、ビジネス ニーズの帯域幅要件と SKU タイプ要件を特定する必要もあります。</t>
-        </is>
-      </c>
+          <t>ExpressRoute 回線のメンテナンス通知を受け取るようにサービスの正常性を構成します。</t>
+        </is>
+      </c>
+      <c r="D198" s="21" t="inlineStr"/>
       <c r="E198" s="21" t="n"/>
       <c r="F198" t="inlineStr">
         <is>
@@ -6967,7 +6963,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
+          <t>da08260d-363c-4fcb-a555-ed4448d0be3a</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -6980,12 +6976,12 @@
       <c r="B199" s="21" t="n"/>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>物理層の多様性</t>
+          <t>ExpressRoute 回線または ExpressRoute Direct の計画</t>
         </is>
       </c>
       <c r="D199" s="21" t="inlineStr">
         <is>
-          <t>回復性を向上させるには、オンプレミスのエッジとピアリングの場所 (プロバイダー/Microsoft エッジの場所) の間に複数のパスを用意するように計画します。この構成は、別のサービス プロバイダーを経由するか、オンプレミス ネットワークとは異なる場所を経由することで実現できます。</t>
+          <t>最初の計画フェーズでは、ExpressRoute 回線と ExpressRoute Direct 接続のどちらを構成するかを決定します。ExpressRoute 回線を使用すると、接続プロバイダーの助けを借りて Azure へのプライベート専用接続が可能になります。ExpressRoute Direct を使用すると、オンプレミス ネットワークをピアリングの場所にある Microsoft ネットワークに直接拡張できます。また、ビジネス ニーズの帯域幅要件と SKU タイプ要件を特定する必要もあります。</t>
         </is>
       </c>
       <c r="E199" s="21" t="n"/>
@@ -6999,7 +6995,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>67812ddc-7c52-4b52-9569-b3f84d591def</t>
+          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10303,7 +10299,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>ポリシーの構造には、ルールとルール コレクション グループの数、ポリシーの合計サイズ、ソース/ターゲットの宛先など、制限があります。必ずポリシーを作成し、文書化されたしきい値を超えないようにしてください。</t>
+          <t>ポリシーの構造には、ルールとルール コレクション グループの数、ポリシーの合計サイズ、ソース/ターゲットの宛先など、制限があります。ポリシーを作成し、文書化されたしきい値を下回るようにしてください。</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10627,7 +10623,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>従来のハブ &amp; スポーク アーキテクチャでは、'SpoketoSpoke'、'SpoketoInternet'、'SpoketoHybrid' 接続のために Azure Firewall 経由のトラフィックを強制するように UDR を構成します。代わりに、Azure Virtual WAN では、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベートまたはインターネットのトラフィックをリダイレクトします。</t>
+          <t>従来のハブ &amp; スポーク アーキテクチャでは、'Spoke-to-Spoke'、'Spoke-to-Internet'、および 'Spoke-to-Hybrid' 接続のために Azure Firewall 経由のトラフィックを強制するように UDR を構成します。代わりに、Azure Virtual WAN では、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベートまたはインターネットのトラフィックをリダイレクトします。</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11531,7 +11527,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Azure Firewall を IDPS モードのアラートと拒否で動作させる必要がある場合は、このページに記載されているパフォーマンスへの影響を慎重に検討してください。</t>
+          <t>Azure Firewall を IDPS モードのアラートと拒否で動作する必要がある場合は、「ファイアウォールのパフォーマンス」に記載されているように、パフォーマンスへの影響を慎重に検討してください。</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">

--- a/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P700"/>
+  <dimension ref="A2:P672"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 専用回線では、オンプレミスと Azure の間にアクティブ/アクティブ接続が構成されている場合、"99.95%" の可用性が保証されます。このモードでは、ExpressRoute 接続の可用性が向上します。また、接続でリンク障害が発生した場合にフェイルオーバーを高速化するために、BFD を構成することもお勧めします。</t>
+          <t>このモードでは、ExpressRoute 接続の可用性が向上します。また、接続でリンク障害が発生した場合にフェイルオーバーを高速化するために、BFD を構成することもお勧めします。</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーン対応の Virtual Network Gateway を作成して回復性を高め、ディザスター リカバリーと高可用性のためにさまざまなリージョンで Virtual Network Gateway を計画します。</t>
+          <t>可用性ゾーン対応の Virtual Network Gateway を作成して回復性を高め、回復性、ディザスター リカバリー、高可用性のためにさまざまなリージョンで Virtual Network Gateway を計画します。</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
@@ -10116,7 +10116,7 @@
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Azure Firewall をハブ仮想ネットワークにデプロイするか、Azure Virtual WAN ハブの一部としてデプロイします。</t>
+          <t>Azure Firewall の既知の問題の一覧を確認します。Azure Firewall 製品では、既知の問題の一覧が更新されています。このリストには、設計上の動作、作成中の修正、プラットフォームの制限、および可能な回避策または緩和戦略に関する重要な情報が含まれています。</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -10127,14 +10127,14 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>5820ff87-d98e-490e-93a0-28028bbb05e6</t>
+          <t>20ce14f0-d217-45ca-953e-da6acda1b73c</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Availability Zones の回復性を活用します。</t>
+          <t>Azure Firewall を複数の可用性ゾーンにデプロイして、より高いサービス レベル アグリーメント (SLA) を実現します。Azure Firewall では、サービスを 1 つの可用性ゾーンにデプロイするか、複数のゾーンにデプロイするかによって、SLA が提供されます。詳細については、「オンライン サービスの SLA」を参照してください。</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -10145,14 +10145,14 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>7c605481-a9d5-480f-8738-ac2022ef28ed</t>
+          <t>de630a06-a4a8-4215-bb80-cc89dd3ced08</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシー構造を作成します。</t>
+          <t>Azure Firewall インスタンスは、マルチリージョン環境の各リージョンにデプロイします。従来のハブ アンド スポーク アーキテクチャについては、「マルチリージョンに関する考慮事項」を参照してください。セキュリティで保護された Azure Virtual WAN ハブの場合は、ルーティングの意図とポリシーを構成して、ハブ間およびブランチ間の通信をセキュリティで保護します。障害耐性とフォールト トレラントのワークロードの場合は、Azure Firewall と Azure Virtual Network のインスタンスをリージョン リソースと見なしてください。</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -10163,14 +10163,14 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>2ceafe5f-6511-42a6-9687-cebaf586b293</t>
+          <t>be394cd4-78f2-4737-8d8d-ec8f83193584</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>既知の問題リストを確認します。</t>
+          <t>Azure Firewall のメトリックとリソースの正常性状態を監視します。Azure Firewall は Azure Resource Health と統合されます。Resource Health チェックを使用して、Azure Firewall の正常性状態を表示し、Azure Firewall リソースに影響を与える可能性のあるサービスの問題に対処します。</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -10181,14 +10181,14 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>85a53628-bd7b-43bb-a817-b6f0c11c34c9</t>
+          <t>5f5c6480-7d26-4d6a-b375-e5786b200448</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>Azure Firewall の正常性状態を監視します。</t>
+          <t>Azure Firewall をハブ仮想ネットワークにデプロイするか、Virtual WAN ハブの一部としてデプロイします。</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
@@ -10199,19 +10199,19 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>74a2596f-1cc9-4715-8de2-5afdde7b9f9a</t>
+          <t>e1c47da5-f5ed-4300-911e-7fc916e4c488</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>Azure Firewall Manager を従来のハブ &amp; スポークまたは Azure Virtual WAN ネットワーク トポロジと共に使用して、Azure Firewall のインスタンスをデプロイおよび管理します。</t>
+          <t>Azure Firewall を複数の可用性ゾーンにデプロイします。</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク型で推移的なアーキテクチャを簡単に作成でき、トラフィックのガバナンスと保護のためのネイティブセキュリティサービスを利用できます。 ネットワーク トポロジの詳細については、Azure クラウド導入フレームワークのドキュメントを参照してください。</t>
+          <t>Azure Firewall を複数の可用性ゾーンにデプロイして、特定のレベルの回復性を維持します。1 つのゾーンで障害が発生した場合でも、別のゾーンは引き続きトラフィックを処理します。</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10221,19 +10221,19 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>21f4d348-c086-4e96-b5bc-91f8a3c25841</t>
+          <t>13571efe-01ca-4dd1-8cc8-fe95125e3bf2</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理します。Azure Firewall のすべてのインスタンスにポリシーを割り当てます。</t>
+          <t>Log Analytics ワークスペースで Azure Firewall メトリックを監視します。Azure Firewall の正常性状態を示すメトリック (スループット、ファイアウォールの正常性状態、SNAT ポートの使用率、AZFW 待機時間プローブ メトリックなど) を詳しく監視します。 Azure Service Health を使用して、Azure Firewall の正常性を監視します。</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーは、中央の基本ポリシーをオーバーレイするために階層構造に配置できます。特定のリージョンの要件を満たすためのきめ細かなポリシーを許可します。ロールベースのアクセス制御 (RBAC) を通じて、増分ファイアウォール ポリシーをローカル セキュリティ チームに委任します。DNAT ルールや DNS 設定など、一部の設定はインスタンスごとに固有ですが、複数の特殊なポリシーが必要になる場合があります。</t>
+          <t>リソースメトリクスとサービスの正常性を監視して、サービスの状態が劣化するタイミングを検出し、障害を防ぐための予防的な対策を講じることができます。</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10243,19 +10243,19 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>1e604a31-46f0-4fcc-9f0e-1ca46cc3f677</t>
+          <t>09d6362f-d7a1-4c56-822c-065064bbcad7</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>Azure Firewall クラシック ルールを既存のデプロイの Azure Firewall Manager ポリシーに移行します。</t>
+          <t>インターネットへのすべてのトラフィックを、インターネットに直接ではなく、指定された次ホップにルーティングする必要がある場合は、Azure Firewall を強制トンネリング モードで構成します。この推奨事項は Virtual WAN には適用されません。&lt;BR&gt;&lt;BR&gt; Azure Firewall には、インターネットに直接接続できる必要があります。AzureFirewallSubnet が Border Gateway Protocol を介してオンプレミス ネットワークへの既定のルートを学習する場合は、Azure Firewall を強制トンネリング モードで構成する必要があります。強制トンネリング機能を使用して、Azure Firewall Management サブネットに別の /26 アドレス空間を追加できます。サブネットに AzureFirewallManagementSubnet という名前を付けます。強制トンネリング モードで再構成できない既存の Azure Firewall インスタンスがある場合は、0.0.0.0/0 ルートを使用して UDR を作成します。NextHopType の値を Internet に設定します。インターネット接続を維持するには、UDR を AzureFirewallSubnet に関連付けます。 パブリック IP アドレスを [なし] に設定して、Azure Firewall を強制トンネリング モードで構成するときに、完全にプライベート データ プレーンをデプロイします。ただし、管理プレーンには、管理目的のみにパブリック IP が必要です。仮想ネットワークとオンプレミス ネットワークからの内部トラフィックでは、そのパブリック IP は使用されません。</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>既存のデプロイの場合は、Azure Firewall ルールを Azure Firewall Manager ポリシーに移行します。Azure Firewall Manager を使用して、ファイアウォールとポリシーを一元的に管理します。 詳細については、「Azure Firewall Premium への移行」を参照してください。</t>
+          <t>強制トンネリングを使用して、Azure リソースを直接インターネットに公開しないようにします。このアプローチにより、攻撃対象領域が縮小され、外部の脅威のリスクが最小限に抑えられます。企業のポリシーとコンプライアンス要件をより効果的に適用するには、インターネットへのすべてのトラフィックをオンプレミスのファイアウォールまたは NVA 経由でルーティングします。</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10265,19 +10265,19 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>d17fbf01-c796-45dd-9ca4-99af38b2ae9b</t>
+          <t>7abca50a-05ca-41fc-8485-cd536ba9ec86</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>Azure Firewall の既知の問題の一覧を確認します。</t>
+          <t>階層構造でファイアウォールポリシーのルールを作成し、中央の基本ポリシーをオーバーレイします。詳細については、「Azure Firewall ポリシーを使用してルールを処理する」を参照してください。&lt;BR&gt;&lt;BR&gt; 最小特権アクセスのゼロトラスト原則に基づいてルールを作成する</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Azure Firewall 製品グループは、この場所で既知の問題の最新の一覧を保持しています。このリストには、設計上の動作、開発中の修正、プラットフォームの制限、および可能な回避策または軽減策に関連する重要な情報が含まれています。</t>
+          <t>ルールを階層構造に整理して、きめ細かなポリシーが特定のリージョンの要件を満たすことができるようにします。各ポリシーには、特定の優先度、アクション、および処理順序を持つ宛先ネットワーク アドレス変換 (DNAT)、ネットワーク、およびアプリケーション ルールの異なるセットを含めることができます。</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10287,19 +10287,19 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>b7623c43-bb6b-4629-a655-551c92e2dffa</t>
+          <t>0d9c6369-6b1b-49db-8198-68f2344273d8</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="C315" t="inlineStr">
         <is>
-          <t>Azure Firewall ポリシーが Azure Firewall の制限と推奨事項に準拠していることを確認します。</t>
+          <t>Firewall Manager 内でサポートされているセキュリティパートナープロバイダを設定して、アウトバウンド接続を保護します。&lt;BR&gt;&lt;BR&gt; このシナリオでは、プロバイダーのインフラストラクチャに接続するために IPsec トンネルを使用するため、ハブに S2S VPN ゲートウェイを持つ Virtual WAN が必要です。マネージドセキュリティサービスプロバイダーは、追加のライセンス料を請求し、IPsec接続のスループットを制限する場合があります。また、Zscaler Cloud Connectorなどの代替ソリューションを使用することもできます。</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>ポリシーの構造には、ルールとルール コレクション グループの数、ポリシーの合計サイズ、ソース/ターゲットの宛先など、制限があります。ポリシーを作成し、文書化されたしきい値を下回るようにしてください。</t>
+          <t>Azure Firewall のセキュリティ パートナー プロバイダーが、インターネット トラフィックの高度な保護を提供する最高のクラウド セキュリティ オファリングを活用できるようにします。これらのプロバイダーは、ユーザー認識型の特殊なフィルタリング機能と包括的な脅威検出機能を提供し、全体的なセキュリティ体制を強化します。</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10309,19 +10309,19 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>9230da4d-4e27-4106-9552-294b1a93d780</t>
+          <t>7bfae9e9-d97d-4d04-97a6-7eb31a73ed10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>Azure Firewall を複数の可用性ゾーンにデプロイして、より高いサービス レベル アグリーメント (SLA) を実現します。</t>
+          <t>Azure Firewall DNS プロキシ構成を有効にします。&lt;BR&gt;&lt;BR&gt; また、DNS クエリの転送にカスタム DNS を使用するように Azure Firewall を構成します。</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Azure Firewall では、1 つの可用性ゾーンにデプロイされる場合と、複数のゾーンにデプロイされる場合で異なる SLA が提供されます。詳細については、「Azure Firewall の SLA」を参照してください。すべての Azure SLA の詳細については、「Azure サービスの SLA の概要」を参照してください。</t>
+          <t>この機能を有効にすると、仮想ネットワーク内のクライアントが DNS サーバーとして Azure Firewall にポイントされます。この機能は、直接アクセスされず、公開されていない内部 DNS インフラストラクチャを保護します。</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10331,19 +10331,19 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>6a88967d-b182-437d-ac3b-1cb45ddfaa86</t>
+          <t>68949fe5-365d-4c55-b909-d52c39d24b6d</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>マルチリージョン環境では、リージョンごとに Azure Firewall インスタンスをデプロイします。</t>
+          <t>従来のハブ アンド スポーク アーキテクチャで、スポーク間、スポークからインターネット、およびスポークとハイブリッド間の接続のために、Azure Firewall 経由のトラフィックを強制するように UDR を構成します。&lt;BR&gt;&lt;BR&gt; Virtual WAN で、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベート トラフィックまたはインターネット トラフィックをリダイレクトします。&lt;BR&gt;&lt;BR&gt; UDR を適用できず、Web トラフィックのリダイレクトのみが必要な場合は、送信パスで明示的なプロキシとして Azure Firewall を使用します。Azure Firewall をプロキシとして構成する場合は、Web ブラウザーなどの送信側アプリケーションでプロキシ設定を構成できます。</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>従来のハブ&amp;スポークアーキテクチャについては、この記事でマルチリージョンの詳細について説明します。セキュリティ保護付き仮想ハブ (Azure Virtual WAN) の場合、ルーティング インテントとポリシーを構成して、ハブ間通信とブランチ間通信をセキュリティで保護する必要があります。障害に対する耐性とフォールト トレラント性を考慮して設計されたワークロードの場合は、Azure Firewall と Azure Virtual Network のインスタンスをリージョン リソースと見なすことを忘れないでください。</t>
+          <t>ファイアウォールを介してトラフィックを送信してトラフィックを検査し、悪意のあるトラフィックを特定してブロックします。&lt;BR&gt;&lt;BR&gt; Azure Firewall を送信トラフィックの明示的なプロキシとして使用すると、Web トラフィックはファイアウォールのプライベート IP アドレスに到達し、UDR を使用せずにファイアウォールから直接送信されます。また、この機能により、既存のネットワークルートを変更せずに複数のファイアウォールを簡単に使用できます。</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10353,19 +10353,19 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>a4b78865-a047-4afc-b7e6-b2f54cee83cb</t>
+          <t>7269ebdb-4f21-41f7-846b-b0f90145a8ca</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>Azure Firewall のメトリックとリソースの正常性状態を監視します。</t>
+          <t>ネットワークルールで FQDN フィルタリングを使用します。ネットワーク規則で FQDN を使用するには、Azure Firewall DNS プロキシ構成を有効にする必要があります。</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Azure Firewall の正常性状態の主要なメトリック インジケーター (スループット、ファイアウォールの正常性状態、SNAT ポート使用率、AZFW 待機時間プローブ メトリックなど) を綿密に監視します。さらに、Azure Firewall は Azure Resource Health と統合されるようになりました。Azure Firewall リソース正常性チェックを使用すると、Azure Firewall の正常性状態を表示し、Azure Firewall リソースに影響を与える可能性のあるサービスの問題に対処できるようになりました。</t>
+          <t>Azure Firewall ネットワーク ルールで FQDN を使用すると、管理者は複数の IP アドレスではなくドメイン名を管理できるため、管理が簡単になります。この動的な解決により、ドメイン IP が変更されたときにファイアウォール ルールが自動的に更新されます。</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10375,17 +10375,21 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>9621bb59-3034-4e42-8344-5ce24b47425b</t>
+          <t>dbcfaeb4-af8a-4536-aea5-b0941fe8cb1c</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>強制トンネリングが必要かどうかを判断します。</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>特定の IP アドレスの代わりに Azure Firewall サービス タグを使用して、Azure、Microsoft Dynamics 365、Microsoft 365 の特定のサービスへの選択的なアクセスを提供します。</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>ネットワーク ルールでサービス タグを使用すると、特定の IP アドレスではなくサービス名に基づいてアクセス制御を定義できるため、セキュリティ管理が簡単になります。Microsoft は、IP アドレスが変更されたときに、これらのタグを自動的に管理および更新します。この方法により、ファイアウォールルールが正確かつ効果的なままで、手動による介入がなくても維持されます。</t>
+        </is>
+      </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10393,17 +10397,21 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>b0b563a2-ec75-4a12-981a-6c6138175122</t>
+          <t>a24f4843-209c-4f51-88e6-1908be48e722</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>最小特権のアクセス基準に基づいてポリシーのルールを作成します。</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>アプリケーションルールで FQDN タグを使用して、特定の Microsoft サービスへの選択的なアクセスを提供します。&lt;BR&gt;&lt;BR&gt; アプリケーション規則で FQDN タグを使用すると、Microsoft 365、Windows 365、Microsoft Intune などの特定の Azure サービスに対して、ファイアウォール経由で必要な送信ネットワーク トラフィックを許可できます。</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Azure Firewall アプリケーション規則で FQDN タグを使用して、既知の Microsoft サービスに関連付けられている FQDN のグループを表します。この方法により、ネットワーク セキュリティ規則の管理が簡略化されます。</t>
+        </is>
+      </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10411,17 +10419,21 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>c39df35c-43a4-4bc2-ae65-3201a1b274a4</t>
+          <t>4063f792-86cc-469b-9b6d-3c3d5e7f5d74</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>脅威インテリジェンスを活用。</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>Azure Firewall の脅威インテリジェンスをアラート モードと拒否モードで有効にします。</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>脅威インテリジェンスを使用して、新たな脅威に対するリアルタイムの保護を提供し、サイバー攻撃のリスクを軽減します。この機能は、Microsoft の脅威インテリジェンス フィードを使用して、既知の悪意のある IP アドレス、ドメイン、URL からのトラフィックを自動的にアラートし、ブロックします。</t>
+        </is>
+      </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10429,17 +10441,21 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>08bebd22-0d6a-469c-ae5b-fed8774452de</t>
+          <t>e8dcc3ab-b391-475c-8d78-cee55c784f06</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>Azure Firewall DNS プロキシを有効にします。</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>IDPSをアラートまたはアラートと拒否モードで有効にします。この機能のパフォーマンスへの影響を考慮してください。</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Azure Firewall で IDPS フィルタリングを有効にすると、ネットワーク トラフィックのリアルタイムの監視と分析が提供され、悪意のあるアクティビティを検出して防止できます。この機能は、シグネチャベースの検出を使用して、既知の脅威を迅速に特定し、害を及ぼす前にブロックします。 詳細については、「不正使用の検出」を参照してください。</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10447,17 +10463,21 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>89484b0c-7b36-4fa2-9064-ae6db7dc411a</t>
+          <t>053202f4-db7d-4b08-ad61-c5d0037b713a</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>Azure Firewall 経由でネットワーク トラフィックを転送します。</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>Azure Firewall Premium で TLS 検査を使用する場合は、内部のエンタープライズ証明機関 (CA) を使用して証明書を生成します。自己署名証明書は、テストと概念実証 (PoC) の目的でのみ使用してください。</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>TLS 検査を有効にすると、Azure Firewall Premium で TLS 接続が終了して検査され、HTTPS での悪意のあるアクティビティが検出、アラート、軽減されます。</t>
+        </is>
+      </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10465,17 +10485,21 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>a875d2e4-5476-450f-8206-aa79ecdcb2e3</t>
+          <t>ab822518-b2ff-4048-8e9f-5a86d431d063</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>サードパーティの Security as a Service (SECaaS) プロバイダーを使用するかどうかを決定します。</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>Firewall Manager を使用して、Azure DDoS Protection プランを作成し、ハブ仮想ネットワークに関連付けます。このアプローチは Virtual WAN には適用されません。</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Azure DDoS Protection プランを構成して、ファイアウォール ポリシーと共に DDoS Protection を一元的に管理できるようにします。このアプローチにより、ネットワーク セキュリティの管理方法が合理化され、プロセスのデプロイと監視の方法が簡素化されます。</t>
+        </is>
+      </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10483,14 +10507,14 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>50dc96a3-9dca-4aab-97f5-9f8654d4f49c</t>
+          <t>05a6fac9-edc2-49bc-8bf8-17950c0cd710</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Azure Firewall のパブリック IP アドレスを DDoS で保護します。</t>
+          <t>デプロイする Azure Firewall SKU を選択します。Azure Firewall SKU の 3 つ (Basic、Standard、Premium) から選択します。Azure Firewall Premium を使用して、支払い処理など、機密性の高いアプリケーションをセキュリティで保護します。ワークロードにレイヤー 3 からレイヤー 7 のファイアウォールが必要で、最大 30 Gbps のピーク トラフィック期間を処理するために自動スケーリングが必要な場合は、Azure Firewall Standard を使用します。SMB を使用し、最大 250 Mbps のスループットが必要な場合は、Azure Firewall Basic を使用します。Standard SKU と Premium SKU の間でダウングレードまたはアップグレードできます。詳細については、「適切な Azure Firewall SKU を選択する」を参照してください。</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -10501,21 +10525,17 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>98318578-48f2-4870-adc0-a6a2cf9ce25e</t>
+          <t>9220cde5-ecbc-4eb1-a5ac-65e56e2aa925</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>インターネットへのすべてのトラフィックを、インターネットに直接アクセスするのではなく、指定された次ホップにルーティングする必要がある場合は、Azure Firewall を強制トンネリング モードで構成します (Azure Virtual WAN には適用されません)。</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Azure Firewall には、インターネットに直接接続できる必要があります。AzureFirewallSubnet が Border Gateway プロトコルを介してオンプレミス ネットワークへの既定のルートを学習する場合は、Azure Firewall を強制トンネリング モードで構成する必要があります。強制トンネリング機能を使用すると、Azure Firewall Management サブネット用に別の /26 アドレス空間が必要になります。これが強制トンネリング モードで再構成できない既存の Azure Firewall インスタンスである場合は、0.0.0.0/0 ルートで UDR を作成します。NextHopType の値を Internet に設定します。AzureFirewallSubnet に関連付けて、インターネット接続を維持します。</t>
-        </is>
-      </c>
+          <t>未使用のファイアウォールデプロイメントを削除し、使用率の低いデプロイメントを最適化します。継続的に実行する必要のない Azure Firewall のデプロイを停止します。未使用の Azure Firewall デプロイを特定して削除します。運用コストを削減するには、ファイアウォール インスタンスの使用状況、Azure Firewall Manager ポリシーの構成、および使用するパブリック IP アドレスとポリシーの数を監視および最適化します。</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10523,21 +10543,17 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>a845b563-f080-4a92-83b0-400feb87ee4e</t>
+          <t>54c37b38-2e3d-4cf9-b174-bee69a2a5b5d</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="C327" t="inlineStr">
         <is>
-          <t>強制トンネリング モードで Azure Firewall を構成するときに、完全にプライベート データ プレーンをデプロイするには、パブリック IP アドレスを [なし] に設定します (Azure Virtual WAN には適用されません)。</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>新しい Azure Firewall インスタンスをデプロイするときに、強制トンネリング モードを有効にすると、パブリック IP アドレスを None に設定して、完全にプライベート データ プレーンをデプロイできます。ただし、管理プレーンには、管理目的のみにパブリック IP が必要です。仮想ネットワークとオンプレミス ネットワークからの内部トラフィックでは、そのパブリック IP は使用されません。強制トンネリングの詳細については、「Azure Firewall の強制トンネリング」を参照してください。</t>
-        </is>
-      </c>
+          <t>Azure Firewall の同じインスタンスを共有します。ハブ仮想ネットワークまたは Virtual WAN セキュア ハブで Azure Firewall の中央インスタンスを使用し、同じリージョンから同じハブに接続するスポーク仮想ネットワーク間で同じ Azure Firewall インスタンスを共有できます。ハブアンドスポークトポロジで予期しないクロスリージョントラフィックが発生していないことを確認します。</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10545,21 +10561,17 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>176ae9e3-7a07-4885-ab4e-72a9ea2ee7fc</t>
+          <t>a522ab1e-0659-43b3-9fad-906116bb1432</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>最小特権アクセス基準に基づいてファイアウォールポリシーのルールを作成します。</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Azure Firewall ポリシーは、中央の基本ポリシーをオーバーレイするために階層構造に配置できます。特定のリージョンの要件を満たすためのきめ細かなポリシーを許可します。各ポリシーには、特定の優先度、アクション、および処理順序を持つDNAT、ネットワーク、およびアプリケーションルールの異なるセットを含めることができます。最小特権アクセスゼロトラストの原則に基づいてルールを作成します。ルールの処理方法については、この記事で説明します。</t>
-        </is>
-      </c>
+          <t>ファイアウォールを通過するトラフィックを最適化します。Azure Firewall が処理するトラフィックを定期的に確認します。ファイアウォールを通過するトラフィックの量を減らす機会を見つけます。</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10567,21 +10579,17 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>f1c5e5d4-9e41-4b27-b53f-fb36ddce75b7</t>
+          <t>0976c680-8f44-46f9-ae4d-2349eaafd800</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>IDPSをアラートまたはアラートと拒否モードで有効にします。</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>IDPS は、最も強力な Azure Firewall (Premium) セキュリティ機能の 1 つであり、有効にする必要があります。セキュリティとアプリケーションの要件に基づいて、パフォーマンスへの影響 (以下の「コスト」セクションを参照) を考慮して、アラート モードまたはアラートと拒否モードを選択できます。</t>
-        </is>
-      </c>
+          <t>保存するログ・データの量を減らします。Azure Firewall では、Azure Event Hubs を使用して、トラフィックのメタデータを包括的にログに記録し、Log Analytics ワークスペース、Azure Storage、または Microsoft 以外のソリューションに送信できます。すべてのロギングソリューションでは、データの処理とストレージの提供にコストがかかります。大量のデータには、多大なコストが発生する可能性があります。コスト効率の高いアプローチと Log Analytics の代替手段を検討し、コストを見積もります。すべてのロギングカテゴリのトラフィックメタデータをログに記録する必要があるかどうかを検討します。</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10589,19 +10597,19 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>0722a8f4-bea5-4309-93de-d93fb93e0733</t>
+          <t>debc5298-dba5-4c67-a03a-1ca626025139</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>Azure Firewall (DNS) プロキシ構成を有効にします。</t>
+          <t>継続的に実行する必要のない Azure Firewall のデプロイを停止します。営業時間内のみ使用する開発環境またはテスト環境がある場合があります。詳細については、「Azure Firewall の割り当て解除と割り当て」を参照してください。</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>この機能を有効にすると、VNet 内のクライアントは DNS サーバーとして Azure Firewall にポイントされます。直接アクセスされたり公開されたりしない内部DNSインフラストラクチャを保護します。Azure Firewall は、DNS クエリの転送に使用されるカスタム DNS を使用するようにも構成する必要があります。</t>
+          <t>これらのデプロイは、オフピーク時やアイドル状態のときにシャットダウンして、不要な費用を削減しながら、重要な時期にセキュリティとパフォーマンスを維持します。</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10611,19 +10619,19 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>8afc40b9-179e-4b5d-ba89-897925ad6d09</t>
+          <t>c12bc13f-aeea-4f9c-a7c0-476028848d3c</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>ユーザー定義ルート (UDR) を構成して、Azure Firewall 経由のトラフィックを強制します。</t>
+          <t>Azure Firewall が処理するトラフィックを定期的に確認し、元のワークロードの最適化を見つけます。上位フロー ログ (ファット フロー ログとも呼ばれます) には、ファイアウォール経由で最大のスループットに貢献した上位の接続が表示されます。</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>従来のハブ &amp; スポーク アーキテクチャでは、'Spoke-to-Spoke'、'Spoke-to-Internet'、および 'Spoke-to-Hybrid' 接続のために Azure Firewall 経由のトラフィックを強制するように UDR を構成します。代わりに、Azure Virtual WAN では、ルーティングの意図とポリシーを構成して、ハブに統合された Azure Firewall インスタンスを介してプライベートまたはインターネットのトラフィックをリダイレクトします。</t>
+          <t>ファイアウォール経由で最も多くのトラフィックを生成するワークロードを最適化して、トラフィックの量を減らし、ファイアウォールの負荷を減らし、データ処理と帯域幅のコストを最小限に抑えます。</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -10633,19 +10641,19 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>54cc495b-54f8-4dc9-9ed9-e20c15a8beb9</t>
+          <t>fcd6975c-5cb6-4716-9bab-fe8e7cd50e00</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>UDR を適用できず、Web トラフィックのリダイレクトのみが必要な場合は、Azure Firewall を明示的なプロキシとして使用することを検討してください</t>
+          <t>未使用の Azure Firewall デプロイを特定して削除します。ファイアウォールのプライベート IP を指すサブネットに関連付けられている監視メトリックと UDR を分析します。また、環境とデプロイに関する他の検証と内部ドキュメントも考慮してください。たとえば、Azure Firewall の従来の NAT、ネットワーク、およびアプリケーションのルールを分析します。そして、あなたの設定を考慮してください。たとえば、DNS プロキシ設定を [無効] に構成できます。 詳細については、「Azure Firewall の監視」を参照してください。</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>送信パスで明示的なプロキシ機能を有効にすると、プロキシとして構成された Azure Firewall を使用して、送信側の Web アプリケーション (Web ブラウザーなど) でプロキシ設定を構成できます。その結果、Web トラフィックはファイアウォールのプライベート IP アドレスに到達するため、UDR を使用せずにファイアウォールから直接送信されます。また、この機能により、既存のネットワークルートを変更することなく、複数のファイアウォールの使用が容易になります。</t>
+          <t>このアプローチを使用して、コスト効率の高いデプロイを経時的に検出し、未使用のリソースを排除することで、不要なコストを防ぐことができます。</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10655,19 +10663,19 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>18462426-38d0-444b-aaec-99aa97aefc57</t>
+          <t>06d0aca0-59c3-4474-aea8-314ebc1d4367</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>サポートされているサードパーティ製の SaaS (Software as a Service) セキュリティプロバイダーを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でこれらのソリューションを設定します。</t>
+          <t>Firewall Manager のポリシー、関連付け、および継承を慎重に確認して、コストを最適化します。ポリシーは、ファイアウォールの関連付けに基づいて請求されます。ファイアウォールの関連付けが 0 個または 1 個のポリシーは無料です。複数のファイアウォールの関連付けを持つポリシーは、固定料金で請求されます。詳細については、「Firewall Manager の料金表」を参照してください。</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>使い慣れた、最高のサードパーティであるSECaaS製品を使用して、ユーザーのインターネットアクセスを保護できます。このシナリオでは、IPSec トンネルを使用してプロバイダーのインフラストラクチャに接続するため、ハブに S2S VPN ゲートウェイを備えた Azure Virtual WAN が必要です。SECaaS プロバイダーは、追加のライセンス料金を請求し、IPSec 接続のスループットを制限する場合があります。ZScaler Cloud Connectorなどの代替ソリューションが存在し、より適している可能性があります。</t>
+          <t>Firewall Managerとそのポリシーを適切に使用して、運用コストを削減し、効率を高め、管理オーバーヘッドを削減します。</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -10677,19 +10685,19 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>cfcce0d3-c52d-4405-9316-d503ffcf5349</t>
+          <t>0afd66fd-36c6-44ad-8e71-cd3b247c6816</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>ネットワークルールで完全修飾ドメイン名 (FQDN) フィルタリングを使用します。</t>
+          <t>構成内のすべてのパブリック IP アドレスを確認し、使用しないアドレスの関連付けを解除して削除します。IP アドレスを削除する前に、送信元ネットワーク アドレス変換 (SNAT) ポートの使用状況を評価します。 詳細については、「Azure Firewall のログとメトリックを監視する」および「SNAT ポートの使用状況」を参照してください。</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>FQDN は、Azure Firewall とファイアウォール ポリシーの DNS 解決に基づいて使用できます。この機能により、任意の TCP/UDP プロトコル (NTP、SSH、RDP など) で送信トラフィックをフィルタリングできます。ネットワーク規則で FQDN を使用するには、Azure Firewall DNS プロキシ構成を有効にする必要があります。そのしくみについては、「ネットワーク ルールでの Azure Firewall FQDN フィルタリング」を参照してください。</t>
+          <t>未使用のIPアドレスを削除してコストを削減します。</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -10699,21 +10707,17 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>ce2815a6-eee5-4c54-91e7-9ee1e95a191a</t>
+          <t>2cbff8d4-4f59-42dc-b186-58f7c4965dbe</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>ネットワーク ルールでサービス タグを使用して、特定の Microsoft サービスへの選択的なアクセスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>サービス タグは、セキュリティ ルール作成の複雑さを最小限に抑えるために、IP アドレス プレフィックスのグループを表します。ネットワークルールでサービスタグを使用すると、さまざまなIPアドレスを開かずに、Azure、Dynamics、およびOffice 365の特定のサービスへのアウトバウンドアクセスを有効にすることができます。Azure では、これらのタグと各サービスで使用される基になる IP アドレスとの間のマッピングが自動的に維持されます。Azure Firewall で使用できるサービス タグの一覧は、「Az Firewall サービス タグ」の一覧です。</t>
-        </is>
-      </c>
+          <t>Firewall Manager を従来のハブ アンド スポーク トポロジまたは Virtual WAN ネットワーク トポロジと共に使用して、Azure Firewall のインスタンスをデプロイおよび管理します。トラフィックのガバナンスと保護にネイティブのセキュリティサービスを使用して、ハブアンドスポークと推移的なアーキテクチャを作成します。詳細については、「ネットワーク トポロジと接続性」を参照してください。</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10721,21 +10725,17 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>55fe92cd-c2a0-4b0b-bd8b-691291c73651</t>
+          <t>733bab93-bd9d-43c1-a780-e977d8f4fd3d</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>アプリケーションルールでFQDNタグを使用して、特定のMicrosoftサービスへの選択的なアクセスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>FQDN タグは、既知の Microsoft サービスに関連付けられている完全修飾ドメイン名 (FQDN) のグループを表します。アプリケーション規則で FQDN タグを使用すると、特定の Azure サービス (Office 365、Windows 365、Intune) のファイアウォール経由に必要な送信ネットワーク トラフィックを許可できます。</t>
-        </is>
-      </c>
+          <t>Azure Policy 成果物の定期的なバックアップを維持します。コードとしてのインフラストラクチャ アプローチを使用して Azure Firewall とすべての依存関係を維持する場合は、Azure Firewall ポリシーのバックアップとバージョン管理を行う必要があります。そうでない場合は、外部ロジック アプリに基づくコンパニオン メカニズムをデプロイして、効果的な自動化ソリューションを提供できます。</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10743,21 +10743,17 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>c9cac1b2-3969-4de0-b36f-6f9992d9ebc6</t>
+          <t>8271c7ff-1472-4a86-ab05-0538a869631c</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
-          <t>Azure Firewall Manager を使用して、DDoS 保護プランを作成し、ハブ仮想ネットワークに関連付けます (Azure Virtual WAN には適用されません)。</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>DDoS 保護プランでは、DDoS 攻撃からファイアウォールを保護するための強化された軽減機能が提供されます。Azure Firewall Manager は、ファイアウォール インフラストラクチャと DDoS 保護プランを作成するための統合ツールです。詳細については、「Azure Firewall Manager を使用して Azure DDoS Protection プランを構成する」を参照してください。</t>
-        </is>
-      </c>
+          <t>Azure Firewall のログとメトリックを監視します。ファイアウォールの監視とトラブルシューティングのための診断ログと、監査操作のためのアクティビティログを活用します。</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10765,21 +10761,17 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>e7925fd9-7502-4cb4-9b51-cbf8f546a5b2</t>
+          <t>09e15d81-89b9-458e-85a1-98ea29c9c72f</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="C338" t="inlineStr">
         <is>
-          <t>エンタープライズ PKI を使用して、TLS インスペクション用の証明書を生成します。</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Azure Firewall Premium では、TLS 検査機能を使用する場合は、運用環境に内部のエンタープライズ証明機関 (CA) を活用することをお勧めします。自己署名証明書は、テスト/PoCの目的でのみ使用する必要があります。</t>
-        </is>
-      </c>
+          <t>監視データを分析して、システムの全体的な正常性を評価します。組み込みの Azure Firewall 監視ブックを使用し、Kusto 照会言語 (KQL) クエリについて理解し、ポリシー分析ダッシュボードを使用して潜在的な問題を特定します。</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10787,21 +10779,17 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>2e318870-f258-484d-aef6-ed2972db1f44</t>
+          <t>ab3610c2-56cf-4888-8bb3-fe3816ee0d11</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="C339" t="inlineStr">
         <is>
-          <t>Azure Firewall と Application Gateway のゼロトラスト構成ガイドを確認する</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>セキュリティ要件により、Webアプリケーションにゼロトラストアプローチ(検査と暗号化)を実装する必要がある場合は、このガイドに従うことをお勧めします。このドキュメントでは、従来のハブ アンド スポークと Virtual WAN の両方のシナリオで、Azure Firewall と Application Gateway を統合する方法について説明します。</t>
-        </is>
-      </c>
+          <t>主要なイベントのアラートを定義して、オペレーターがそれらに迅速に対応できるようにします。</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10809,14 +10797,14 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>34821124-0275-4c49-8f1c-20eb84027df3</t>
+          <t>67eb37ee-d9b8-4aff-8aa3-71011176aa0a</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>デプロイする Azure Firewall SKU を選択します。</t>
+          <t>Azure のプラットフォームが提供する検出メカニズムを利用して、不正使用を検出します。可能であれば、Azure Firewall を Microsoft Defender for Cloud および Microsoft Sentinel と統合します。Defender for Cloud と統合すると、Azure のさまざまなリージョンのすべての仮想ネットワークと仮想ハブにわたる Azure ネットワーク セキュリティなど、ネットワーク インフラストラクチャとネットワーク セキュリティの状態を 1 か所で視覚化できます。Microsoft Sentinel と統合して、脅威の検出と防止の機能を提供します。</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -10827,17 +10815,21 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>ffdfd2b7-e799-4c09-9c76-1471fe5f8db9</t>
+          <t>5a8645c5-e586-4562-9f0a-7893542586fd</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="C341" t="inlineStr">
         <is>
-          <t>一部のインスタンスに永続的な 24x7 割り当てが必要ないかどうかを判断します。</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>Azure Firewall の診断ログを有効にします。ファイアウォール ログまたはブックを使用して、Azure Firewall を監視します。アクティビティ ログを使用して、Azure Firewall リソースに対する操作を監査することもできます。 構造化されたファイアウォール ログ形式を使用します。以前の診断ログ形式は、それを必要とする既存のツールがある場合にのみ使用してください。両方のログ記録形式を同時に有効にしないでください。</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>診断ログを有効にして、Azure Firewall の監視ツールと戦略を最適化します。 構造化されたファイアウォールログを使用してログデータを構造化し、検索、フィルタリング、分析を容易にします。最新の監視ツールはこのタイプのログに基づいているため、多くの場合、これは前提条件です。</t>
+        </is>
+      </c>
       <c r="F341" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10845,17 +10837,21 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>cca81cf9-4d7f-4e04-99e9-8ecfb533d814</t>
+          <t>1069db41-1f8c-43b3-a25f-9981cc78e397</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>ワークロード間でファイアウォールの使用を最適化できる場所を決定します。</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>組み込みの Azure Firewall ブックを使用します。</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Azure Firewall ブックを使用して、Azure Firewall イベントから貴重な分析情報を抽出し、アプリケーションとネットワークのルールを分析し、URL、ポート、アドレス間のファイアウォール アクティビティに関する統計を調べます。</t>
+        </is>
+      </c>
       <c r="F342" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10863,17 +10859,21 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>50c204ab-2e28-456c-a731-3ecf2e38d6d7</t>
+          <t>3e10f8ea-c20e-4374-9e58-52969a407dc5</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>ファイアウォールインスタンスの使用状況を監視および最適化して、費用対効果を判断します。</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>Azure Firewall のログとメトリックを監視し、Azure Firewall の容量に関するアラートを作成します。スループット、ファイアウォールの正常性状態、SNAT ポートの使用率、AZFW 待機時間プローブのメトリックを監視するアラートを作成します。</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>主要なイベントのアラートを設定して、潜在的な問題が発生する前にオペレーターに通知し、中断を防ぎ、迅速な容量調整を開始します。</t>
+        </is>
+      </c>
       <c r="F343" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10881,17 +10881,21 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>365207d2-1008-4a6e-ad87-f4191a31a004</t>
+          <t>7f972e0f-0259-4783-b9e6-82c278711b0f</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="C344" t="inlineStr">
         <is>
-          <t>必要なパブリック IP アドレスの数と使用するポリシーを確認して最適化します。</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>ポリシー分析ダッシュボードを定期的に確認して、潜在的な問題を特定します。</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>ポリシー分析を使用して、Azure Firewall ポリシーの影響を分析します。ポリシーの制限を満たす、不適切なルール、不適切な IP グループの使用など、ポリシーの潜在的な問題を特定します。セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を取得します。</t>
+        </is>
+      </c>
       <c r="F344" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10899,17 +10903,21 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>39b1fd82-3efb-459b-b789-a9dc631f9f90</t>
+          <t>90c06dd6-c01a-4f49-9054-7073f5c774ae</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="C345" t="inlineStr">
         <is>
-          <t>ロギング要件を確認し、コストを見積もり、長期にわたって管理します。</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>KQL クエリを理解して、Azure Firewall ログを使用して問題を迅速に分析し、トラブルシューティングできるようにします。Azure Firewall には、サンプル クエリが用意されています。</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>KQL クエリを使用すると、ファイアウォール内のイベントをすばやく特定し、トリガーされたルールや、要求を許可またはブロックするルールを確認できます。</t>
+        </is>
+      </c>
       <c r="F345" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10917,21 +10925,17 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>46753a55-3740-4a6d-808b-fbe485bc66e5</t>
+          <t>a3aa7729-46bd-4de6-82e6-28ac9d631b7a</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="C346" t="inlineStr">
         <is>
-          <t>適切な Azure Firewall SKU をデプロイします。</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Azure Firewall は、Basic、Standard、Premium の 3 つの異なる SKU でデプロイできます。Azure Firewall Premium は、機密性の高いアプリケーション (支払い処理など) をセキュリティで保護するために推奨されます。Azure Firewall Standard は、レイヤー 3 からレイヤー 7 のファイアウォールをお探しのお客様で、最大 30 Gbps のピーク トラフィック期間を処理するために自動スケーリングが必要な場合に推奨されます。Azure Firewall Basic は、250 Mbps のスループットが必要な SMB のお客様にお勧めします。必要に応じて、こちらに記載されているように、Standard と Premium の間でダウングレードまたはアップグレードが可能です。  詳細については、「ニーズに合わせて適切な Azure Firewall SKU を選択する」を参照してください。</t>
-        </is>
-      </c>
+          <t>Well-Architected Framework の推奨事項に従って Azure Firewall の構成を最適化し、コードとインフラストラクチャを最適化し、ピーク時の運用を確保します。効率的で安全なネットワークを維持するには、ファイアウォールルールを定期的に見直して最適化してください。この方法により、ファイアウォール構成が効果的で、最新のセキュリティ脅威に対して最新の状態に保たれるようになります。</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10939,21 +10943,17 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>ba45f704-2456-4d6a-999d-57db4dbf3ff5</t>
+          <t>9e42071b-fe43-455d-afa9-5ed2c33c7d20</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="C347" t="inlineStr">
         <is>
-          <t>24x7 で実行する必要のない Azure Firewall のデプロイを停止します。</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>営業時間内のみ使用される開発環境またはテスト環境がある場合があります。詳細については、「Azure Firewall の割り当て解除と割り当て」を参照してください。</t>
-        </is>
-      </c>
+          <t>仮想ネットワーク内のトラフィック制御に Azure Firewall を使用しないでください。Azure Firewall を使用して、次の種類のトラフィックを制御します。</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10961,21 +10961,17 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>2ef42b67-50cc-4d54-bd3d-324ad2044fc7</t>
+          <t>1655f213-e590-45ee-8819-9a5e40f83430</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="C348" t="inlineStr">
         <is>
-          <t>Azure Firewall の同じインスタンスを複数のワークロードと Azure Virtual Network で共有します。</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>ハブ仮想ネットワークまたは Virtual WAN セキュア ハブで Azure Firewall の中央インスタンスを使用し、同じリージョンから同じハブに接続されている多くのスポーク仮想ネットワークで同じファイアウォールを共有できます。ハブスポークトポロジの一部として予期しないリージョン間トラフィックがないことを確認します。</t>
-        </is>
-      </c>
+          <t>パフォーマンス テストの前に、Azure Firewall を適切にウォームアップします。ロード テストに含まれない初期トラフィックは、テストの 20 分前に作成します。診断設定を使用して、スケールアップとスケールダウンのイベントをキャプチャします。Azure Load Testing サービスを使用して初期トラフィックを生成すると、Azure Firewall を最大インスタンス数までスケールアップできます。</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -10983,21 +10979,17 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>ae5816a1-1766-425a-a117-2873865a9f10</t>
+          <t>c3ae17a3-eff4-4f6e-98b9-df3a59bacfd9</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="C349" t="inlineStr">
         <is>
-          <t>Azure Firewall によって処理されたトラフィックを定期的に確認し、発生元のワークロードの最適化を探します</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>上位フロー ログ (業界では Fat Flows) は、ファイアウォールを介して最高のスループットに貢献している上位の接続を示します。Azure Firewall によって処理されるトラフィックを定期的に確認し、ファイアウォールを通過するトラフィックの量を減らすための最適化の可能性を検索することをお勧めします。</t>
-        </is>
-      </c>
+          <t>Azure Firewall サブネットを /26 アドレス空間で構成します。Azure Firewall 専用のサブネットが必要です。Azure Firewall は、スケーリングに応じてより多くの容量をプロビジョニングします。</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11005,21 +10997,17 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>791f974e-8c73-46ee-9b9e-26dd3a6c6845</t>
+          <t>df91da5c-22c8-4c7c-bfe5-9a1ede0028d9</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="C350" t="inlineStr">
         <is>
-          <t>使用率の低い Azure Firewall インスタンスを確認します。未使用の Azure Firewall デプロイを特定して削除します。</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>未使用の Azure Firewall デプロイを特定するには、まず、ファイアウォールのプライベート IP を指すサブネットに関連付けられている監視メトリックと UDR を分析します。その情報を、Azure Firewall のインスタンスに NAT、ネットワーク、アプリケーションのルール (クラシック) があるかどうか、DNS プロキシ設定が [無効] に構成されているかどうかなど、他の検証と組み合わせ、環境とデプロイに関する内部ドキュメントと組み合わせます。時間の経過とともにコスト効率の高いデプロイを検出できます。 ログとメトリックの監視の詳細については、「Azure Firewall のログとメトリックと SNAT ポートの使用率を監視する」を参照してください。</t>
-        </is>
-      </c>
+          <t>詳細ログが必要ない場合は有効にしないでください。Azure Firewall には、アクティブな状態を維持するために多額のコストが発生する可能性がある高度なログ記録機能がいくつか用意されています。代わりに、これらの機能はトラブルシューティングの目的のみ、限られた時間だけ使用できます。不要な機能を無効にする。たとえば、上位フローとフロー トレース ログは高価であり、Azure Firewall インフラストラクチャで CPU とストレージの使用量が過剰になる可能性があります。</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11027,19 +11015,19 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>6590ab7b-01d8-487c-ad40-c325eada375c</t>
+          <t>ddf79c25-05f6-4085-94c4-9534ec1a05fa</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>Azure Firewall Manager とそのポリシーを使用して、運用コストを削減し、効率を高め、管理オーバーヘッドを削減します。</t>
+          <t>ポリシー分析ダッシュボードを使用して、Azure Firewall ポリシーを最適化する方法を特定します。</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Firewall Manager のポリシー、関連付け、および継承を慎重に確認してください。ポリシーは、ファイアウォールの関連付けに基づいて請求されます。ファイアウォールの関連付けが 0 個または 1 個のポリシーは無料です。複数のファイアウォールの関連付けを持つポリシーは、固定料金で請求されます。詳細については、「価格 - Azure Firewall Manager」を参照してください。</t>
+          <t>ポリシー分析を使用して、ポリシーの制限を満たす、不適切なルール、不適切な IP グループの使用など、ポリシーの潜在的な問題を特定します。セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を取得します。</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11049,19 +11037,19 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>c82f1a0b-3dd1-4da7-9006-5b870e0ea843</t>
+          <t>9a20f369-25cd-45ba-bda7-e56f1e379e15</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="C352" t="inlineStr">
         <is>
-          <t>未使用のパブリック IP アドレスを削除します。</t>
+          <t>頻繁に使用されるルールをグループの早い段階に配置して、大きなルール セットを持つ Azure Firewall ポリシーの待機時間を最適化します。 詳細については、「Azure Firewall ポリシーを使用してルールを処理する」を参照してください。</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>関連付けられているすべてのパブリック IP アドレスが使用中かどうかを検証します。使用していない場合は、関連付けを解除して削除します。IP アドレスを削除する前に、SNAT ポートの使用率を評価します。ファイアウォールに必要な数のパブリック IP のみを使用します。詳細については、「Azure Firewall のログとメトリックの監視」および「SNAT ポートの使用率」を参照してください。</t>
+          <t>頻繁に使用するルールをルールセットの上位に配置して、処理の遅延を最適化します。Azure Firewall は、ルールの種類、継承、ルール コレクション グループの優先度、およびルール コレクションの優先度に基づいてルールを処理します。Azure Firewall は、優先度の高いルール コレクション グループを最初に処理します。ルール コレクション グループ内では、Azure Firewall は優先度が最も高いルール コレクションを最初に処理します。</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11071,19 +11059,19 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>58401f6a-8858-4d03-bf00-7f6d8747297a</t>
+          <t>ce0fa221-61f9-41ab-a9ed-233f5546d732</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="C353" t="inlineStr">
         <is>
-          <t>ログ記録の要件を確認します。</t>
+          <t>IP グループを使用して IP アドレス範囲を要約し、一意の送信元または一意の宛先ネットワーク ルールの制限を超えないようにします。Azure Firewall では、ネットワーク ルールを作成するときに、IP グループを 1 つのアドレスとして扱います。</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Azure Firewall には、表示されるすべてのトラフィックのメタデータを、Event Hubs を介して Log Analytics ワークスペース、ストレージ、またはサードパーティのソリューションに包括的に記録する機能があります。ただし、すべてのロギングソリューションでは、データの処理と保存にコストがかかります。非常に大量のコストがかかると、これらのコストは大きくなる可能性があるため、コスト効率の高いアプローチと Log Analytics の代替手段を検討し、コストを見積もる必要があります。すべてのロギングカテゴリのトラフィックメタデータをログに記録し、必要に応じて診断設定で変更する必要があるかどうかを検討します。</t>
+          <t>このアプローチにより、制限を超えずにカバーできる IP アドレスの数を効果的に増やすことができます。ルールごとに、Azure はポートに IP アドレスを乗算します。したがって、1 つのルールに 4 つの IP アドレス範囲と 5 つのポートがある場合、20 個のネットワーク ルールが消費されます。</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11093,17 +11081,21 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>a9f71813-ccf8-427a-9ce3-676b4123eff4</t>
+          <t>1d2f023e-7dcf-4f55-b07f-1a93c9c0ab4e</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="C354" t="inlineStr">
         <is>
-          <t>Azure Firewall の構成とポリシーのインベントリとバックアップを維持します。</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>Azure Firewall の Web カテゴリを使用して、パブリック インターネット サイトの長いリストを明示的に作成して維持する代わりに、送信アクセスを一括で許可または拒否します。</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>この機能は、Web コンテンツを動的に分類し、コンパクトなアプリケーションルールの作成を可能にするため、運用上のオーバーヘッドが削減されます。</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11111,17 +11103,21 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>c8e11b57-bc16-4a60-9c0d-aeae7239fe91</t>
+          <t>2007a892-6911-4310-b6eb-5eb3660dc8c9</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="C355" t="inlineStr">
         <is>
-          <t>診断ログをファイアウォールの監視とトラブルシューティングに活用します。</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>アラート モードと拒否モードでの IDPS のパフォーマンスへの影響を評価します。詳細については、「Azure Firewall のパフォーマンス」を参照してください。</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>アラートおよび拒否モードでIDPSを有効にして、悪意のあるネットワークアクティビティを検出して防止します。この機能により、パフォーマンスが低下する可能性があります。ワークロードへの影響を理解し、それに応じて計画を立てることができます。</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11129,17 +11125,21 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>be3e8ab7-db2a-40f7-a76a-fba15b34b88d</t>
+          <t>984c7d68-82f6-48e9-a894-a8e7717d49e2</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="C356" t="inlineStr">
         <is>
-          <t>Azure Firewall 監視ブックを活用します。</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>Azure Firewall のデプロイは、SNAT ポートの枯渇の影響を受けやすいデプロイに対して、少なくとも 5 つのパブリック IP アドレスで構成します。</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Azure Firewall では、各バックエンドの Azure Virtual Machine Scale Sets インスタンスで使用されるパブリック IP アドレスごとに 2,496 個のポートがサポートされています。この構成により、使用可能な SNAT ポートが 5 倍に増加します。 既定では、Azure Firewall は、フローの宛先 IP、宛先ポート、TCP または UDP プロトコルごとに 4,992 ポートをサポートする 2 つの Virtual Machine Scale Sets インスタンスをデプロイします。ファイアウォールは、最大 20 インスタンスまでスケールアップできます。</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11147,14 +11147,14 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>af454d15-f640-47db-9864-7c31cbdcdffc</t>
+          <t>899877c6-618a-4814-953a-7c7ce430e407</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>ポリシーに関するインサイトと分析を定期的に見直します。</t>
+          <t>トラフィックのパターンと量を推定します。クライアントから Azure Front Door エッジへの要求の数は、レベルの選択に影響を与える可能性があります。大量の要求をサポートする必要がある場合は、パフォーマンスが最終的に可用性に影響を与えるため、Azure Front Door Premium レベルを検討してください。ただし、コストのトレードオフがあります。これらの階層については、パフォーマンス効率で説明されています。</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
@@ -11165,14 +11165,14 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>010e0c46-9d19-46fb-9a85-4bb79828db8a</t>
+          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="C358" t="inlineStr">
         <is>
-          <t>Azure Firewall を Microsoft Defender for Cloud および Microsoft Sentinel と統合します。</t>
+          <t>デプロイ戦略を選択します。基本的なデプロイ アプローチは、アクティブ/アクティブとアクティブ/パッシブです。アクティブ/アクティブ デプロイとは、ワークロードを実行する複数の環境またはスタンプがトラフィックを処理することを意味します。アクティブ/パッシブ デプロイとは、プライマリ リージョンのみがすべてのトラフィックを処理しますが、必要に応じてセカンダリ リージョンにフェールオーバーすることを意味します。マルチリージョン デプロイでは、トラフィックを分散する Azure Front Door などのグローバル ロード バランサーを使用して、可用性を高めるために、スタンプは異なるリージョンで実行されます。そのため、適切なデプロイ方法に合わせてロードバランサーを設定することが重要です。</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
@@ -11183,21 +11183,17 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>e455cf35-374c-4e02-9432-e0dc531b829b</t>
+          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="C359" t="inlineStr">
         <is>
-          <t>VNet 内のトラフィック制御に Azure Firewall を使用しないでください。</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Azure Firewall は、VNet 間、VNet とオンプレミス ネットワーク間のトラフィック、インターネットへの送信トラフィック、および受信 HTTP/s トラフィックを制御するために使用する必要があります。VNet 内のトラフィック制御には、ネットワーク セキュリティ グループを使用することをお勧めします。</t>
-        </is>
-      </c>
+          <t>Azure Front Door サーバーと配信元サーバーで同じホスト名を使用します。Cookie またはリダイレクト URL が正しく機能するようにするには、Web アプリケーションの前でロードバランサーなどのリバースプロキシを使用するときは、元の HTTP ホスト名を保持します。</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11205,21 +11201,17 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>337df674-237d-4b82-ac92-ae45f34a6e3d</t>
+          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="C360" t="inlineStr">
         <is>
-          <t>Azure Policy 成果物の定期的なバックアップを維持します。</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>コードとしてのインフラストラクチャ (IaC) アプローチを使用して Azure Firewall とすべての依存関係を維持する場合は、Azure Firewall ポリシーのバックアップとバージョン管理が既に実施されている必要があります。そうでない場合は、外部ロジック アプリに基づくコンパニオン メカニズムをデプロイして、効果的なソリューションを自動化し、提供できます。</t>
-        </is>
-      </c>
+          <t>正常性エンドポイント監視パターンを実装します。アプリケーションでは、アプリケーションが要求を処理するために必要な重要なサービスと依存関係の状態を集約する正常性エンドポイントを公開する必要があります。Azure Front Door の正常性プローブでは、エンドポイントを使用して配信元サーバーの正常性を検出します。詳細については、「 正常性エンドポイント監視パターン」を参照してください。</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11227,21 +11219,17 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>174e4ca6-77d4-4b83-8f05-0c54c43792ec</t>
+          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="C361" t="inlineStr">
         <is>
-          <t>Azure Firewall の診断ログを有効にします。</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>診断ログは、Azure Firewall の多くの監視ツールと戦略の主要なコンポーネントであり、有効にする必要があります。Azure Firewall は、ファイアウォールのログまたはブックを使用して監視できます。アクティビティ ログを使用して、Azure Firewall リソースに対する操作を監査することもできます。</t>
-        </is>
-      </c>
+          <t>Azure Front Door の組み込みのコンテンツ配信ネットワーク機能を活用します。Azure Front Door のコンテンツ配信ネットワーク機能には、数百のエッジ ロケーションがあり、分散型サービス拒否 (DDoS) 攻撃に耐えるのに役立ちます。これらの機能は、信頼性の向上に役立ちます。</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11249,21 +11237,17 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>7e27b44b-e8c0-4f25-9fce-78a85810d715</t>
+          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="C362" t="inlineStr">
         <is>
-          <t>構造化ファイアウォールログ形式を使用します。</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>構造化ファイアウォールログは、特定の新しい形式で整理されたログデータの一種です。事前定義されたスキーマを使用して、検索、フィルタリング、分析を容易にする方法でログデータを構造化します。最新の監視ツールはこのタイプのログに基づいているため、多くの場合、前提条件となります。以前の診断ログ形式は、前提条件を持つ既存のツールがある場合にのみ使用してください。両方のログ形式を同時に有効にしないでください。</t>
-        </is>
-      </c>
+          <t>冗長なトラフィック管理オプションを検討してください。Azure Front Door は、環境内でシングルトンとして実行されるグローバルに分散されたサービスです。Azure Front Door は、システム内の潜在的な単一障害点です。サービスが失敗した場合、ダウンタイム中はクライアントがアプリケーションにアクセスできません。</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11271,19 +11255,19 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>078ab6f4-2ef5-4f91-856c-be9e3c2748a1</t>
+          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="C363" t="inlineStr">
         <is>
-          <t>組み込みの Azure Firewall 監視ブックを使用します。</t>
+          <t>デプロイ戦略をサポートするルーティング方法を選択します。 設定された重み係数に基づいてトラフィックを分散する加重方式は、アクティブ/アクティブモデルをサポートします。 プライマリ リージョンがすべてのトラフィックを受信し、バックアップとしてセカンダリ リージョンにトラフィックを送信するように設定する優先度ベースの値は、アクティブ/パッシブ モデルをサポートします。 上記の方法とレイテンシを組み合わせて、レイテンシが最も低いオリジンがトラフィックを受信するようにします。</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Azure Firewall ポータル エクスペリエンスに、監視セクション UI の下に新しいブックが含まれるようになり、個別のインストールは不要になりました。Azure Firewall ブックを使用すると、Azure Firewall イベントから貴重な分析情報を抽出し、アプリケーションとネットワークのルールを詳しく調べ、URL、ポート、アドレス間のファイアウォール アクティビティに関する統計を調べることができます。</t>
+          <t>最適なオリジンリソースを選択するには、一連の決定手順と設計を使用します。選択したオリジンは、指定されたウェイトの比率で許容レイテンシ範囲内のトラフィックを提供します。</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11293,19 +11277,19 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>a246ca16-d2da-4ebc-ad28-0bcbb0813be0</t>
+          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="C364" t="inlineStr">
         <is>
-          <t>主要なメトリックを監視し、Azure Firewall 容量の使用率を示すインジケーターのアラートを作成します。</t>
+          <t>1 つ以上のバックエンド プールに複数の配信元を持つことで冗長性をサポートします。アプリケーションの冗長インスタンスを常に用意し、各インスタンスがエンドポイントまたはオリジンを公開していることを確認します。これらの配信元は、1 つ以上のバックエンド プールに配置できます。</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>アラートは、少なくともスループット、ファイアウォールの正常性状態、SNAT ポートの使用率、AZFW 待機時間プローブのメトリックを監視するために作成する必要があります。ログとメトリックの監視については、「Azure Firewall のログとメトリックを監視する」を参照してください。</t>
+          <t>複数のオリジンは、アプリケーションの複数のインスタンスにトラフィックを分散することで冗長性をサポートします。1 つのインスタンスが使用できない場合でも、他のバックエンド配信元は引き続きトラフィックを受信できます。</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -11315,19 +11299,19 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>0c405dff-403a-4ead-94d9-5539ba1eaea6</t>
+          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="C365" t="inlineStr">
         <is>
-          <t>Azure Firewall と Microsoft Defender for Cloud および Microsoft Sentinel との統合を構成します。</t>
+          <t>配信元で正常性プローブを設定します。バックエンド インスタンスが使用可能で、引き続き要求を受信する準備ができているかどうかを判断するための正常性チェックを実行するように Azure Front Door を構成します。</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>これらのツールが環境で使用できる場合は、Microsoft Defender for Cloud および Microsoft Sentinel ソリューションとの統合を活用することをお勧めします。Microsoft Defender for Cloud の統合により、すべての VNet にわたる Azure ネットワーク セキュリティや、Azure のさまざまなリージョンに分散した仮想ハブなど、ネットワーク インフラストラクチャとネットワーク セキュリティの全体的な状態を 1 か所で視覚化できます。Microsoft Sentinel との統合により、脅威の検出と防止の機能が実現します。</t>
+          <t>有効な正常性プローブは、正常性監視パターンの実装の一部です。正常性プローブは、Azure Front Door が要求を処理するのに十分な正常なインスタンスにのみトラフィックをルーティングすることを確認します。 詳細については、「正常性プローブのベスト プラクティス」を参照してください。</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -11337,19 +11321,19 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>6643f4d1-ee99-4466-9175-164787d00fc3</t>
+          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="C366" t="inlineStr">
         <is>
-          <t>ポリシー分析ダッシュボードを定期的に確認して、潜在的な問題を特定します。</t>
+          <t>バックエンドへの要求の転送にタイムアウトを設定します。 エンドポイントのニーズに応じてタイムアウト設定を調整します。そうしないと、配信元が応答を送信する前に Azure Front Door が接続を閉じる可能性があります。 また、すべての配信元のタイムアウトが短い場合は、Azure Front Door の既定のタイムアウトを下げることもできます。 詳細については、「応答しない要求のトラブルシューティング」を参照してください。</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>ポリシー分析は、Azure Firewall ポリシーの影響に関する分析情報を提供する新機能です。これは、ポリシーの潜在的な問題 (ポリシー制限のヒット、使用率の低いルール、冗長なルール、汎用すぎるルール、IP グループの使用に関する推奨事項) を特定するのに役立ち、セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を提供します。</t>
+          <t>タイムアウトは、完了までに予想以上に時間がかかる要求を終了することで、パフォーマンスの問題と可用性の問題を防ぐのに役立ちます。</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -11359,19 +11343,19 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>43d91873-4442-40ae-b2a3-263bc7fdcaab</t>
+          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="C367" t="inlineStr">
         <is>
-          <t>KQL (Kusto 照会言語) クエリに慣れると、Azure Firewall ログを使用した迅速な分析とトラブルシューティングが可能になります。</t>
+          <t>Azure Front Door と配信元で同じホスト名を使用します。Azure Front Door では、受信要求のホスト ヘッダーを書き換えることができるため、1 つの配信元にルーティングする複数のカスタム ドメイン名がある場合に便利です。ただし、ホストヘッダーを書き換えると、リクエスト Cookie と URL リダイレクトで問題が発生する可能性があります。</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Azure Firewall のサンプル クエリが用意されています。これにより、ファイアウォール内で何が起こっているかをすばやく特定し、トリガーされたルールや、リクエストを許可/ブロックしているルールを確認できます。</t>
+          <t>セッションのアフィニティ、認証、および承認の誤動作を防ぐために、同じホスト名を設定します。詳細については、「リバース プロキシとそのバックエンド Web アプリケーション間で元の HTTP ホスト名を保持する」を参照してください。</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -11381,17 +11365,21 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>8bc24ea6-da9e-48b8-a05c-4fce251d2046</t>
+          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="C368" t="inlineStr">
         <is>
-          <t>ファイアウォールルールを定期的に見直し、最適化します。</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>アプリケーションにセッション アフィニティが必要かどうかを判断します。高い信頼性要件がある場合は、セッション アフィニティを無効にすることをお勧めします。</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>セッション アフィニティを使用すると、ユーザー接続はユーザー セッション中に同じオリジンに留まります。そのオリジンが使用できなくなった場合、ユーザーエクスペリエンスが中断される可能性があります。</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11399,17 +11387,21 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>9469b3e2-6be2-470b-a10b-9fb0150c5733</t>
+          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>ポリシーの要件と機会を確認して、IP 範囲と URL のリストをまとめます。</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>Web アプリケーション ファイアウォール (WAF) に含まれるレート制限ルールを利用します。</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>要求を制限して、クライアントがアプリケーションに大量のトラフィックを送信しないようにします。レート制限は、再試行ストームのような問題を回避するのに役立ちます。</t>
+        </is>
+      </c>
       <c r="F369" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11417,14 +11409,14 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>9efe3606-1aa2-4e06-bf6a-2e5214cf080f</t>
+          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>SNAT ポートの要件を評価します。</t>
+          <t>Azure Front Door のセキュリティ ベースラインを確認します。</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -11435,14 +11427,14 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>93db9b9d-c43d-47e2-a1cf-e81841274059</t>
+          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>負荷テストを計画して、環境内の自動スケールのパフォーマンスをテストします。</t>
+          <t>バックエンド サーバーを保護します。フロントエンドは、アプリケーションへの単一の入力ポイントとして機能します。</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
@@ -11453,14 +11445,14 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>fbe59997-e12b-497b-bdbd-d2a5e3f728e7</t>
+          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>診断ツールとロギングは、必要でない場合は有効にしないでください。</t>
+          <t>コントロールプレーンへの許可されたアクセスのみを許可します。Azure Front Door のロールベースのアクセス制御 (RBAC) を使用して、必要な ID のみにアクセスを制限します。</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -11471,21 +11463,17 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>c68f8c08-fe1e-4515-a877-67daaa008ab0</t>
+          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="C373" t="inlineStr">
         <is>
-          <t>ポリシー分析ダッシュボードを使用して、ファイアウォール ポリシーの潜在的な最適化を特定します。</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>ポリシー分析は、Azure Firewall ポリシーの影響に関する分析情報を提供する新機能です。これは、ポリシーの潜在的な問題 (ポリシー制限のヒット、使用率の低いルール、冗長なルール、汎用すぎるルール、IP グループの使用に関する推奨事項) を特定するのに役立ち、セキュリティ体制とルール処理のパフォーマンスを向上させるための推奨事項を提供します。</t>
-        </is>
-      </c>
+          <t>エッジで一般的な脅威をブロックします。WAF は Azure Front Door と統合されています。フロントエンドでWAFルールを有効にして、攻撃元に近いネットワークエッジで一般的なエクスプロイトや脆弱性からアプリケーションを保護します。</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11493,21 +11481,17 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>cbbaf175-2b8e-4a1f-af5a-a9cbfb798ffb</t>
+          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Web カテゴリで、送信アクセスを一括で許可または拒否することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>パブリック インターネット サイトの長いリストを明示的に構築して維持する代わりに、Azure Firewall Web カテゴリの使用を検討してください。この機能は、Webコンテンツを動的に分類し、コンパクトなアプリケーションルールの作成を可能にします。</t>
-        </is>
-      </c>
+          <t>予期しないトラフィックから Azure Front Door を保護します。Azure Front Door では、Azure DDoS Protection の基本プランを使用して、アプリケーション エンドポイントを DDoS 攻撃から保護します。アプリケーションから他のパブリック IP アドレスを公開する必要がある場合は、高度な保護機能と検出機能のために、それらのアドレスに DDoS Protection 標準プランを追加することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11515,21 +11499,17 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>b8bc28b7-69d4-49d3-8a1e-8dd7ba71ebbe</t>
+          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="C375" t="inlineStr">
         <is>
-          <t>アラート モードと拒否モードでの IDPS のパフォーマンスへの影響を評価します。</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Azure Firewall を IDPS モードのアラートと拒否で動作する必要がある場合は、「ファイアウォールのパフォーマンス」に記載されているように、パフォーマンスへの影響を慎重に検討してください。</t>
-        </is>
-      </c>
+          <t>転送中のデータを保護します。エンドツーエンドのトランスポート層セキュリティ (TLS)、HTTP から HTTPS へのリダイレクト、およびマネージド TLS 証明書 (該当する場合) を有効にします。詳細については、「Azure Front Door の TLS のベスト プラクティス」を参照してください。</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11537,21 +11517,17 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>b91be607-0c6b-4c0d-bdd2-367879f7632d</t>
+          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="C376" t="inlineStr">
         <is>
-          <t>SNAT ポートの枯渇の潜在的な問題を評価します。</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Azure Firewall では現在、バックエンド仮想マシン スケール セット インスタンスごとにパブリック IP アドレスあたり 2496 ポートがサポートされています。既定では、2 つの Virtual Machine Scale Set インスタンスがあります。したがって、フローの宛先IP、宛先ポート、およびプロトコル(TCPまたはUDP)ごとに4992ポートがあります。ファイアウォールは、最大 20 インスタンスまでスケールアップできます。この制限を回避するには、SNAT の枯渇の影響を受けやすいデプロイに対して、少なくとも 5 つのパブリック IP アドレスを使用して Azure Firewall デプロイを構成します。</t>
-        </is>
-      </c>
+          <t>異常なアクティビティを監視します。ログを定期的に確認して、攻撃や誤検知がないか確認します。Azure Front Door から WAF ログを組織の一元化されたセキュリティ情報およびイベント管理 (SIEM) (Microsoft Sentinel など) に送信して、脅威のパターンを検出し、ワークロードの設計に予防策を組み込みます。</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11559,19 +11535,19 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>a5847147-e7ef-48d1-ba16-d896fdce1b9f</t>
+          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="C377" t="inlineStr">
         <is>
-          <t>パフォーマンス テストの前に、Azure Firewall を適切にウォームアップします。</t>
+          <t>悪意のある可能性のあるトラフィックを検出してブロックする WAF ルールセットを有効にします。この機能は、Premium レベルで使用できます。次のルールセットをお勧めします: - デフォルト - ボット保護 - IP制限 - ジオフィルタリング - レート制限</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>ロード テストに含まれない初期トラフィックは、テストの 20 分前に作成します。診断設定を使用して、スケールアップとスケールダウンのイベントをキャプチャします。Azure Load Testing サービスを使用して、初期トラフィックを生成できます。Azure Firewall インスタンスがインスタンスを最大までスケールアップできるようにします。</t>
+          <t>既定のルール セットは、OWASP の上位 10 種類の攻撃の種類と Microsoft 脅威インテリジェンスからの情報に基づいて頻繁に更新されます。 特殊なルール・セットは、特定のユースケースを検出します。たとえば、ボット ルールは、クライアントの IP アドレスに基づいてボットを良好、不良、または不明に分類します。また、悪意のあるボットや既知のIPアドレスをブロックし、発信者の地理的な場所に基づいてトラフィックを制限します。 ルールセットを組み合わせて使用することで、さまざまなインテントによる攻撃を検知し、ブロックすることができます。</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -11581,19 +11557,19 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>908a8bfa-9e9f-4199-8b5a-f2a031ab22e0</t>
+          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="C378" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネット (AzureFirewallSubnet) を /26 アドレス空間で構成します。</t>
+          <t>マネージド ルール セットの除外を作成します。 WAF ポリシーを検出モードで数週間テストし、誤検出がある場合は調整してからデプロイします。</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Azure Firewall は、仮想ネットワーク内の専用デプロイです。仮想ネットワーク内では、Azure Firewall のインスタンスに専用のサブネットが必要です。Azure Firewall は、スケーリングに応じてより多くの容量をプロビジョニングします。サブネットの /26 アドレス空間により、ファイアウォールはスケーリングに対応するのに十分な IP アドレスを確保できます。Azure Firewall には、/26 より大きいサブネットは必要ありません。Azure Firewall サブネット名は AzureFirewallSubnet にする必要があります。</t>
+          <t>誤検知を減らし、アプリケーションに対する正当な要求を許可します。</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -11603,19 +11579,19 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>d0e66443-59f1-48cb-995f-eaa6688c4f3b</t>
+          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="C379" t="inlineStr">
         <is>
-          <t>不要な場合は、詳細ログを有効にしないでください</t>
+          <t>エンドツーエンド TLS、HTTP から HTTPS へのリダイレクト、およびマネージド TLS 証明書 (該当する場合) を有効にします。 Azure Front Door の TLS のベスト プラクティスを確認します。 TLS バージョン 1.2 を最小許容バージョンとして使用し、アプリケーションに関連する暗号を使用します。 Azure Front Door で管理される証明書は、操作を容易にするために既定の選択肢にする必要があります。ただし、証明書のライフサイクルを管理する場合は、Azure Front Door カスタム ドメイン エンドポイントで独自の証明書を使用し、Key Vault に格納します。</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Azure Firewall には、常にアクティブに保つにはコストがかかる可能性のある高度なログ機能がいくつか用意されています。代わりに、トラブルシューティングの目的でのみ使用し、期間を制限し、不要になったら無効にする必要があります。たとえば、上位フローとフロー トレース ログは高価です は、Azure Firewall インフラストラクチャで CPU とストレージの過剰な使用を引き起こす可能性があります。</t>
+          <t>TLS により、ブラウザー、Azure Front Door、バックエンドの配信元間のデータ交換が暗号化され、改ざんが防止されます。 Key Vault は、マネージド証明書のサポートと、簡単な証明書の更新とローテーションを提供します。</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -11625,14 +11601,14 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>2c51e141-6e45-42cd-8c22-c55b219ffe83</t>
+          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="C380" t="inlineStr">
         <is>
-          <t>トラフィックのパターンと量を推定します。クライアントから Azure Front Door エッジへの要求の数は、レベルの選択に影響を与える可能性があります。大量の要求をサポートする必要がある場合は、パフォーマンスが最終的に可用性に影響を与えるため、Azure Front Door Premium レベルを検討してください。ただし、コストのトレードオフがあります。これらの階層については、パフォーマンス効率で説明されています。</t>
+          <t>Azure Front Door のレベルと価格を確認します。料金計算ツールを使用して、各レベルの現実的なコストを見積もります。シナリオに適した各層の機能と適合性を比較します。たとえば、Private Link を介した配信元への接続をサポートしているのは Premium レベルのみです。</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
@@ -11643,14 +11619,14 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
+          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>デプロイ戦略を選択します。基本的なデプロイ アプローチは、アクティブ/アクティブとアクティブ/パッシブです。アクティブ/アクティブ デプロイとは、ワークロードを実行する複数の環境またはスタンプがトラフィックを処理することを意味します。アクティブ/パッシブ デプロイとは、プライマリ リージョンのみがすべてのトラフィックを処理しますが、必要に応じてセカンダリ リージョンにフェールオーバーすることを意味します。マルチリージョン デプロイでは、トラフィックを分散する Azure Front Door などのグローバル ロード バランサーを使用して、可用性を高めるために、スタンプは異なるリージョンで実行されます。そのため、適切なデプロイ方法に合わせてロードバランサーを設定することが重要です。</t>
+          <t>帯域幅のコストを考慮してください。Azure Front Door の帯域幅コストは、選択したレベルとデータ転送の種類によって異なります。Azure Front Door には、課金対象のメトリックの組み込みレポートが用意されています。帯域幅に関連するコストと、最適化作業に集中できる場所を評価するには、「Azure Front Door レポート」を参照してください。</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -11661,14 +11637,14 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
+          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="C382" t="inlineStr">
         <is>
-          <t>Azure Front Door サーバーと配信元サーバーで同じホスト名を使用します。Cookie またはリダイレクト URL が正しく機能するようにするには、Web アプリケーションの前でロードバランサーなどのリバースプロキシを使用するときは、元の HTTP ホスト名を保持します。</t>
+          <t>受信要求を最適化します。Azure Front Door は、受信した要求を請求します。設計構成で制限を設定できます。</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -11679,14 +11655,14 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
+          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="C383" t="inlineStr">
         <is>
-          <t>正常性エンドポイント監視パターンを実装します。アプリケーションでは、アプリケーションが要求を処理するために必要な重要なサービスと依存関係の状態を集約する正常性エンドポイントを公開する必要があります。Azure Front Door の正常性プローブでは、エンドポイントを使用して配信元サーバーの正常性を検出します。詳細については、「 正常性エンドポイント監視パターン」を参照してください。</t>
+          <t>リソースを効率的に使用します。Azure Front Door では、リソースの最適化に役立つルーティング方法が使用されます。ワークロードのレイテンシの影響が極端に大きい場合を除き、デプロイされたリソースを効果的に使用するために、トラフィックをすべての環境に均等に分散します。</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
@@ -11697,14 +11673,14 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
+          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="C384" t="inlineStr">
         <is>
-          <t>Azure Front Door の組み込みのコンテンツ配信ネットワーク機能を活用します。Azure Front Door のコンテンツ配信ネットワーク機能には、数百のエッジ ロケーションがあり、分散型サービス拒否 (DDoS) 攻撃に耐えるのに役立ちます。これらの機能は、信頼性の向上に役立ちます。</t>
+          <t>組織が提供する共有インスタンスの使用を検討してください。一元化されたサービスから発生したコストは、ワークロード間で共有されます。ただし、信頼性とのトレードオフを考慮してください。高可用性の要件があるミッションクリティカルなアプリケーションには、自律型インスタンスをお勧めします。</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -11715,14 +11691,14 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
+          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="C385" t="inlineStr">
         <is>
-          <t>冗長なトラフィック管理オプションを検討してください。Azure Front Door は、環境内でシングルトンとして実行されるグローバルに分散されたサービスです。Azure Front Door は、システム内の潜在的な単一障害点です。サービスが失敗した場合、ダウンタイム中はクライアントがアプリケーションにアクセスできません。</t>
+          <t>ログに記録されるデータの量に注意してください。帯域幅とストレージの両方に関連するコストは、特定の要求が不要な場合、またはログ データが長期間保持される場合に発生する可能性があります。</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -11733,19 +11709,19 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
+          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="C386" t="inlineStr">
         <is>
-          <t>デプロイ戦略をサポートするルーティング方法を選択します。 設定された重み係数に基づいてトラフィックを分散する加重方式は、アクティブ/アクティブモデルをサポートします。 プライマリ リージョンがすべてのトラフィックを受信し、バックアップとしてセカンダリ リージョンにトラフィックを送信するように設定する優先度ベースの値は、アクティブ/パッシブ モデルをサポートします。 上記の方法とレイテンシを組み合わせて、レイテンシが最も低いオリジンがトラフィックを受信するようにします。</t>
+          <t>キャッシュをサポートするエンドポイントにはキャッシュを使用します。</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>最適なオリジンリソースを選択するには、一連の決定手順と設計を使用します。選択したオリジンは、指定されたウェイトの比率で許容レイテンシ範囲内のトラフィックを提供します。</t>
+          <t>キャッシュを使用すると、Azure Front Door インスタンスから配信元への呼び出しの数が減るため、データ転送コストが最適化されます。</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -11755,19 +11731,19 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
+          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="C387" t="inlineStr">
         <is>
-          <t>1 つ以上のバックエンド プールに複数の配信元を持つことで冗長性をサポートします。アプリケーションの冗長インスタンスを常に用意し、各インスタンスがエンドポイントまたはオリジンを公開していることを確認します。これらの配信元は、1 つ以上のバックエンド プールに配置できます。</t>
+          <t>ファイル圧縮を有効にすることを検討してください。この構成では、アプリケーションが圧縮をサポートし、キャッシュを有効にする必要があります。</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>複数のオリジンは、アプリケーションの複数のインスタンスにトラフィックを分散することで冗長性をサポートします。1 つのインスタンスが使用できない場合でも、他のバックエンド配信元は引き続きトラフィックを受信できます。</t>
+          <t>圧縮により、帯域幅の消費が削減され、パフォーマンスが向上します。</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -11777,19 +11753,19 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
+          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>配信元で正常性プローブを設定します。バックエンド インスタンスが使用可能で、引き続き要求を受信する準備ができているかどうかを判断するための正常性チェックを実行するように Azure Front Door を構成します。</t>
+          <t>単一のバックエンド・プールのヘルス・チェックを無効にします。Azure Front Door の配信元グループに配信元が 1 つしか構成されていない場合、これらの呼び出しは不要です。</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>有効な正常性プローブは、正常性監視パターンの実装の一部です。正常性プローブは、Azure Front Door が要求を処理するのに十分な正常なインスタンスにのみトラフィックをルーティングすることを確認します。 詳細については、「正常性プローブのベスト プラクティス」を参照してください。</t>
+          <t>ルーティングの決定に必要のない要求を無効にすることで、帯域幅のコストを節約できます。</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -11799,21 +11775,17 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
+          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="C389" t="inlineStr">
         <is>
-          <t>バックエンドへの要求の転送にタイムアウトを設定します。 エンドポイントのニーズに応じてタイムアウト設定を調整します。そうしないと、配信元が応答を送信する前に Azure Front Door が接続を閉じる可能性があります。 また、すべての配信元のタイムアウトが短い場合は、Azure Front Door の既定のタイムアウトを下げることもできます。 詳細については、「応答しない要求のトラブルシューティング」を参照してください。</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>タイムアウトは、完了までに予想以上に時間がかかる要求を終了することで、パフォーマンスの問題と可用性の問題を防ぐのに役立ちます。</t>
-        </is>
-      </c>
+          <t>コードとしてのインフラストラクチャ (IaC) テクノロジを使用します。Bicep や Azure Resource Manager テンプレートなどの IaC テクノロジを使用して、Azure Front Door インスタンスをプロビジョニングします。これらの宣言型アプローチにより、一貫性と簡単なメンテナンスが提供されます。たとえば、IaC テクノロジを使用すると、新しいルールセットバージョンを簡単に採用できます。</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11821,21 +11793,17 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
+          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じホスト名を使用します。Azure Front Door では、受信要求のホスト ヘッダーを書き換えることができるため、1 つの配信元にルーティングする複数のカスタム ドメイン名がある場合に便利です。ただし、ホストヘッダーを書き換えると、リクエスト Cookie と URL リダイレクトで問題が発生する可能性があります。</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>セッションのアフィニティ、認証、および承認の誤動作を防ぐために、同じホスト名を設定します。詳細については、「リバース プロキシとそのバックエンド Web アプリケーション間で元の HTTP ホスト名を保持する」を参照してください。</t>
-        </is>
-      </c>
+          <t>構成を簡素化。Azure Front Door を使用すると、構成を簡単に管理できます。たとえば、アーキテクチャがマイクロサービスをサポートしているとします。Azure Front Door はリダイレクト機能をサポートしているため、パスベースのリダイレクトを使用して個々のサービスをターゲットにすることができます。</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11843,21 +11811,17 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
+          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>アプリケーションにセッション アフィニティが必要かどうかを判断します。高い信頼性要件がある場合は、セッション アフィニティを無効にすることをお勧めします。</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>セッション アフィニティを使用すると、ユーザー接続はユーザー セッション中に同じオリジンに留まります。そのオリジンが使用できなくなった場合、ユーザーエクスペリエンスが中断される可能性があります。</t>
-        </is>
-      </c>
+          <t>Azure Front Door のルーティング方法を使用して、プログレッシブ エクスポージャーを処理します。加重負荷分散アプローチでは、カナリアデプロイを使用して、特定の割合のトラフィックをバックエンドに送信できます。このアプローチは、新機能とリリースをロールアウトする前に、制御された環境でテストするのに役立ちます。</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11865,21 +11829,17 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
+          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="C392" t="inlineStr">
         <is>
-          <t>Web アプリケーション ファイアウォール (WAF) に含まれるレート制限ルールを利用します。</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>要求を制限して、クライアントがアプリケーションに大量のトラフィックを送信しないようにします。レート制限は、再試行ストームのような問題を回避するのに役立ちます。</t>
-        </is>
-      </c>
+          <t>ワークロード監視の一環として、Azure Front Door の運用データを収集して分析します。Azure Monitor ログを使用して、関連する Azure Front Door のログとメトリックをキャプチャします。このデータは、トラブルシューティング、ユーザー行動の理解、運用の最適化に役立ちます。</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11887,14 +11847,14 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
+          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="C393" t="inlineStr">
         <is>
-          <t>Azure Front Door のセキュリティ ベースラインを確認します。</t>
+          <t>証明書管理を Azure にオフロードします。認定資格のローテーションと更新に関連する運用上の負担を軽減します。</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -11905,17 +11865,21 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
+          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="C394" t="inlineStr">
         <is>
-          <t>バックエンド サーバーを保護します。フロントエンドは、アプリケーションへの単一の入力ポイントとして機能します。</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>HTTP から HTTPS へのリダイレクトを使用して、上位互換性をサポートします。</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>リダイレクトを有効にすると、Azure Front Door は、セキュリティで保護されたエクスペリエンスのために、古いプロトコルを使用しているクライアントを自動的にリダイレクトして HTTPS を使用します。</t>
+        </is>
+      </c>
       <c r="F394" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11923,17 +11887,21 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
+          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>コントロールプレーンへの許可されたアクセスのみを許可します。Azure Front Door のロールベースのアクセス制御 (RBAC) を使用して、必要な ID のみにアクセスを制限します。</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>ログとメトリクスをキャプチャします。 リソース アクティビティ ログ、アクセス ログ、正常性プローブ ログ、WAF ログを含めます。アラートを設定します。</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>イングレス フローの監視は、アプリケーションの監視の重要な部分です。要求を追跡し、パフォーマンスとセキュリティを改善したい。Azure Front Door の構成をデバッグするには、データが必要です。 アラートを設定すると、重大な運用上の問題について即座に通知を受け取ることができます。</t>
+        </is>
+      </c>
       <c r="F395" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11941,17 +11909,21 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
+          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>エッジで一般的な脅威をブロックします。WAF は Azure Front Door と統合されています。フロントエンドでWAFルールを有効にして、攻撃元に近いネットワークエッジで一般的なエクスプロイトや脆弱性からアプリケーションを保護します。</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>組み込みの分析レポートを確認します。</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Azure Front Door プロファイルの全体像を把握すると、WAF メトリックを通じてトラフィックとセキュリティのレポートに基づいて改善を推進するのに役立ちます。</t>
+        </is>
+      </c>
       <c r="F396" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11959,17 +11931,21 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
+          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>予期しないトラフィックから Azure Front Door を保護します。Azure Front Door では、Azure DDoS Protection の基本プランを使用して、アプリケーション エンドポイントを DDoS 攻撃から保護します。アプリケーションから他のパブリック IP アドレスを公開する必要がある場合は、高度な保護機能と検出機能のために、それらのアドレスに DDoS Protection 標準プランを追加することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>可能な場合は、マネージド TLS 証明書を使用します。</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Azure Front Door では、証明書を発行して管理できます。この機能により、証明書の更新が不要になり、TLS証明書が無効または期限切れであることによる停止のリスクが最小限に抑えられます。</t>
+        </is>
+      </c>
       <c r="F397" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11977,17 +11953,21 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
+          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="C398" t="inlineStr">
         <is>
-          <t>転送中のデータを保護します。エンドツーエンドのトランスポート層セキュリティ (TLS)、HTTP から HTTPS へのリダイレクト、およびマネージド TLS 証明書 (該当する場合) を有効にします。詳細については、「Azure Front Door の TLS のベスト プラクティス」を参照してください。</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
+          <t>ワイルドカード TLS 証明書を使用します。</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>各サブドメインを個別に追加または指定するために、設定を変更する必要はありません。</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -11995,14 +11975,14 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
+          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>異常なアクティビティを監視します。ログを定期的に確認して、攻撃や誤検知がないか確認します。Azure Front Door から WAF ログを組織の一元化されたセキュリティ情報およびイベント管理 (SIEM) (Microsoft Sentinel など) に送信して、脅威のパターンを検出し、ワークロードの設計に予防策を組み込みます。</t>
+          <t>予想されるトラフィックパターンを分析して、容量を計画します。徹底的なテストを実施して、さまざまな負荷の下でアプリケーションがどのように動作するかを理解します。同時トランザクション、要求レート、データ転送などの要素を考慮してください。</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -12013,21 +11993,17 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
+          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="C400" t="inlineStr">
         <is>
-          <t>悪意のある可能性のあるトラフィックを検出してブロックする WAF ルールセットを有効にします。この機能は、Premium レベルで使用できます。次のルールセットをお勧めします: - デフォルト - ボット保護 - IP制限 - ジオフィルタリング - レート制限</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>既定のルール セットは、OWASP の上位 10 種類の攻撃の種類と Microsoft 脅威インテリジェンスからの情報に基づいて頻繁に更新されます。 特殊なルール・セットは、特定のユースケースを検出します。たとえば、ボット ルールは、クライアントの IP アドレスに基づいてボットを良好、不良、または不明に分類します。また、悪意のあるボットや既知のIPアドレスをブロックし、発信者の地理的な場所に基づいてトラフィックを制限します。 ルールセットを組み合わせて使用することで、さまざまなインテントによる攻撃を検知し、ブロックすることができます。</t>
-        </is>
-      </c>
+          <t>Azure Front Door レポートを定期的に確認して、パフォーマンス データを分析します。これらのレポートは、テクノロジー レベルでのパフォーマンス指標として機能するさまざまなメトリックに関する分析情報を提供します。</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12035,21 +12011,17 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
+          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="C401" t="inlineStr">
         <is>
-          <t>マネージド ルール セットの除外を作成します。 WAF ポリシーを検出モードで数週間テストし、誤検出がある場合は調整してからデプロイします。</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>誤検知を減らし、アプリケーションに対する正当な要求を許可します。</t>
-        </is>
-      </c>
+          <t>データ転送を最適化します。</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12057,21 +12029,17 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
+          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="C402" t="inlineStr">
         <is>
-          <t>エンドツーエンド TLS、HTTP から HTTPS へのリダイレクト、およびマネージド TLS 証明書 (該当する場合) を有効にします。 Azure Front Door の TLS のベスト プラクティスを確認します。 TLS バージョン 1.2 を最小許容バージョンとして使用し、アプリケーションに関連する暗号を使用します。 Azure Front Door で管理される証明書は、操作を容易にするために既定の選択肢にする必要があります。ただし、証明書のライフサイクルを管理する場合は、Azure Front Door カスタム ドメイン エンドポイントで独自の証明書を使用し、Key Vault に格納します。</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>TLS により、ブラウザー、Azure Front Door、バックエンドの配信元間のデータ交換が暗号化され、改ざんが防止されます。 Key Vault は、マネージド証明書のサポートと、簡単な証明書の更新とローテーションを提供します。</t>
-        </is>
-      </c>
+          <t>ヘルスプローブの使用を最適化します。正常性プローブから正常性情報を取得するのは、配信元の状態が変更されたときのみです。監視の精度と不要なトラフィックの最小化のバランスを取ります。</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12079,14 +12047,14 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
+          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="C403" t="inlineStr">
         <is>
-          <t>Azure Front Door のレベルと価格を確認します。料金計算ツールを使用して、各レベルの現実的なコストを見積もります。シナリオに適した各層の機能と適合性を比較します。たとえば、Private Link を介した配信元への接続をサポートしているのは Premium レベルのみです。</t>
+          <t>起点のルーティング方法を確認します。Azure Front Door には、配信元への待機時間ベース、優先度ベース、加重、セッション アフィニティベースのルーティングなど、さまざまなルーティング方法が用意されています。これらの方法は、アプリケーションのパフォーマンスに大きく影響します。シナリオに最適なトラフィック ルーティング オプションの詳細については、「配信元へのトラフィック ルーティング方法」を参照してください。</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
@@ -12097,14 +12065,14 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
+          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="C404" t="inlineStr">
         <is>
-          <t>帯域幅のコストを考慮してください。Azure Front Door の帯域幅コストは、選択したレベルとデータ転送の種類によって異なります。Azure Front Door には、課金対象のメトリックの組み込みレポートが用意されています。帯域幅に関連するコストと、最適化作業に集中できる場所を評価するには、「Azure Front Door レポート」を参照してください。</t>
+          <t>配信元サーバーの場所を確認します。オリジンサーバーの場所は、アプリケーションの応答性に影響します。オリジンサーバーは、ユーザーの近くに配置する必要があります。Azure Front Door は、特定の場所のユーザーが最も近い Azure Front Door エントリ ポイントにアクセスできるようにします。パフォーマンス上の利点には、ユーザー エクスペリエンスの高速化、Azure Front Door による待機時間ベースのルーティングのより効果的な使用、ユーザーの近くにコンテンツを格納するキャッシュの使用によるデータ転送時間の最小化などがあります。</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
@@ -12115,17 +12083,21 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
+          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="C405" t="inlineStr">
         <is>
-          <t>受信要求を最適化します。Azure Front Door は、受信した要求を請求します。設計構成で制限を設定できます。</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
+          <t>キャッシュを有効にします。 キャッシュ用にクエリ文字列を最適化できます。純粋に静的なコンテンツの場合は、クエリ文字列を無視して、キャッシュを最大限に活用します。 アプリケーションでクエリ文字列を使用する場合は、それらをキャッシュキーに含めることを検討してください。キャッシュ キーにクエリ文字列を含めると、Azure Front Door は、構成に基づいてキャッシュされた応答またはその他の応答を提供できます。</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Azure Front Door は、ネットワークのエッジでコンテンツをキャッシュする堅牢なコンテンツ配信ネットワーク ソリューションを提供します。キャッシングにより、バックエンド サーバーの負荷が軽減され、ネットワーク経由でのデータ移動が削減されるため、帯域幅の使用量を軽減できます。</t>
+        </is>
+      </c>
       <c r="F405" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12133,17 +12105,21 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
+          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>リソースを効率的に使用します。Azure Front Door では、リソースの最適化に役立つルーティング方法が使用されます。ワークロードのレイテンシの影響が極端に大きい場合を除き、デプロイされたリソースを効果的に使用するために、トラフィックをすべての環境に均等に分散します。</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
+          <t>ダウンロード可能なコンテンツにアクセスするときは、ファイル圧縮を使用します。</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Azure Front Door の圧縮は、最適な形式でコンテンツを配信し、ペイロードを小さくし、コンテンツをユーザーに迅速に配信するのに役立ちます。</t>
+        </is>
+      </c>
       <c r="F406" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12151,17 +12127,21 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
+          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>組織が提供する共有インスタンスの使用を検討してください。一元化されたサービスから発生したコストは、ワークロード間で共有されます。ただし、信頼性とのトレードオフを考慮してください。高可用性の要件があるミッションクリティカルなアプリケーションには、自律型インスタンスをお勧めします。</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
+          <t>Azure Front Door で正常性プローブを構成する場合は、'GET' 要求ではなく 'HEAD' 要求を使用することを検討してください。 正常性プローブは、コンテンツではなく、状態コードのみを読み取ります。</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>'HEAD' リクエストを使用すると、コンテンツ全体をフェッチせずに状態変更をクエリできます。</t>
+        </is>
+      </c>
       <c r="F407" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12169,17 +12149,21 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
+          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="C408" t="inlineStr">
         <is>
-          <t>ログに記録されるデータの量に注意してください。帯域幅とストレージの両方に関連するコストは、特定の要求が不要な場合、またはログ データが長期間保持される場合に発生する可能性があります。</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>同じユーザーからの要求を同じバックエンド・サーバーに送信する必要がある場合に、セッション・アフィニティーを有効にする必要があるかどうかを評価します。 信頼性の観点から、このアプローチはお勧めしません。このオプションを使用すると、アプリケーションはユーザー・セッションを中断することなく正常にリカバリできます。 また、負荷分散にはトレードオフがあり、複数のバックエンドにトラフィックを均等に分散する柔軟性が制限されます。</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>ユーザーセッションのパフォーマンスを最適化し、継続性を維持します。特に、アプリケーションが状態情報をローカルで保持することに依存している場合に顕著です。</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12187,21 +12171,17 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
+          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="C409" t="inlineStr">
         <is>
-          <t>キャッシュをサポートするエンドポイントにはキャッシュを使用します。</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>キャッシュを使用すると、Azure Front Door インスタンスから配信元への呼び出しの数が減るため、データ転送コストが最適化されます。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: 重要なワークロードの場合は、AKS クラスターの可用性ゾーンを使用します。</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12209,21 +12189,17 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
+          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="C410" t="inlineStr">
         <is>
-          <t>ファイル圧縮を有効にすることを検討してください。この構成では、アプリケーションが圧縮をサポートし、キャッシュを有効にする必要があります。</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>圧縮により、帯域幅の消費が削減され、パフォーマンスが向上します。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: マルチクラスター トポロジでのフェールオーバー トラフィックの処理など、クラスターが確実にスケーリングできるように IP アドレス空間を計画します。</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12231,21 +12207,17 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
+          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="C411" t="inlineStr">
         <is>
-          <t>単一のバックエンド・プールのヘルス・チェックを無効にします。Azure Front Door の配信元グループに配信元が 1 つしか構成されていない場合、これらの呼び出しは不要です。</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>ルーティングの決定に必要のない要求を無効にすることで、帯域幅のコストを節約できます。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: Azure Monitor を使用して Kubernetes を監視するためのベスト プラクティスを確認して、ワークロードに最適な監視戦略を決定します。</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12253,14 +12225,14 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
+          <t>00c83f06-95ab-41c2-aef0-c770e177066f</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="C412" t="inlineStr">
         <is>
-          <t>コードとしてのインフラストラクチャ (IaC) テクノロジを使用します。Bicep や Azure Resource Manager テンプレートなどの IaC テクノロジを使用して、Azure Front Door インスタンスをプロビジョニングします。これらの宣言型アプローチにより、一貫性と簡単なメンテナンスが提供されます。たとえば、IaC テクノロジを使用すると、新しいルールセットバージョンを簡単に採用できます。</t>
+          <t>ワークロードのアーキテクチャ: ワークロードが水平スケーリングをサポートし、アプリケーションの準備状況と正常性を報告するように構築されていることを確認します。</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
@@ -12271,14 +12243,14 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
+          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>構成を簡素化。Azure Front Door を使用すると、構成を簡単に管理できます。たとえば、アーキテクチャがマイクロサービスをサポートしているとします。Azure Front Door はリダイレクト機能をサポートしているため、パスベースのリダイレクトを使用して個々のサービスをターゲットにすることができます。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ワークロードがユーザー ノード プールで実行されていることを確認し、適切なサイズの SKU を選択します。少なくとも、ユーザーノードプール用に 2 つのノードと、システムノードプール用に 3 つのノードを含めます。</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
@@ -12289,14 +12261,14 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
+          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="C414" t="inlineStr">
         <is>
-          <t>Azure Front Door のルーティング方法を使用して、プログレッシブ エクスポージャーを処理します。加重負荷分散アプローチでは、カナリアデプロイを使用して、特定の割合のトラフィックをバックエンドに送信できます。このアプローチは、新機能とリリースをロールアウトする前に、制御された環境でテストするのに役立ちます。</t>
+          <t>クラスター アーキテクチャ: AKS アップタイム SLA を使用して、運用ワークロードの可用性目標を達成します。</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -12307,17 +12279,21 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
+          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>ワークロード監視の一環として、Azure Front Door の運用データを収集して分析します。Azure Monitor ログを使用して、関連する Azure Front Door のログとメトリックをキャプチャします。このデータは、トラブルシューティング、ユーザー行動の理解、運用の最適化に役立ちます。</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
+          <t>クラスターとワークロードのアーキテクチャ: ノードセレクターとアフィニティーを使用してポッドのスケジューリングを制御します。</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Kubernetes スケジューラがノード内のハードウェアによってワークロードを論理的に分離できるようにします。容認とは異なり、一致するノードセレクターのないPodは、ラベル付きノードでスケジュールできるため、ノード上の未使用のリソースを消費できますが、一致するノードセレクターを定義するPodが優先されます。ノード アフィニティを使用すると、柔軟性が向上し、ポッドがノードと一致しない場合に何が起こるかを定義できます。</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12325,17 +12301,21 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
+          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="C416" t="inlineStr">
         <is>
-          <t>証明書管理を Azure にオフロードします。認定資格のローテーションと更新に関連する運用上の負担を軽減します。</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: ネットワーク要件とクラスターのサイズに基づいて、ネットワークプラグインを適切に選択していることを確認します。</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Azure CNI は、Windows ベースのノード プール、特定のネットワーク要件、Kubernetes ネットワーク ポリシーなど、特定のシナリオに必要です。詳細については、「Kubenet と Azure CNI」を参照してください。</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12343,19 +12323,19 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
+          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="C417" t="inlineStr">
         <is>
-          <t>HTTP から HTTPS へのリダイレクトを使用して、上位互換性をサポートします。</t>
+          <t>クラスターとワークロードのアーキテクチャ: 運用グレードのクラスターには、AKS アップタイム SLA を使用します。</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>リダイレクトを有効にすると、Azure Front Door は、セキュリティで保護されたエクスペリエンスのために、古いプロトコルを使用しているクライアントを自動的にリダイレクトして HTTPS を使用します。</t>
+          <t>AKS アップタイム SLA では、Azure Availability Zones を使用する AKS クラスターの Kubernetes API サーバー エンドポイントの "99.95%" の可用性、または Azure Availability Zones を使用しない AKS クラスターの "99.9%" の可用性が保証されます。</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -12365,19 +12345,19 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
+          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>ログとメトリクスをキャプチャします。 リソース アクティビティ ログ、アクセス ログ、正常性プローブ ログ、WAF ログを含めます。アラートを設定します。</t>
+          <t>クラスターのアーキテクチャ: 可用性ゾーンを使用して、AKS エージェント ノードを物理的に分離されたデータ センターに分散することで、Azure リージョン内の回復性を最大化します。</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>イングレス フローの監視は、アプリケーションの監視の重要な部分です。要求を追跡し、パフォーマンスとセキュリティを改善したい。Azure Front Door の構成をデバッグするには、データが必要です。 アラートを設定すると、重大な運用上の問題について即座に通知を受け取ることができます。</t>
+          <t>ノードプールを複数のゾーンに分散させることで、1つのノードプール内のノードは、別のゾーンがダウンしても実行を続けます。コローカリティ要件が存在する場合は、1 つのゾーンへの通常の VMSS ベースの AKS デプロイまたは近接配置グループを使用して、ノード間の待機時間を最小限に抑えることができます。</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -12387,19 +12367,19 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
+          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="C419" t="inlineStr">
         <is>
-          <t>組み込みの分析レポートを確認します。</t>
+          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Azure Front Door プロファイルの全体像を把握すると、WAF メトリックを通じてトラフィックとセキュリティのレポートに基づいて改善を推進するのに役立ちます。</t>
+          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -12409,19 +12389,19 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="C420" t="inlineStr">
         <is>
-          <t>可能な場合は、マネージド TLS 証明書を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ポッド リソースの要求と制限をアプリケーションのデプロイ マニフェストで定義し、Azure Policy を使用して適用します。</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Azure Front Door では、証明書を発行して管理できます。この機能により、証明書の更新が不要になり、TLS証明書が無効または期限切れであることによる停止のリスクが最小限に抑えられます。</t>
+          <t>コンテナの CPU とメモリのリソース制限は、Kubernetes クラスタのリソース枯渇を防ぐために必要です。</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -12431,19 +12411,19 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
+          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="C421" t="inlineStr">
         <is>
-          <t>ワイルドカード TLS 証明書を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: システム ノード プールをアプリケーション ワークロードから分離します。</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>各サブドメインを個別に追加または指定するために、設定を変更する必要はありません。</t>
+          <t>システム ノード プールには、少なくとも 2 つの vCPU と 4 GB のメモリの VM SKU が必要ですが、4 つ以上の vCPU をお勧めします。詳細な要件については、システムおよびユーザーノードプールを参照してください。</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -12453,17 +12433,21 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
+          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>予想されるトラフィックパターンを分析して、容量を計画します。徹底的なテストを実施して、さまざまな負荷の下でアプリケーションがどのように動作するかを理解します。同時トランザクション、要求レート、データ転送などの要素を考慮してください。</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr"/>
+          <t>クラスターとワークロードのアーキテクチャ: 特定の要件に基づいて、アプリケーションを専用のノード プールに分離します。</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>アプリケーションは同じ構成を共有し、GPU 対応 VM、CPU またはメモリ最適化 VM、またはゼロへのスケーリング機能が必要な場合があります。ノードプールの数が多くならないようにして、余分な管理オーバーヘッドを削減します。</t>
+        </is>
+      </c>
       <c r="F422" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12471,17 +12455,21 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
+          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="C423" t="inlineStr">
         <is>
-          <t>Azure Front Door レポートを定期的に確認して、パフォーマンス データを分析します。これらのレポートは、テクノロジー レベルでのパフォーマンス指標として機能するさまざまなメトリックに関する分析情報を提供します。</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: NAT ゲートウェイは、多数の同時送信接続を行うワークロードを実行するクラスターに使用します。</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Azure Load Balancer の制限による信頼性の問題を回避するために、同時送信トラフィックが多い場合は、代わりに NAT ゲートウェイを使用して、信頼性の高いエグレス トラフィックを大規模にサポートします。</t>
+        </is>
+      </c>
       <c r="F423" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12489,14 +12477,14 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
+          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="C424" t="inlineStr">
         <is>
-          <t>データ転送を最適化します。</t>
+          <t>クラスターのアーキテクチャ: マネージド ID を使用して、サービス原則の管理とローテーションを回避します。</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -12507,14 +12495,14 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
+          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="C425" t="inlineStr">
         <is>
-          <t>ヘルスプローブの使用を最適化します。正常性プローブから正常性情報を取得するのは、配信元の状態が変更されたときのみです。監視の精度と不要なトラフィックの最小化のバランスを取ります。</t>
+          <t>クラスター アーキテクチャ: Kubernetes ロールベースのアクセス制御 (RBAC) と Microsoft Entra ID を使用して最小限の特権アクセスを実現し、管理者特権の付与を最小限に抑えて構成とシークレットのアクセスを保護します。</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
@@ -12525,14 +12513,14 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
+          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="C426" t="inlineStr">
         <is>
-          <t>起点のルーティング方法を確認します。Azure Front Door には、配信元への待機時間ベース、優先度ベース、加重、セッション アフィニティベースのルーティングなど、さまざまなルーティング方法が用意されています。これらの方法は、アプリケーションのパフォーマンスに大きく影響します。シナリオに最適なトラフィック ルーティング オプションの詳細については、「配信元へのトラフィック ルーティング方法」を参照してください。</t>
+          <t>クラスターのアーキテクチャ: Azure Sentinel でコンテナーに Microsoft Defender を使用して、クラスターとそれらで実行されているワークロード全体の脅威を検出し、迅速に対応します。</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
@@ -12543,14 +12531,14 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
+          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="C427" t="inlineStr">
         <is>
-          <t>配信元サーバーの場所を確認します。オリジンサーバーの場所は、アプリケーションの応答性に影響します。オリジンサーバーは、ユーザーの近くに配置する必要があります。Azure Front Door は、特定の場所のユーザーが最も近い Azure Front Door エントリ ポイントにアクセスできるようにします。パフォーマンス上の利点には、ユーザー エクスペリエンスの高速化、Azure Front Door による待機時間ベースのルーティングのより効果的な使用、ユーザーの近くにコンテンツを格納するキャッシュの使用によるデータ転送時間の最小化などがあります。</t>
+          <t>クラスターのアーキテクチャ: プライベート AKS クラスターをデプロイして、API サーバーへのクラスター管理トラフィックがプライベート ネットワーク上に留まるようにします。または、非プライベートクラスターの API サーバー許可リストを使用します。</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -12561,21 +12549,17 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
+          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="C428" t="inlineStr">
         <is>
-          <t>キャッシュを有効にします。 キャッシュ用にクエリ文字列を最適化できます。純粋に静的なコンテンツの場合は、クエリ文字列を無視して、キャッシュを最大限に活用します。 アプリケーションでクエリ文字列を使用する場合は、それらをキャッシュキーに含めることを検討してください。キャッシュ キーにクエリ文字列を含めると、Azure Front Door は、構成に基づいてキャッシュされた応答またはその他の応答を提供できます。</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>Azure Front Door は、ネットワークのエッジでコンテンツをキャッシュする堅牢なコンテンツ配信ネットワーク ソリューションを提供します。キャッシングにより、バックエンド サーバーの負荷が軽減され、ネットワーク経由でのデータ移動が削減されるため、帯域幅の使用量を軽減できます。</t>
-        </is>
-      </c>
+          <t>ワークロードのアーキテクチャ: Web Application Firewall を使用して HTTP(S) トラフィックをセキュリティで保護します。</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12583,21 +12567,17 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="C429" t="inlineStr">
         <is>
-          <t>ダウンロード可能なコンテンツにアクセスするときは、ファイル圧縮を使用します。</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>Azure Front Door の圧縮は、最適な形式でコンテンツを配信し、ペイロードを小さくし、コンテンツをユーザーに迅速に配信するのに役立ちます。</t>
-        </is>
-      </c>
+          <t>ワークロードのアーキテクチャ: CI/CID パイプラインがコンテナ対応スキャンで強化されていることを確認します。</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12605,19 +12585,19 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
+          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="C430" t="inlineStr">
         <is>
-          <t>Azure Front Door で正常性プローブを構成する場合は、'GET' 要求ではなく 'HEAD' 要求を使用することを検討してください。 正常性プローブは、コンテンツではなく、状態コードのみを読み取ります。</t>
+          <t>クラスターのアーキテクチャ: Microsoft Entra 統合を使用します。</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>'HEAD' リクエストを使用すると、コンテンツ全体をフェッチせずに状態変更をクエリできます。</t>
+          <t>Microsoft Entra ID を使用すると、ID 管理コンポーネントが一元化されます。ユーザー アカウントまたはグループの状態を変更すると、AKS クラスターへのアクセスで自動的に更新されます。Kubernetes クラスターの開発者とアプリケーション所有者は、さまざまなリソースにアクセスする必要があります。</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -12627,19 +12607,19 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
+          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="C431" t="inlineStr">
         <is>
-          <t>同じユーザーからの要求を同じバックエンド・サーバーに送信する必要がある場合に、セッション・アフィニティーを有効にする必要があるかどうかを評価します。 信頼性の観点から、このアプローチはお勧めしません。このオプションを使用すると、アプリケーションはユーザー・セッションを中断することなく正常にリカバリできます。 また、負荷分散にはトレードオフがあり、複数のバックエンドにトラフィックを均等に分散する柔軟性が制限されます。</t>
+          <t>クラスターのアーキテクチャ: Microsoft Entra ID を使用して Azure Container Registry に認証します。</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>ユーザーセッションのパフォーマンスを最適化し、継続性を維持します。特に、アプリケーションが状態情報をローカルで保持することに依存している場合に顕著です。</t>
+          <t>AKS と Microsoft Entra ID を使用すると、'imagePullSecrets' シークレットを使用せずに Azure Container Registry による認証が可能になります。詳細については、「Azure Kubernetes Service から Azure Container Registry を使用した認証」を参照してください。</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -12649,17 +12629,21 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
+          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="C432" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 重要なワークロードの場合は、AKS クラスターの可用性ゾーンを使用します。</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: プライベート AKS クラスターを使用して、API サーバーへのネットワーク トラフィックをセキュリティで保護します。</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>デフォルトでは、ノード プールと API サーバー間のネットワーク トラフィックは、Microsoft のバックボーン ネットワークを移動します。プライベートクラスターを使用すると、API サーバーへのネットワークトラフィックがプライベートネットワーク上にのみ留まるようにすることができます。</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12667,17 +12651,21 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
+          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: マルチクラスター トポロジでのフェールオーバー トラフィックの処理など、クラスターが確実にスケーリングできるように IP アドレス空間を計画します。</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: プライベートでない AKS クラスターの場合は、API サーバーによって承認された IP 範囲を使用します。</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>公開クラスターを使用する場合でも、許可された IP 範囲機能を使用して、クラスター API サーバーに到達できるトラフィックを制限できます。デプロイ ビルド エージェントのパブリック IP、運用管理、ノード プールのエグレス ポイント (Azure Firewall など) などのソースを含めます。</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12685,17 +12673,21 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
+          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="C434" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Container insights を有効にして、クラスターを監視し、信頼性に影響を与えるイベントのアラートを構成します。</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr"/>
+          <t>クラスター アーキテクチャ: Microsoft Entra RBAC を使用して API サーバーを保護します。</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Kubernetes APIサーバーへのアクセスを保護することは、クラスターを保護するために実行できる最も重要なことの1つです。Kubernetes のロールベースのアクセス制御 (RBAC) を Microsoft Entra ID と統合して、API サーバーへのアクセスを制御します。ローカル アカウントを無効にして、Microsoft Entra ID ベースの ID を使用してすべてのクラスター アクセスを強制します。</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12703,17 +12695,21 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>2c1ab1ce-ee84-4737-b426-d236a98d3ae5</t>
+          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="C435" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: ワークロードが水平スケーリングをサポートし、アプリケーションの準備状況と正常性を報告するように構築されていることを確認します。</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: Azure ネットワーク ポリシーまたは Calico を使用します。</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>クラスター内のポッド間のネットワーク トラフィックを保護および制御します。</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12721,17 +12717,21 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
+          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="C436" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ワークロードがユーザー ノード プールで実行されていることを確認し、適切なサイズの SKU を選択します。少なくとも、ユーザーノードプール用に 2 つのノードと、システムノードプール用に 3 つのノードを含めます。</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: Azure Policy を使用してクラスターとポッドをセキュリティで保護します。</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12739,17 +12739,21 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
+          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="C437" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: AKS アップタイム SLA を使用して、運用ワークロードの可用性目標を達成します。</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: リソースへのコンテナー アクセスをセキュリティで保護します。</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>コンテナが実行できるアクションへのアクセスを制限します。最小限の権限を付与し、ルートまたは特権エスカレーションの使用を避けます。</t>
+        </is>
+      </c>
       <c r="F437" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12757,19 +12761,19 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
+          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="C438" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ノードセレクターとアフィニティーを使用してポッドのスケジューリングを制御します。</t>
+          <t>ワークロードのアーキテクチャ: Web Application Firewall を使用して HTTP(S) トラフィックをセキュリティで保護します。</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Kubernetes スケジューラがノード内のハードウェアによってワークロードを論理的に分離できるようにします。容認とは異なり、一致するノードセレクターのないPodは、ラベル付きノードでスケジュールできるため、ノード上の未使用のリソースを消費できますが、一致するノードセレクターを定義するPodが優先されます。ノード アフィニティを使用すると、柔軟性が向上し、ポッドがノードと一致しない場合に何が起こるかを定義できます。</t>
+          <t>受信トラフィックをスキャンして潜在的な攻撃を検出するには、Azure Application Gateway または Azure Front Door 上の Azure Web Application Firewall (WAF) などの Web アプリケーション ファイアウォールを使用します。</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -12779,19 +12783,19 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="C439" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: ネットワーク要件とクラスターのサイズに基づいて、ネットワークプラグインを適切に選択していることを確認します。</t>
+          <t>クラスターのアーキテクチャ: クラスターのエグレス トラフィックを制御します。</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Azure CNI は、Windows ベースのノード プール、特定のネットワーク要件、Kubernetes ネットワーク ポリシーなど、特定のシナリオに必要です。詳細については、「Kubenet と Azure CNI」を参照してください。</t>
+          <t>クラスターの送信トラフィックが、Azure Firewall や HTTP プロキシなどのネットワーク セキュリティ ポイントを通過していることを確認します。</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -12801,19 +12805,19 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
+          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="C440" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: 運用グレードのクラスターには、AKS アップタイム SLA を使用します。</t>
+          <t>クラスター アーキテクチャ: オープンソースの Microsoft Entra ワークロード ID とシークレット ストア CSI ドライバーを Azure Key Vault と共に使用します。</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>AKS アップタイム SLA では、Azure Availability Zones を使用する AKS クラスターの Kubernetes API サーバー エンドポイントの "99.95%" の可用性、または Azure Availability Zones を使用しない AKS クラスターの "99.9%" の可用性が保証されます。</t>
+          <t>Azure Key Vault のシークレット、証明書、接続文字列を強力な暗号化で保護し、ローテーションします。アクセス監査ログを提供し、コアシークレットをデプロイメントパイプラインから保持します。</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -12823,19 +12827,19 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
+          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="C441" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Container insights を使用してクラスターの監視を構成します。</t>
+          <t>クラスターのアーキテクチャ: Microsoft Defender for Containers を使用します。</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>コンテナの分析情報は、Metrics API を介して Kubernetes で使用できるコントローラー、ノード、およびコンテナの正常性とパフォーマンスを監視するのに役立ちます。Prometheus との統合により、アプリケーションとワークロードのメトリクスを収集できます。</t>
+          <t>クラスター、コンテナ、およびそれらのアプリケーションのセキュリティを監視および維持します。</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -12845,21 +12849,17 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="C442" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 可用性ゾーンを使用して、AKS エージェント ノードを物理的に分離されたデータ センターに分散することで、Azure リージョン内の回復性を最大化します。</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>ノードプールを複数のゾーンに分散させることで、1つのノードプール内のノードは、別のゾーンがダウンしても実行を続けます。コローカリティ要件が存在する場合は、1 つのゾーンへの通常の VMSS ベースの AKS デプロイまたは近接配置グループを使用して、ノード間の待機時間を最小限に抑えることができます。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: ノード プールと、長期的な容量が予想される予約インスタンスごとに適切な VM SKU を使用します。</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12867,21 +12867,17 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
+          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
-        </is>
-      </c>
+          <t>クラスターとワークロードのアーキテクチャ: 適切なマネージド ディスク階層とサイズを使用します。</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12889,21 +12885,17 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="C444" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ポッド リソースの要求と制限をアプリケーションのデプロイ マニフェストで定義し、Azure Policy を使用して適用します。</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>コンテナの CPU とメモリのリソース制限は、Kubernetes クラスタのリソース枯渇を防ぐために必要です。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: CPU、メモリ、ストレージ、ネットワークから始まるパフォーマンス メトリクスをレビューして、クラスター、ノード、名前空間ごとにコスト最適化の機会を特定します。</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12911,21 +12903,17 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
+          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="C445" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: システム ノード プールをアプリケーション ワークロードから分離します。</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>システム ノード プールには、少なくとも 2 つの vCPU と 4 GB のメモリの VM SKU が必要ですが、4 つ以上の vCPU をお勧めします。詳細な要件については、システムおよびユーザーノードプールを参照してください。</t>
-        </is>
-      </c>
+          <t>クラスターとワークロードのアーキテクチャ: オートスケーラーを使用して、ワークロードのアクティブ度が低いときにスケールインします。</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
       <c r="F445" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12933,19 +12921,19 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
+          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: 特定の要件に基づいて、アプリケーションを専用のノード プールに分離します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: SKU の選択とマネージド ディスクのサイズをワークロードの要件に合わせて調整します。</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>アプリケーションは同じ構成を共有し、GPU 対応 VM、CPU またはメモリ最適化 VM、またはゼロへのスケーリング機能が必要な場合があります。ノードプールの数が多くならないようにして、余分な管理オーバーヘッドを削減します。</t>
+          <t>ワークロードの要求に合わせて選択することで、不要なリソースにお金を払う必要がなくなります。</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -12955,19 +12943,19 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
+          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="C447" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: NAT ゲートウェイは、多数の同時送信接続を行うワークロードを実行するクラスターに使用します。</t>
+          <t>クラスターのアーキテクチャ: 適切な仮想マシン インスタンスの種類を選択します。</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Azure Load Balancer の制限による信頼性の問題を回避するために、同時送信トラフィックが多い場合は、代わりに NAT ゲートウェイを使用して、信頼性の高いエグレス トラフィックを大規模にサポートします。</t>
+          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、パフォーマンスの低いインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -12977,17 +12965,21 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
+          <t>1088060f-7467-48db-950d-5890503e2974</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="C448" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: マネージド ID を使用して、サービス原則の管理とローテーションを回避します。</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>クラスター アーキテクチャ: Arm アーキテクチャに基づいて仮想マシンを選択します。</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>AKS では、ARM64 Ubuntu エージェント ノードの作成と、クラスター内の Intel アーキテクチャと ARM アーキテクチャ ノードの組み合わせの作成がサポートされており、低コストでパフォーマンスを向上させることができます。</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -12995,17 +12987,21 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
+          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="C449" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: Kubernetes ロールベースのアクセス制御 (RBAC) と Microsoft Entra ID を使用して最小限の特権アクセスを実現し、管理者特権の付与を最小限に抑えて構成とシークレットのアクセスを保護します。</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: [Azure Spot Virtual Machines] を選択します。</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>スポット VM を使用すると、未使用の Azure 容量を大幅な割引 (従量課金制と比較して最大 90%) で利用できます。Azure で容量を戻す必要がある場合、Azure インフラストラクチャはスポット ノードを削除します。</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13013,17 +13009,21 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
+          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="C450" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Sentinel でコンテナーに Microsoft Defender を使用して、クラスターとそれらで実行されているワークロード全体の脅威を検出し、迅速に対応します。</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: 適切なリージョンを選択します。</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>多くの要因により、リソースのコストは Azure のリージョンごとに異なります。コスト、レイテンシ、コンプライアンスの要件を評価して、ワークロードをコスト効率よく実行し、エンドユーザーに影響を与えたり、追加のネットワーク料金が発生したりしないようにします。</t>
+        </is>
+      </c>
       <c r="F450" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13031,17 +13031,21 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
+          <t>433efe5b-3776-459c-8560-058f87773838</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="C451" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: プライベート AKS クラスターをデプロイして、API サーバーへのクラスター管理トラフィックがプライベート ネットワーク上に留まるようにします。または、非プライベートクラスターの API サーバー許可リストを使用します。</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
+          <t>ワークロードのアーキテクチャ: 小さく最適化されたイメージを維持します。</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>イメージを合理化すると、新しいノードがこれらのイメージをダウンロードする必要があるため、コストを削減できます。コンテナをできるだけ早く起動できるようにイメージをビルドすると、アプリケーションの起動中にユーザーリクエストの失敗やタイムアウトが発生し、オーバープロビジョニングにつながる可能性を回避できます。</t>
+        </is>
+      </c>
       <c r="F451" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13049,17 +13053,21 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
+          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="C452" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Web Application Firewall を使用して HTTP(S) トラフィックをセキュリティで保護します。</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: Cluster Autoscaler を有効にして、過剰なリソース容量に対応してエージェント ノードの数を自動的に減らします。</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>AKS クラスター内のノード数を自動的にスケールダウンすると、需要が少ないときに効率的なクラスターを実行し、需要が戻ったときにスケールアップできます。</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13067,17 +13075,21 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: CI/CID パイプラインがコンテナ対応スキャンで強化されていることを確認します。</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
+          <t>クラスターのアーキテクチャ: ノードの自動プロビジョニングを有効にして、VM SKU の選択を自動化します。</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>ノード自動プロビジョニングは、SKU の選択プロセスを簡素化し、保留中のポッド リソース要件に基づいて、最も効率的でコスト効率の高い方法でワークロードを実行するための最適な VM 構成を決定します。</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13085,19 +13097,19 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
+          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="C454" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Microsoft Entra 統合を使用します。</t>
+          <t>ワークロードのアーキテクチャ: Horizontal Pod Autoscaler を使用します。</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID を使用すると、ID 管理コンポーネントが一元化されます。ユーザー アカウントまたはグループの状態を変更すると、AKS クラスターへのアクセスで自動的に更新されます。Kubernetes クラスターの開発者とアプリケーション所有者は、さまざまなリソースにアクセスする必要があります。</t>
+          <t>デプロイ内のポッドの数は、CPU 使用率やその他の選択メトリクス (クラスターのスケールイン操作をサポートする) に応じて調整します。</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -13107,19 +13119,19 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
+          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="C455" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Microsoft Entra ID を使用して Azure Container Registry に認証します。</t>
+          <t>ワークロードのアーキテクチャ: Vertical Pod Autoscaler (プレビュー) を使用します。</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AKS と Microsoft Entra ID を使用すると、'imagePullSecrets' シークレットを使用せずに Azure Container Registry による認証が可能になります。詳細については、「Azure Kubernetes Service から Azure Container Registry を使用した認証」を参照してください。</t>
+          <t>ポッドのサイズを適正化し、過去の使用状況に基づいてリクエストと制限を動的に設定します。</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -13129,19 +13141,19 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
+          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="C456" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: プライベート AKS クラスターを使用して、API サーバーへのネットワーク トラフィックをセキュリティで保護します。</t>
+          <t>ワークロードのアーキテクチャ: Kubernetes イベント駆動型自動スケーリング (KEDA) を使用します。</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>デフォルトでは、ノード プールと API サーバー間のネットワーク トラフィックは、Microsoft のバックボーン ネットワークを移動します。プライベートクラスターを使用すると、API サーバーへのネットワークトラフィックがプライベートネットワーク上にのみ留まるようにすることができます。</t>
+          <t>処理中のイベントの数に基づいてスケーリングします。50+ KEDAスケーラーの豊富なカタログからお選びください。</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -13151,19 +13163,19 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
+          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: プライベートでない AKS クラスターの場合は、API サーバーによって承認された IP 範囲を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: クラウドの財務規律と文化的な実践を採用して、クラウドの使用の所有権を促進します。</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>公開クラスターを使用する場合でも、許可された IP 範囲機能を使用して、クラスター API サーバーに到達できるトラフィックを制限できます。デプロイ ビルド エージェントのパブリック IP、運用管理、ノード プールのエグレス ポイント (Azure Firewall など) などのソースを含めます。</t>
+          <t>コスト最適化を可能にするための基盤は、コスト削減クラスターの普及です。財務運用アプローチ(FinOps)は、組織がクラウドのコストを削減するためによく使用されます。これは、財務、運用、エンジニアリングの各チームが協力して、コスト削減目標の調整を推進し、クラウドコストに透明性をもたらすための手法です。</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13173,19 +13185,19 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
+          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: Microsoft Entra RBAC を使用して API サーバーを保護します。</t>
+          <t>クラスターのアーキテクチャ: Azure Reservations または Azure Savings Plan にサインアップします。</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Kubernetes APIサーバーへのアクセスを保護することは、クラスターを保護するために実行できる最も重要なことの1つです。Kubernetes のロールベースのアクセス制御 (RBAC) を Microsoft Entra ID と統合して、API サーバーへのアクセスを制御します。ローカル アカウントを無効にして、Microsoft Entra ID ベースの ID を使用してすべてのクラスター アクセスを強制します。</t>
+          <t>容量を適切に計画し、ワークロードが予測可能で、長期間存在する場合は、Azure 予約または節約プランにサインアップして、リソース コストをさらに削減します。</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -13195,19 +13207,19 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
+          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="C459" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure ネットワーク ポリシーまたは Calico を使用します。</t>
+          <t>クラスターのアーキテクチャ: AKS Cost Analysis アドオンを構成します。</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>クラスター内のポッド間のネットワーク トラフィックを保護および制御します。</t>
+          <t>コスト分析クラスター拡張機能を使用すると、クラスターまたは名前空間内のさまざまな Kubernetes リソースに関連するコストに関する詳細な分析情報を取得できます。</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -13217,21 +13229,17 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
+          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="C460" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Policy を使用してクラスターとポッドをセキュリティで保護します。</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
-        </is>
-      </c>
+          <t>クラスター アーキテクチャ: Bicep や Terraform などを使用したテンプレートベースのデプロイを使用します。すべてのデプロイが反復可能で、追跡可能であり、ソース コード リポジトリに格納されていることを確認します。</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
       <c r="F460" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13239,21 +13247,17 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
+          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: リソースへのコンテナー アクセスをセキュリティで保護します。</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>コンテナが実行できるアクションへのアクセスを制限します。最小限の権限を付与し、ルートまたは特権エスカレーションの使用を避けます。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: 自動化されたプロセスを構築して、クラスターが必要なクラスター全体の構成とデプロイでブートストラップされるようにします。これは、多くの場合、GitOps を使用して実行されます。</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13261,21 +13265,17 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
+          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="C462" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Web Application Firewall を使用して HTTP(S) トラフィックをセキュリティで保護します。</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>受信トラフィックをスキャンして潜在的な攻撃を検出するには、Azure Application Gateway または Azure Front Door 上の Azure Web Application Firewall (WAF) などの Web アプリケーション ファイアウォールを使用します。</t>
-        </is>
-      </c>
+          <t>ワークロードのアーキテクチャ: ソフトウェア開発ライフサイクル内のワークロードに対して、反復可能で自動化されたデプロイ プロセスを使用します。</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="F462" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13283,21 +13283,17 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="C463" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: クラスターのエグレス トラフィックを制御します。</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>クラスターの送信トラフィックが、Azure Firewall や HTTP プロキシなどのネットワーク セキュリティ ポイントを通過していることを確認します。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: 診断設定を有効にして、コントロール プレーンまたはコア API サーバーの操作がログに記録されるようにします。</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13305,21 +13301,17 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
+          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="C464" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: オープンソースの Microsoft Entra ワークロード ID とシークレット ストア CSI ドライバーを Azure Key Vault と共に使用します。</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>Azure Key Vault のシークレット、証明書、接続文字列を強力な暗号化で保護し、ローテーションします。アクセス監査ログを提供し、コアシークレットをデプロイメントパイプラインから保持します。</t>
-        </is>
-      </c>
+          <t>クラスターとワークロードのアーキテクチャ: Azure Monitor を使用して Kubernetes を監視するためのベスト プラクティスを確認して、ワークロードに最適な監視戦略を決定します。</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
       <c r="F464" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13327,21 +13319,17 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
+          <t>98844a97-9372-4cd2-ad68-aae36a43de4c</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="C465" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Microsoft Defender for Containers を使用します。</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>クラスター、コンテナ、およびそれらのアプリケーションのセキュリティを監視および維持します。</t>
-        </is>
-      </c>
+          <t>ワークロードのアーキテクチャ: ワークロードは、収集可能なテレメトリを出力するように設計する必要があり、これには活性度と準備状態も含まれる必要があります。</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
       <c r="F465" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13349,14 +13337,14 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
+          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="C466" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: ノード プールと、長期的な容量が予想される予約インスタンスごとに適切な VM SKU を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: Kubernetes を対象とするカオス エンジニアリング プラクティスを使用して、アプリケーションまたはプラットフォームの信頼性の問題を特定します。</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
@@ -13367,14 +13355,14 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
+          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="C467" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: 適切なマネージド ディスク階層とサイズを使用します。</t>
+          <t>ワークロードのアーキテクチャ: ワークロードを最適化して、コンテナ内で効率的に運用およびデプロイします。</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -13385,14 +13373,14 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
+          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: CPU、メモリ、ストレージ、ネットワークから始まるパフォーマンス メトリクスをレビューして、クラスター、ノード、名前空間ごとにコスト最適化の機会を特定します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: Azure Policy を使用して、クラスターとワークロードのガバナンスを適用します。</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
@@ -13403,17 +13391,21 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
+          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="C469" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: オートスケーラーを使用して、ワークロードのアクティブ度が低いときにスケールインします。</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
+          <t>クラスターとワークロードのアーキテクチャ: AKS のベスト プラクティスに関するドキュメントを確認します。</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>AKS でアプリケーションを正常にビルドして実行するには、理解して実装する必要がある重要な考慮事項があります。これらの領域には、マルチテナンシーとスケジューラ機能、クラスタとポッドのセキュリティ、またはビジネス継続性とディザスタリカバリが含まれます。</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13421,19 +13413,19 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
+          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="C470" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: SKU の選択とマネージド ディスクのサイズをワークロードの要件に合わせて調整します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: Azure Chaos Studio を確認します。</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>ワークロードの要求に合わせて選択することで、不要なリソースにお金を払う必要がなくなります。</t>
+          <t>Azure Chaos Studio は、障害をシミュレートし、ディザスター リカバリー状況をトリガーするのに役立ちます。</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -13443,19 +13435,19 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
+          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="C471" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 適切な仮想マシン インスタンスの種類を選択します。</t>
+          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>適切な仮想マシン インスタンスの種類を選択することは、AKS でアプリケーションを実行するコストに直接影響するため、非常に重要です。適切な使用率を欠いて高パフォーマンスのインスタンスを選択すると、無駄な支出につながる可能性があり、パフォーマンスの低いインスタンスを選択すると、パフォーマンスの問題やダウンタイムの増加につながる可能性があります。適切な仮想マシンインスタンスタイプを決定するには、ワークロードの特性、リソース要件、および可用性のニーズを考慮します。</t>
+          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -13465,19 +13457,19 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>1088060f-7467-48db-950d-5890503e2974</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="C472" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: Arm アーキテクチャに基づいて仮想マシンを選択します。</t>
+          <t>クラスターのアーキテクチャ: Azure Policy を使用して、クラスターとポッドの構成標準を運用可能にします。</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>AKS では、ARM64 Ubuntu エージェント ノードの作成と、クラスター内の Intel アーキテクチャと ARM アーキテクチャ ノードの組み合わせの作成がサポートされており、低コストでパフォーマンスを向上させることができます。</t>
+          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -13487,19 +13479,19 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
+          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="C473" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: [Azure Spot Virtual Machines] を選択します。</t>
+          <t>ワークロードのアーキテクチャ: リリースエンジニアリングプロセスでプラットフォーム機能を使用します。</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>スポット VM を使用すると、未使用の Azure 容量を大幅な割引 (従量課金制と比較して最大 90%) で利用できます。Azure で容量を戻す必要がある場合、Azure インフラストラクチャはスポット ノードを削除します。</t>
+          <t>KubernetesとIngressコントローラーは、リリースエンジニアリングプロセスに含めるための多くの高度なデプロイパターンをサポートしています。ブルーグリーンデプロイやカナリアリリースなどのパターンを考えてみましょう。</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -13509,19 +13501,19 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
+          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="C474" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 適切なリージョンを選択します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ミッションクリティカルなワークロードの場合は、スタンプレベルのブルー/グリーンデプロイを使用します。</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>多くの要因により、リソースのコストは Azure のリージョンごとに異なります。コスト、レイテンシ、コンプライアンスの要件を評価して、ワークロードをコスト効率よく実行し、エンドユーザーに影響を与えたり、追加のネットワーク料金が発生したりしないようにします。</t>
+          <t>デプロイメントやテストなど、ミッションクリティカルな設計領域を自動化します。</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -13531,21 +13523,17 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>433efe5b-3776-459c-8560-058f87773838</t>
+          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="C475" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: 小さく最適化されたイメージを維持します。</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>イメージを合理化すると、新しいノードがこれらのイメージをダウンロードする必要があるため、コストを削減できます。コンテナをできるだけ早く起動できるようにイメージをビルドすると、アプリケーションの起動中にユーザーリクエストの失敗やタイムアウトが発生し、オーバープロビジョニングにつながる可能性を回避できます。</t>
-        </is>
-      </c>
+          <t>クラスターとワークロードのアーキテクチャ: SKU、自動スケール設定、IP アドレス指定、フェールオーバーに関する考慮事項を含む詳細な容量計画の演習を実行し、反復処理します。</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13553,21 +13541,17 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
+          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="C476" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Cluster Autoscaler を有効にして、過剰なリソース容量に対応してエージェント ノードの数を自動的に減らします。</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>AKS クラスター内のノード数を自動的にスケールダウンすると、需要が少ないときに効率的なクラスターを実行し、需要が戻ったときにスケールアップできます。</t>
-        </is>
-      </c>
+          <t>クラスターのアーキテクチャ: クラスター オートスケーラーを有効にして、ワークロードの要求に応じてエージェント ノードの数を自動的に調整します。</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13575,21 +13559,17 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
+          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="C477" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: ノードの自動プロビジョニングを有効にして、VM SKU の選択を自動化します。</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>ノード自動プロビジョニングは、SKU の選択プロセスを簡素化し、保留中のポッド リソース要件に基づいて、最も効率的でコスト効率の高い方法でワークロードを実行するための最適な VM 構成を決定します。</t>
-        </is>
-      </c>
+          <t>クラスター・アーキテクチャ: Horizontal ポッド・オートスケーラーを使用して、CPU 使用率またはその他の選択メトリックに応じてデプロイメント内のポッドの数を調整します。</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13597,21 +13577,17 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
+          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Horizontal Pod Autoscaler を使用します。</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>デプロイ内のポッドの数は、CPU 使用率やその他の選択メトリクス (クラスターのスケールイン操作をサポートする) に応じて調整します。</t>
-        </is>
-      </c>
+          <t>クラスターとワークロードのアーキテクチャ: ポッドとクラスター オートスケーラーの両方を実行する継続的なロード テスト アクティビティを実行します。</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13619,21 +13595,17 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
+          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Vertical Pod Autoscaler (プレビュー) を使用します。</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>ポッドのサイズを適正化し、過去の使用状況に基づいてリクエストと制限を動的に設定します。</t>
-        </is>
-      </c>
+          <t>クラスターとワークロードのアーキテクチャ: ワークロードを異なるノードプールに分離し、独立したスキャリングを可能にします。</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13641,19 +13613,19 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
+          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="C480" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Kubernetes イベント駆動型自動スケーリング (KEDA) を使用します。</t>
+          <t>クラスターとワークロードのアーキテクチャ: 詳細な容量計画を作成し、継続的に見直して改訂します。</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>処理中のイベントの数に基づいてスケーリングします。50+ KEDAスケーラーの豊富なカタログからお選びください。</t>
+          <t>容量計画を形式化した後は、クラスターのリソース使用率を継続的に観察して、容量計画を頻繁に更新する必要があります。</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -13663,19 +13635,19 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
+          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="C481" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: クラウドの財務規律と文化的な実践を採用して、クラウドの使用の所有権を促進します。</t>
+          <t>クラスターのアーキテクチャ: クラスター オートスケーラーを有効にして、リソースの制約に応じてエージェント ノードの数を自動的に調整します。</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>コスト最適化を可能にするための基盤は、コスト削減クラスターの普及です。財務運用アプローチ(FinOps)は、組織がクラウドのコストを削減するためによく使用されます。これは、財務、運用、エンジニアリングの各チームが協力して、コスト削減目標の調整を推進し、クラウドコストに透明性をもたらすための手法です。</t>
+          <t>AKS クラスター内のノード数を自動的にスケールアップまたはスケールダウンする機能により、効率的でコスト効率の高いクラスターを実行できます。</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -13685,19 +13657,19 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
+          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="C482" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Reservations または Azure Savings Plan にサインアップします。</t>
+          <t>クラスターとワークロードのアーキテクチャ: ワークロードを異なるノードプールに分割し、ユーザーノードプールのスケーリングを検討します。</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>容量を適切に計画し、ワークロードが予測可能で、長期間存在する場合は、Azure 予約または節約プランにサインアップして、リソース コストをさらに削減します。</t>
+          <t>常に実行中のノードを必要とするシステムノードプールとは異なり、ユーザーノードプールではスケールアップまたはスケールダウンできます。</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -13707,19 +13679,19 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
+          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Container insights を使用してクラスターの監視を構成します。</t>
+          <t>ワークロード アーキテクチャ: AKS の高度なスケジューラ機能を使用します。</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Container insights は、クラスターのアイドル状態と未割り当てのリソースに関する実用的な分析情報を提供します。Container insights は、Prometheus メトリックの収集もサポートし、Azure Managed Grafana と統合して、アプリケーションとインフラストラクチャの全体像を把握します。</t>
+          <t>リソースを必要とするワークロードのリソースのバランスを制御するのに役立ちます。</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -13729,19 +13701,19 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>5742c5ca-120a-4b6e-a5cf-51f13b04966c</t>
+          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="C484" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: AKS Cost Analysis アドオンを構成します。</t>
+          <t>ワークロードのアーキテクチャ: 意味のあるワークロードスケーリングメトリクスを使用します。</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>コスト分析クラスター拡張機能を使用すると、クラスターまたは名前空間内のさまざまな Kubernetes リソースに関連するコストに関する詳細な分析情報を取得できます。</t>
+          <t>すべてのスケール決定が CPU またはメモリのメトリクスから導き出されるわけではありません。多くの場合、スケールに関する考慮事項は、より複雑なデータ ポイントや外部のデータ ポイントから得られます。KEDA を使用して、ワークロードに固有のシグナルに基づいて意味のある自動スケール ルールセットを構築します。</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -13751,14 +13723,14 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
+          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="C485" t="inlineStr">
         <is>
-          <t>クラスター アーキテクチャ: Bicep や Terraform などを使用したテンプレートベースのデプロイを使用します。すべてのデプロイが反復可能で、追跡可能であり、ソース コード リポジトリに格納されていることを確認します。</t>
+          <t>回復性: AKS などの可用性ゾーンをサポートする環境にモデルをデプロイします。デプロイが可用性ゾーン全体に分散されていることを確認することで、データセンターに障害が発生した場合でもデプロイを利用できるようになります。信頼性と可用性を向上させるには、マルチリージョンのデプロイトポロジを検討してください。</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
@@ -13769,14 +13741,14 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
+          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="C486" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 自動化されたプロセスを構築して、クラスターが必要なクラスター全体の構成とデプロイでブートストラップされるようにします。これは、多くの場合、GitOps を使用して実行されます。</t>
+          <t>回復性: トレーニングと推論の両方に十分なコンピューティングがあることを確認します。リソース計画を通じて、コンピューティング SKU とスケール設定がワークロードの要件を満たしていることを確認します。</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -13787,14 +13759,14 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
+          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="C487" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: ソフトウェア開発ライフサイクル内のワークロードに対して、反復可能で自動化されたデプロイ プロセスを使用します。</t>
+          <t>回復性: 探索的作業に使用される Machine Learning ワークスペースと運用に使用されるワークスペースを分離します。</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -13805,14 +13777,14 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
+          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="C488" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 診断設定を有効にして、コントロール プレーンまたはコア API サーバーの操作がログに記録されるようにします。</t>
+          <t>回復性: 推論にマネージド オンライン エンドポイントを使用する場合は、ブルーグリーン デプロイなどのリリース戦略を使用して、ダウンタイムを最小限に抑え、新しいバージョンのデプロイに関連するリスクを軽減します。</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
@@ -13823,14 +13795,14 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
+          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="C489" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Container insights を有効にして、メトリクス、ログ、診断を収集し、クラスターとそれで実行されているワークロードの可用性とパフォーマンスを監視します。</t>
+          <t>ビジネス要件: 信頼性のニーズに基づいて、コンピューティング クラスター、コンピューティング インスタンス、および外部化された推論ホストの使用を選択し、サービス レベル アグリーメント (SLA) を要素として考慮します。</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
@@ -13841,14 +13813,14 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>4811307d-53ce-4cf9-b022-2c2ab1be5596</t>
+          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: ワークロードは、収集可能なテレメトリを出力するように設計する必要があり、これには活性度と準備状態も含まれる必要があります。</t>
+          <t>復旧: 大規模なモデルをトレーニングする場合は、Machine Learning でサポートされているチェックポイント機能などの自己復旧機能があることを確認します。</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -13859,14 +13831,14 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
+          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="C491" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Kubernetes を対象とするカオス エンジニアリング プラクティスを使用して、アプリケーションまたはプラットフォームの信頼性の問題を特定します。</t>
+          <t>リカバリ: リカバリ戦略が定義されていることを確認します。Machine Learning には自動フェールオーバーはありません。そのため、ワークスペースとそのすべての依存関係 (Key Vault、Azure Storage、Azure Container Registry など) を網羅する戦略を設計する必要があります。</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -13877,17 +13849,21 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
+          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: ワークロードを最適化して、コンテナ内で効率的に運用およびデプロイします。</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr"/>
+          <t>マルチリージョン モデルのデプロイ: 信頼性と可用性を向上させるために、可能な場合はマルチリージョンのデプロイ環境を検討してください。</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>マルチリージョンのデプロイにより、1 つのリージョンで障害が発生した場合でも、Machine Learning ワークロードが引き続き実行されます。マルチリージョン デプロイにより、リージョン間の負荷分散が改善され、異なる地理的領域にいるユーザーのパフォーマンスが向上する可能性があります。詳細については、「ビジネス継続性とディザスター リカバリーのためのフェールオーバー」を参照してください。</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13895,17 +13871,21 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
+          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="C493" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Azure Policy を使用して、クラスターとワークロードのガバナンスを適用します。</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
+          <t>モデル トレーニングの回復性: Azure Container for PyTorch、TensorFlow Estimator クラス、モデルのチェックポイント処理をサポートする Run オブジェクトと FileDataset クラスなど、Machine Learning でサポートされているチェックポイント機能を使用します。</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>モデルのチェックポイント処理では、トレーニング中に機械学習モデルの状態が定期的に保存されるため、中断、障害、または終了が発生した場合に復元できます。詳細については、「Nebula によるチェックポイント速度の向上とコストの削減」を参照してください。</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13913,19 +13893,19 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
+          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: AKS のベスト プラクティスに関するドキュメントを確認します。</t>
+          <t>コンピューティング クラスターに専用仮想マシン層を使用する: バッチ推論にコンピューティング クラスターに専用仮想マシン層を使用して、バッチ ジョブが割り込まれないようにします。</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>AKS でアプリケーションを正常にビルドして実行するには、理解して実装する必要がある重要な考慮事項があります。これらの領域には、マルチテナンシーとスケジューラ機能、クラスタとポッドのセキュリティ、またはビジネス継続性とディザスタリカバリが含まれます。</t>
+          <t>低優先度の仮想マシンは、価格が割引されますが、プリエンプティブです。専用仮想マシン層を使用するクラスターは割り込まれません。</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -13935,21 +13915,17 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
+          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Azure Chaos Studio を確認します。</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>Azure Chaos Studio は、障害をシミュレートし、ディザスター リカバリー状況をトリガーするのに役立ちます。</t>
-        </is>
-      </c>
+          <t>可用性: ワークスペースへのアクセスを仮想ネットワーク内のリソースに制限することで、Machine Learning ワークスペースの攻撃対象領域を減らします。</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
       <c r="F495" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13957,21 +13933,17 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
+          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="C496" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: Container insights を使用してクラスターの監視を構成します。</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Container insights は、Metrics API とコンテナ ログを通じて Kubernetes で使用可能なコントローラー、ノード、およびコンテナからメモリとプロセッサのメトリクスを収集することで、コンテナのパフォーマンスを監視するのに役立ちます。</t>
-        </is>
-      </c>
+          <t>機密性: ネットワークの分離を実装することで、Machine Learning ワークスペースからのデータ流出から保護します。すべての外部リソースへのアクセスが明示的に承認され、他のすべての外部リソースへのアクセスが許可されていないことを確認します。</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="F496" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -13979,21 +13951,17 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Azure Monitor を使用してアプリケーションのパフォーマンスを監視します。</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>AKS クラスターで実行されているアプリケーションのコードベースの監視のために Application Insights を構成します。</t>
-        </is>
-      </c>
+          <t>整合性: 最小特権の原則に基づいて、外部リソースの Machine Learning ワークスペースを認証および承認するアクセス制御を実装します。</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
       <c r="F497" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14001,21 +13969,17 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>405f6de4-e769-4066-8e8c-f7887a66d42a</t>
+          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="C498" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: Container insights を使用して Prometheus メトリックのスクレイピングを構成します。</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Azure Monitor の一部であるコンテナー分析情報は、Prometheus メトリックを収集するためのシームレスなオンボード エクスペリエンスを提供します。詳細については、「Prometheus メトリックのスクレイピングの設定」を参照してください。</t>
-        </is>
-      </c>
+          <t>整合性: 特定のユース ケースまたはプロジェクトに基づいてワークスペースを設定することで、Machine Learning ワークスペースのユース ケースの分離を実装します。このアプローチは、最小特権の原則に準拠しており、ワークスペースにアクセスできるのは、ユースケースまたはプロジェクトのデータおよび実験アセットへのアクセスを必要とする個人のみであることを保証します。</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14023,21 +13987,17 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>3c42907d-254e-4b0f-b579-7362e0f37eaa</t>
+          <t>30341513-1f91-480e-bc19-8031f1851087</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: 異なる Azure リージョンにデプロイされた AKS クラスターをデプロイすることで、マルチリージョン戦略を採用して、可用性を最大化し、ビジネス継続性を提供します。</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>インターネットに接続するワークロードでは、Azure Front Door または Azure Traffic Manager を利用して、AKS クラスター間でトラフィックをグローバルにルーティングする必要があります。</t>
-        </is>
-      </c>
+          <t>整合性: 基本モデルへのアクセスを規制します。承認されたレジストリのみがモデル レジストリ内のモデルにアクセスできることを確認します。</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
       <c r="F499" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14045,21 +14005,17 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="C500" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: Azure Policy を使用して、クラスターとポッドの構成標準を運用可能にします。</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>Azure Policy は、一元化された一貫した方法で、クラスターに大規模な適用と保護を適用するのに役立ちます。また、ポッドに付与される機能や、会社のポリシーに対して実行されているものがあるかどうかも制御できます。</t>
-        </is>
-      </c>
+          <t>完全性: 承認されたコンテナレジストリへのアクセスを規制します。Machine Learning コンピューティングが承認されたレジストリにのみアクセスできるようにします。</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14067,21 +14023,17 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
+          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: リリースエンジニアリングプロセスでプラットフォーム機能を使用します。</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>KubernetesとIngressコントローラーは、リリースエンジニアリングプロセスに含めるための多くの高度なデプロイパターンをサポートしています。ブルーグリーンデプロイやカナリアリリースなどのパターンを考えてみましょう。</t>
-        </is>
-      </c>
+          <t>整合性: Machine Learning コンピューティングで実行できる Python パッケージを規制します。Python パッケージを規制すると、信頼できるパッケージのみが実行されます。</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14089,21 +14041,17 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
+          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="C502" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ミッションクリティカルなワークロードの場合は、スタンプレベルのブルー/グリーンデプロイを使用します。</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>デプロイメントやテストなど、ミッションクリティカルな設計領域を自動化します。</t>
-        </is>
-      </c>
+          <t>整合性: Machine Learning コンピューティング環境でのトレーニングに使用されるコードに署名する必要があります。コード署名を要求すると、実行中のコードが信頼できるソースからのものであり、改ざんされていないことが保証されます。</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14111,14 +14059,14 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
+          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: SKU、自動スケール設定、IP アドレス指定、フェールオーバーに関する考慮事項を含む詳細な容量計画の演習を実行し、反復処理します。</t>
+          <t>機密性: Machine Learning ワークスペースおよび関連リソース (ワークスペース ストレージ アカウントなど) に対するロールベースのアクセス制御 (RBAC) の最小特権の原則に準拠して、各自のロールに必要なアクセス許可のみが付与されるようにし、潜在的なセキュリティ リスクを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -14129,14 +14077,14 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
+          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: クラスター オートスケーラーを有効にして、ワークロードの要求に応じてエージェント ノードの数を自動的に調整します。</t>
+          <t>整合性: 保存データと転送中のデータの暗号化を実装することで、信頼と検証済みのアクセスを確立します。</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
@@ -14147,17 +14095,21 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
+          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>クラスター・アーキテクチャ: Horizontal ポッド・オートスケーラーを使用して、CPU 使用率またはその他の選択メトリックに応じてデプロイメント内のポッドの数を調整します。</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
+          <t>セキュリティ ベースライン: Machine Learning Service のセキュリティとコンプライアンスを強化するには、Machine Learning の Azure セキュリティ ベースラインを適用します。</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>セキュリティ ベースラインは、ネットワーク セキュリティ、ID 管理、データ保護、特権アクセスなどの重要なセキュリティ側面に関するカスタマイズされたガイダンスを提供します。最適なセキュリティを確保するには、Microsoft Defender for Cloud を使用してこれらの側面を監視します。</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14165,17 +14117,21 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
+          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="C506" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ポッドとクラスター オートスケーラーの両方を実行する継続的なロード テスト アクティビティを実行します。</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr"/>
+          <t>マネージド仮想ネットワークの分離: Machine Learning のマネージド仮想ネットワークの分離を構成します。マネージド仮想ネットワークの分離を有効にすると、ワークスペースのマネージド仮想ネットワークが作成されます。ワークスペース用に作成したマネージド コンピューティング リソースでは、このマネージド仮想ネットワークが自動的に使用されます。マネージド仮想ネットワークの分離を実装できない場合は、ネットワーク トポロジの推奨事項に従って、コンピューティングをソリューション内の他のリソース (ワークスペース リソースのプライベート エンドポイントを含む) から離れた専用サブネットに分離する必要があります。</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>マネージド仮想ネットワークの分離は、ワークスペースを他のネットワークから分離することでセキュリティを強化し、不正アクセスのリスクを軽減します。組織内の別のネットワークで侵害が発生した場合、Machine Learning ワークスペースの分離されたネットワークは影響を受けず、機械学習ワークロードが保護されます。</t>
+        </is>
+      </c>
       <c r="F506" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14183,17 +14139,21 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
+          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="C507" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ワークロードを異なるノードプールに分離し、独立したスキャリングを可能にします。</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr"/>
+          <t>Machine Learning ネットワークの分離: Machine Learning ワークスペースのプライベート エンドポイントを構成し、そのプライベート エンドポイント経由でワークスペースに接続します。</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Machine Learning ネットワークの分離により、ワークスペースへのアクセスが安全で制御されることで、セキュリティが強化されます。ワークスペースにプライベート エンドポイントを構成すると、ワークスペースへのアクセスをプライベート IP アドレス経由でのみ行われるように制限できます。</t>
+        </is>
+      </c>
       <c r="F507" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14201,19 +14161,19 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
+          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="C508" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: 詳細な容量計画を作成し、継続的に見直して改訂します。</t>
+          <t>承認された送信アクセスのみを許可する: データ流出のリスクを最小限に抑えるために、Machine Learning ワークスペースのマネージド アウトバウンド アクセスの送信モードを [承認されたアウトバウンドのみを許可する] に構成します。アクセスする必要があるリソースのプライベートエンドポイント、サービスタグ、または完全修飾ドメイン名(FQDN)を設定します。</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>容量計画を形式化した後は、クラスターのリソース使用率を継続的に観察して、容量計画を頻繁に更新する必要があります。</t>
+          <t>この構成により、データ流出のリスクが最小限に抑えられ、データのセキュリティが向上します。この設定を有効にすると、システムにアクセスした悪意のあるアクターは、承認されていない外部の宛先にデータを送信できなくなります。</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -14223,19 +14183,19 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
+          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="C509" t="inlineStr">
         <is>
-          <t>クラスターのアーキテクチャ: クラスター オートスケーラーを有効にして、リソースの制約に応じてエージェント ノードの数を自動的に調整します。</t>
+          <t>依存サービスの仮想ネットワーク分離: Storage、Key Vault、Container Registry などの依存サービスをプライベート エンドポイントで構成し、パブリック アクセスを無効にします。</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>AKS クラスター内のノード数を自動的にスケールアップまたはスケールダウンする機能により、効率的でコスト効率の高いクラスターを実行できます。</t>
+          <t>ネットワークの分離により、Azure のサービスとしてのプラットフォーム (PaaS) ソリューションへのアクセスをプライベート IP アドレスのみに制限することで、セキュリティが強化されます。</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -14245,19 +14205,19 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
+          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="C510" t="inlineStr">
         <is>
-          <t>クラスターとワークロードのアーキテクチャ: ワークロードを異なるノードプールに分割し、ユーザーノードプールのスケーリングを検討します。</t>
+          <t>マネージド ID: Machine Learning と他のサービスとの間の認証にマネージド ID を使用します。</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>常に実行中のノードを必要とするシステムノードプールとは異なり、ユーザーノードプールではスケールアップまたはスケールダウンできます。</t>
+          <t>マネージド ID は、資格情報を保存し、サービス プリンシパルを手動で管理およびローテーションする必要をなくすことで、セキュリティを向上させます。</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -14267,19 +14227,19 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
+          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>ワークロード アーキテクチャ: AKS の高度なスケジューラ機能を使用します。</t>
+          <t>ローカル認証を無効にする: Machine Learning コンピューティング クラスターとインスタンスのローカル認証を無効にします。</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>リソースを必要とするワークロードのリソースのバランスを制御するのに役立ちます。</t>
+          <t>ローカル認証を無効にすると、Machine Learning コンピューティングのセキュリティが向上し、ID とリソース資格情報の一元的な制御と管理が可能になります。</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -14289,19 +14249,19 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
+          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="C512" t="inlineStr">
         <is>
-          <t>ワークロードのアーキテクチャ: 意味のあるワークロードスケーリングメトリクスを使用します。</t>
+          <t>パブリック SSH ポートを無効にする: 'remoteLoginPortPublicAccess' を 'Disabled' に設定して、Machine Learning コンピューティング クラスターでパブリック Secure Shell (SSH) ポートが閉じていることを確認します。別のコンピューティングを使用する場合は、同様の構成を適用します。</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>すべてのスケール決定が CPU またはメモリのメトリクスから導き出されるわけではありません。多くの場合、スケールに関する考慮事項は、より複雑なデータ ポイントや外部のデータ ポイントから得られます。KEDA を使用して、ワークロードに固有のシグナルに基づいて意味のある自動スケール ルールセットを構築します。</t>
+          <t>SSHアクセスを無効にすると、権限のない個人がアクセスを取得してシステムに害を及ぼす可能性を防ぎ、ブルートフォース攻撃から保護できます。</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -14311,17 +14271,21 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
+          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="C513" t="inlineStr">
         <is>
-          <t>回復性: AKS などの可用性ゾーンをサポートする環境にモデルをデプロイします。デプロイが可用性ゾーン全体に分散されていることを確認することで、データセンターに障害が発生した場合でもデプロイを利用できるようになります。信頼性と可用性を向上させるには、マルチリージョンのデプロイトポロジを検討してください。</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
+          <t>Machine Learning コンピューティングのパブリック IP アドレスをプロビジョニングしない: Machine Learning コンピューティング クラスターまたはコンピューティング インスタンスをプロビジョニングするときは、enableNodePublicIp を 'false' に設定します。別のコンピューティングを使用する場合は、同様の構成を適用します。</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>パブリックIPアドレスのプロビジョニングは控えて、コンピュート・インスタンスまたはクラスタへの不正アクセスの可能性を制限することでセキュリティを強化します。</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14329,17 +14293,21 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
+          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>回復性: トレーニングと推論の両方に十分なコンピューティングがあることを確認します。リソース計画を通じて、コンピューティング SKU とスケール設定がワークロードの要件を満たしていることを確認します。</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
+          <t>最新のオペレーティング・システム・イメージの取得: コンピュート・インスタンスを再作成して、最新のオペレーティング・システム・イメージを取得します。</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>最新のイメージを使用することで、最新のセキュリティパッチを確実に適用するなど、一貫性があり、安定した、安全な環境を維持できます。</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14347,17 +14315,21 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
+          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>回復性: 探索的作業に使用される Machine Learning ワークスペースと運用に使用されるワークスペースを分離します。</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
+          <t>厳格な Machine Learning ワークスペースのアクセス制御: Microsoft Entra ID グループを使用してワークスペースのアクセスを管理し、RBAC の最小特権の原則に従います。</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>厳格なワークスペースアクセス制御により、各個人が自分の役割に必要な権限のみを持つようにすることで、セキュリティを強化します。たとえば、データ サイエンティストは、実験を実行するためのアクセス権はあるが、セキュリティ設定を変更するためのアクセス権は持たない場合があるため、潜在的なセキュリティ リスクを最小限に抑えることができます。</t>
+        </is>
+      </c>
       <c r="F515" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14365,17 +14337,21 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
+          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="C516" t="inlineStr">
         <is>
-          <t>回復性: 推論にマネージド オンライン エンドポイントを使用する場合は、ブルーグリーン デプロイなどのリリース戦略を使用して、ダウンタイムを最小限に抑え、新しいバージョンのデプロイに関連するリスクを軽減します。</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
+          <t>モデル・カタログ・デプロイメントの制限: モデル・デプロイメントを特定のレジストリに制限します。</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>モデルカタログからのデプロイメントを特定のレジストリに制限すると、承認されたレジストリにのみモデルをデプロイできます。このアプローチは、オープンソースの基本モデルへのアクセスを規制するのに役立ちます。</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14383,17 +14359,21 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
+          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>ビジネス要件: 信頼性のニーズに基づいて、コンピューティング クラスター、コンピューティング インスタンス、および外部化された推論ホストの使用を選択し、サービス レベル アグリーメント (SLA) を要素として考慮します。</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
+          <t>保存データを暗号化する: Machine Learning でカスタマー マネージド キーを使用することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>保存データを暗号化すると、直接管理されるキーを使用して機密データが暗号化されるため、データのセキュリティが強化されます。独自の暗号化キーを管理する規制要件がある場合は、この機能を使用してその要件に準拠します。</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14401,17 +14381,21 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
+          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>復旧: 大規模なモデルをトレーニングする場合は、Machine Learning でサポートされているチェックポイント機能などの自己復旧機能があることを確認します。</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
+          <t>データ流出のリスクを最小限に抑える: データ流出防止を実装します。たとえば、エグレス仮想ネットワーク トラフィックをフィルター処理し、特定の Azure Storage アカウントに対してのみデータ流出を許可するサービス エンドポイント ポリシーを作成します。</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>データ流出のリスクを最小限に抑えるには、受信と送信の要件を制限します。</t>
+        </is>
+      </c>
       <c r="F518" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14419,14 +14403,14 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
+          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>リカバリ: リカバリ戦略が定義されていることを確認します。Machine Learning には自動フェールオーバーはありません。そのため、ワークスペースとそのすべての依存関係 (Key Vault、Azure Storage、Azure Container Registry など) を網羅する戦略を設計する必要があります。</t>
+          <t>使用量の最適化: 適切なリソースを選択して、ワークロード要件に合っていることを確認します。たとえば、CPU や GPU、さまざまな SKU、優先度の低い VM と通常の VM などを選択します。</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -14437,21 +14421,17 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
+          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>マルチリージョン モデルのデプロイ: 信頼性と可用性を向上させるために、可能な場合はマルチリージョンのデプロイ環境を検討してください。</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>マルチリージョンのデプロイにより、1 つのリージョンで障害が発生した場合でも、Machine Learning ワークロードが引き続き実行されます。マルチリージョン デプロイにより、リージョン間の負荷分散が改善され、異なる地理的領域にいるユーザーのパフォーマンスが向上する可能性があります。詳細については、「ビジネス継続性とディザスター リカバリーのためのフェールオーバー」を参照してください。</t>
-        </is>
-      </c>
+          <t>使用量の最適化: 使用されていないコンピューティング リソースをスケールダウンまたはアイドル時にシャットダウンして、無駄を減らします。</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14459,21 +14439,17 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
+          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="C521" t="inlineStr">
         <is>
-          <t>モデル トレーニングの回復性: Azure Container for PyTorch、TensorFlow Estimator クラス、モデルのチェックポイント処理をサポートする Run オブジェクトと FileDataset クラスなど、Machine Learning でサポートされているチェックポイント機能を使用します。</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>モデルのチェックポイント処理では、トレーニング中に機械学習モデルの状態が定期的に保存されるため、中断、障害、または終了が発生した場合に復元できます。詳細については、「Nebula によるチェックポイント速度の向上とコストの削減」を参照してください。</t>
-        </is>
-      </c>
+          <t>使用量の最適化: ポリシーを適用し、設計の上限と下限に準拠するようにクォータを構成します。</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14481,21 +14457,17 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
+          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="C522" t="inlineStr">
         <is>
-          <t>コンピューティング クラスターに専用仮想マシン層を使用する: バッチ推論にコンピューティング クラスターに専用仮想マシン層を使用して、バッチ ジョブが割り込まれないようにします。</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>低優先度の仮想マシンは、価格が割引されますが、プリエンプティブです。専用仮想マシン層を使用するクラスターは割り込まれません。</t>
-        </is>
-      </c>
+          <t>使用量の最適化: トレーニング ワークロードの並列化をテストして、低コストの SKU でトレーニング要件を満たすことができるかどうかを判断します。</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="F522" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14503,14 +14475,14 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
+          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="C523" t="inlineStr">
         <is>
-          <t>可用性: ワークスペースへのアクセスを仮想ネットワーク内のリソースに制限することで、Machine Learning ワークスペースの攻撃対象領域を減らします。</t>
+          <t>レートの最適化: 今後 1 年から 3 年間の使用量の見積もりが適切である場合は、Azure Reserved Virtual Machine Instances を購入します。</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
@@ -14521,14 +14493,14 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
+          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>機密性: ネットワークの分離を実装することで、Machine Learning ワークスペースからのデータ流出から保護します。すべての外部リソースへのアクセスが明示的に承認され、他のすべての外部リソースへのアクセスが許可されていないことを確認します。</t>
+          <t>監視と最適化: モデルをトレーニングするときに、CPU や GPU の使用量などのリソース使用量を監視します。リソースが完全に使用されていない場合は、リソースをより適切に使用するようにコードを変更するか、より小さいまたは安価な VM サイズにスケールダウンします。</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -14539,17 +14511,21 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
+          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="C525" t="inlineStr">
         <is>
-          <t>整合性: 最小特権の原則に基づいて、外部リソースの Machine Learning ワークスペースを認証および承認するアクセス制御を実装します。</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
+          <t>コンピューティングリソースの最適化: ワークロードの要件に基づいてコンピューティングリソースを最適化します。ワークロードに最適なSKUを選択してください:&lt;ul&gt;&lt;li&gt;汎用 – バランスの取れたCPUとメモリの比率で、すべての目的に適しています。&lt;/li&gt;&lt;li&gt;コンピューティング最適化 – CPU とメモリの比率が高く、数学を多用する計算に適しています。&lt;/li&gt;&lt;li&gt;メモリ最適化 – CPU に対するメモリ容量が多く、メモリ内計算やデータベース アプリケーションに適しています。&lt;/li&gt;&lt;li&gt;Mシリーズ – 大量のメモリとCPUを搭載した非常に大きなマシン。 &lt;/li&gt;&lt;li&gt; GPU – 変数の数が多く、より高い並列処理と特殊なコア命令の恩恵を受けることができるモデルに適しています。一般的なアプリケーションは、ディープラーニング、画像またはビデオ処理、科学シミュレーション、データマイニング、およびGPU開発フレームワークの活用です。複数のファミリーでテストし、結果をベースラインとして文書化します。モデルとデータが進化するにつれて、最適なコンピューティング リソースが変わる可能性があります。実行時間を監視し、必要に応じて再評価します。</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>適切なコンピューティングを選択することは、ワークロードの実行コストに直接影響するため、非常に重要です。適切な使用をせずに GPU や高パフォーマンスの SKU を選択すると、無駄な支出につながる可能性があり、サイズが小さいコンピューティングを選択すると、トレーニング時間が法外に長くなり、パフォーマンスの問題が発生する可能性があります。</t>
+        </is>
+      </c>
       <c r="F525" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14557,17 +14533,21 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
+          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="C526" t="inlineStr">
         <is>
-          <t>整合性: 特定のユース ケースまたはプロジェクトに基づいてワークスペースを設定することで、Machine Learning ワークスペースのユース ケースの分離を実装します。このアプローチは、最小特権の原則に準拠しており、ワークスペースにアクセスできるのは、ユースケースまたはプロジェクトのデータおよび実験アセットへのアクセスを必要とする個人のみであることを保証します。</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
+          <t>コンピューティングのスケーリングを最適化する: コンピューティング クラスターを自動スケーリング用に構成して、必要なものだけを使用するようにします。トレーニング クラスターの場合は、ノードの最小数を 0 に設定し、ノードがアイドル状態になる時間を適切な時間に構成します。反復的な実験を減らすには、時間を短縮してコストを節約します。より反復的な実験を行うには、変更のたびにスケールアップまたはスケールダウンにかかる費用が発生しないように、時間を長くします。</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>コンピューティング クラスターの自動スケールを構成して、使用量が少ないときにスケールダウンします。 ノードの最小数を 0 に設定して、トレーニング クラスターが使用されていないときに 0 にスケールダウンします。</t>
+        </is>
+      </c>
       <c r="F526" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14575,17 +14555,21 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>30341513-1f91-480e-bc19-8031f1851087</t>
+          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>整合性: 基本モデルへのアクセスを規制します。承認されたレジストリのみがモデル レジストリ内のモデルにアクセスできることを確認します。</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
+          <t>トレーニング終了ポリシーを設定する: トレーニング実行の期間を制限するか、早期に終了するために、早期終了ポリシーを設定します。</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>終了ポリシーを設定すると、不良実行を早期に停止することでコストを節約できます。</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14593,17 +14577,21 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
+          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="C528" t="inlineStr">
         <is>
-          <t>完全性: 承認されたコンテナレジストリへのアクセスを規制します。Machine Learning コンピューティングが承認されたレジストリにのみアクセスできるようにします。</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
+          <t>バッチ ワークロードに低優先度の仮想マシンを使用する: 時間に敏感ではなく、中断が回復可能なバッチ ワークロードには、低優先度の仮想マシンを使用することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>低優先度の仮想マシンを使用すると、大量のコンピューティング能力を低コストで使用できます。Azure の余剰容量を利用します。</t>
+        </is>
+      </c>
       <c r="F528" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14611,17 +14599,21 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
+          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="C529" t="inlineStr">
         <is>
-          <t>整合性: Machine Learning コンピューティングで実行できる Python パッケージを規制します。Python パッケージを規制すると、信頼できるパッケージのみが実行されます。</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
+          <t>コンピュート・インスタンスのアイドル・シャットダウンの有効化: コンピュート・インスタンスのアイドル・シャットダウンを有効にするか、使用時間がわかっている場合は開始時間と停止時間をスケジュールします。</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>デフォルトでは、コンピュート・インスタンスは使用可能であり、コストが発生します。アイドル状態のときにシャットダウンするようにコンピュート・インスタンスを構成するか、それらのスケジュールを構成すると、使用されていないときのコストを節約できます。</t>
+        </is>
+      </c>
       <c r="F529" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14629,17 +14621,21 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
+          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="C530" t="inlineStr">
         <is>
-          <t>整合性: Machine Learning コンピューティング環境でのトレーニングに使用されるコードに署名する必要があります。コード署名を要求すると、実行中のコードが信頼できるソースからのものであり、改ざんされていないことが保証されます。</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
+          <t>トレーニング ワークロードを並列化する: トレーニング ワークロードを並列化することを検討してください。Machine Learning の並列コンポーネントを使用して、それらを実行してテストします。</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>並列ワークロードは、複数の小さなインスタンスで実行できるため、コストを節約できる可能性があります。</t>
+        </is>
+      </c>
       <c r="F530" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14647,17 +14643,21 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
+          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>機密性: Machine Learning ワークスペースおよび関連リソース (ワークスペース ストレージ アカウントなど) に対するロールベースのアクセス制御 (RBAC) の最小特権の原則に準拠して、各自のロールに必要なアクセス許可のみが付与されるようにし、潜在的なセキュリティ リスクを最小限に抑えます。</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
+          <t>Azure 予約 VM インスタンス: 今後 1 年から 3 年間の使用量の見積もりが適切である場合は、Azure 予約 VM インスタンスを購入します。サービスの予約容量オプションは、使用量の見積もりが適切である場合は、活用してください。</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Azure Reserved VM Instances を購入して、仮想マシンの使用料金を前払いし、従量課金制の価格で割引を提供します。割引は、予約に一致する仮想マシンの使用量に自動的に適用されます。</t>
+        </is>
+      </c>
       <c r="F531" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14665,14 +14665,14 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
+          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="C532" t="inlineStr">
         <is>
-          <t>整合性: 保存データと転送中のデータの暗号化を実装することで、信頼と検証済みのアクセスを確立します。</t>
+          <t>開発標準: Machine Learning モデルのカタログとレジストリを利用して、機械学習資産を格納、バージョン管理、共有します。</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
@@ -14683,21 +14683,17 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
+          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="C533" t="inlineStr">
         <is>
-          <t>セキュリティ ベースライン: Machine Learning Service のセキュリティとコンプライアンスを強化するには、Machine Learning の Azure セキュリティ ベースラインを適用します。</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>セキュリティ ベースラインは、ネットワーク セキュリティ、ID 管理、データ保護、特権アクセスなどの重要なセキュリティ側面に関するカスタマイズされたガイダンスを提供します。最適なセキュリティを確保するには、Microsoft Defender for Cloud を使用してこれらの側面を監視します。</t>
-        </is>
-      </c>
+          <t>効率化のための自動化: 機械学習の優れた運用 (MLOps) プラクティスに従います。可能であれば、データの準備、トレーニング、スコアリング プロセスのためのエンドツーエンドの自動パイプラインを構築します。開発では、スクリプトを自動パイプラインに簡単に統合できるため、モデルのトレーニングにはノートブックの代わりにスクリプトを使用します。</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14705,21 +14701,17 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
+          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="C534" t="inlineStr">
         <is>
-          <t>マネージド仮想ネットワークの分離: Machine Learning のマネージド仮想ネットワークの分離を構成します。マネージド仮想ネットワークの分離を有効にすると、ワークスペースのマネージド仮想ネットワークが作成されます。ワークスペース用に作成したマネージド コンピューティング リソースでは、このマネージド仮想ネットワークが自動的に使用されます。マネージド仮想ネットワークの分離を実装できない場合は、ネットワーク トポロジの推奨事項に従って、コンピューティングをソリューション内の他のリソース (ワークスペース リソースのプライベート エンドポイントを含む) から離れた専用サブネットに分離する必要があります。</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>マネージド仮想ネットワークの分離は、ワークスペースを他のネットワークから分離することでセキュリティを強化し、不正アクセスのリスクを軽減します。組織内の別のネットワークで侵害が発生した場合、Machine Learning ワークスペースの分離されたネットワークは影響を受けず、機械学習ワークロードが保護されます。</t>
-        </is>
-      </c>
+          <t>自信を持ってデプロイする: Machine Learning ワークスペース、コンピューティング クラスター、コンピューティング インスタンス、その他のデプロイ環境に対して、コードとしてのインフラストラクチャ (IaC) を実装します。</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14727,21 +14719,17 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
+          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="C535" t="inlineStr">
         <is>
-          <t>Machine Learning ネットワークの分離: Machine Learning ワークスペースのプライベート エンドポイントを構成し、そのプライベート エンドポイント経由でワークスペースに接続します。</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>Machine Learning ネットワークの分離により、ワークスペースへのアクセスが安全で制御されることで、セキュリティが強化されます。ワークスペースにプライベート エンドポイントを構成すると、ワークスペースへのアクセスをプライベート IP アドレス経由でのみ行われるように制限できます。</t>
-        </is>
-      </c>
+          <t>可観測性: デプロイされたモデルのパフォーマンス (データ ドリフトを含む) を監視します。</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14749,21 +14737,17 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
+          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>承認された送信アクセスのみを許可する: データ流出のリスクを最小限に抑えるために、Machine Learning ワークスペースのマネージド アウトバウンド アクセスの送信モードを [承認されたアウトバウンドのみを許可する] に構成します。アクセスする必要があるリソースのプライベートエンドポイント、サービスタグ、または完全修飾ドメイン名(FQDN)を設定します。</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>この構成により、データ流出のリスクが最小限に抑えられ、データのセキュリティが向上します。この設定を有効にすると、システムにアクセスした悪意のあるアクターは、承認されていない外部の宛先にデータを送信できなくなります。</t>
-        </is>
-      </c>
+          <t>監視: モデルがオンライン エンドポイントにデプロイされている場合は、Application Insights を有効にしてオンライン エンドポイントとデプロイを監視できるようにします。トレーニング インフラストラクチャを監視して、ベースライン要件を満たしていることを確認します。</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14771,21 +14755,17 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
+          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="C537" t="inlineStr">
         <is>
-          <t>依存サービスの仮想ネットワーク分離: Storage、Key Vault、Container Registry などの依存サービスをプライベート エンドポイントで構成し、パブリック アクセスを無効にします。</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>ネットワークの分離により、Azure のサービスとしてのプラットフォーム (PaaS) ソリューションへのアクセスをプライベート IP アドレスのみに制限することで、セキュリティが強化されます。</t>
-        </is>
-      </c>
+          <t>シンプルさ: 利用可能な場合は、Machine Learning 用に最適化されたキュレーションされた環境を使用します。</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14793,19 +14773,19 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
+          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="C538" t="inlineStr">
         <is>
-          <t>マネージド ID: Machine Learning と他のサービスとの間の認証にマネージド ID を使用します。</t>
+          <t>Machine Learning ワークスペース インスタンスを最小限に抑える: 可能であれば、ワークスペースの数を最小限に抑えて、メンテナンスを減らします。</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>マネージド ID は、資格情報を保存し、サービス プリンシパルを手動で管理およびローテーションする必要をなくすことで、セキュリティを向上させます。</t>
+          <t>ワークスペースの数を制限することで、メンテナンスの労力と運用コストが削減されます。セキュリティなどの要件については、複数の個別のワークスペースが必要になる場合があります。可能な限り、ワークスペースの数を最小限に抑えます。</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -14815,19 +14795,19 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
+          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="C539" t="inlineStr">
         <is>
-          <t>ローカル認証を無効にする: Machine Learning コンピューティング クラスターとインスタンスのローカル認証を無効にします。</t>
+          <t>モデル カタログとレジストリを活用する: Machine Learning モデル カタログとレジストリを利用して、機械学習資産を格納、バージョン管理、共有します。Machine Learning モデル カタログを使用して、モデルの A/B テストとデプロイを実装します。</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>ローカル認証を無効にすると、Machine Learning コンピューティングのセキュリティが向上し、ID とリソース資格情報の一元的な制御と管理が可能になります。</t>
+          <t>Machine Learning モデル レジストリを使用して、機械学習モデルを格納およびバージョン管理し、変更を追跡し、トレーニングに使用されるジョブとデータセットの系列を維持します。機械学習モデル カタログを使用すると、データ サイエンス チームは、事前トレーニング済みの基本的な機械学習モデルを検出、評価、微調整できます。バージョン管理されたモデルを Machine Learning モデル レジストリに格納すると、A/B リリース、カナリア リリース、ロールバックなどのデプロイ戦略がサポートされます。</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -14837,19 +14817,19 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
+          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="C540" t="inlineStr">
         <is>
-          <t>パブリック SSH ポートを無効にする: 'remoteLoginPortPublicAccess' を 'Disabled' に設定して、Machine Learning コンピューティング クラスターでパブリック Secure Shell (SSH) ポートが閉じていることを確認します。別のコンピューティングを使用する場合は、同様の構成を適用します。</t>
+          <t>モデルのパフォーマンスの監視: デプロイされたモデルのパフォーマンスを監視し、データセットのデータ ドリフトを検出します。</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>SSHアクセスを無効にすると、権限のない個人がアクセスを取得してシステムに害を及ぼす可能性を防ぎ、ブルートフォース攻撃から保護できます。</t>
+          <t>デプロイされたモデルを監視することで、モデルがパフォーマンス要件を満たしていることを確認できます。データ ドリフトを監視すると、モデルのパフォーマンスの低下につながる可能性のある入力データの変化を検出するのに役立ちます。データ ドリフトを管理すると、モデルが時間の経過と共に正確な結果を提供することを確認できます。</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -14859,19 +14839,19 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
+          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="C541" t="inlineStr">
         <is>
-          <t>Machine Learning コンピューティングのパブリック IP アドレスをプロビジョニングしない: Machine Learning コンピューティング クラスターまたはコンピューティング インスタンスをプロビジョニングするときは、enableNodePublicIp を 'false' に設定します。別のコンピューティングを使用する場合は、同様の構成を適用します。</t>
+          <t>インフラストラクチャの監視: モデルがオンライン エンドポイントにデプロイされている場合は、Application Insights を有効にしてオンライン エンドポイントとデプロイを監視します。トレーニング インフラストラクチャを監視して、ベースライン要件を満たしていることを確認します。Machine Learning のリソース ログを収集していることを確認します。</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>パブリックIPアドレスのプロビジョニングは控えて、コンピュート・インスタンスまたはクラスタへの不正アクセスの可能性を制限することでセキュリティを強化します。</t>
+          <t>エンドポイントを監視すると、リクエストのレイテンシーや 1 分あたりのリクエスト数などのメトリクスを可視化できます。パフォーマンスとベースラインを比較し、この情報を使用してコンピューティング リソースに変更を加えることができます。ネットワーク バイト数などのメトリクスを監視することで、クォータ制限に近づいている場合にアラートを発し、スロットリングを防ぐことができます。同様に、トレーニング環境を監視すると、トレーニング環境に変更を加えるための情報が得られます。その情報を使用して、スケールインまたはスケールアウト、さまざまなパフォーマンスの高い SKU でのスケールアップまたはスケールダウン、または CPU と GPU の選択を決定します。</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -14881,19 +14861,19 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
+          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="C542" t="inlineStr">
         <is>
-          <t>最新のオペレーティング・システム・イメージの取得: コンピュート・インスタンスを再作成して、最新のオペレーティング・システム・イメージを取得します。</t>
+          <t>モデル トレーニング環境をキュレーションする: 機械学習用に最適化されたキュレーションされた環境 (使用可能な場合) を使用します。</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>最新のイメージを使用することで、最新のセキュリティパッチを確実に適用するなど、一貫性があり、安定した、安全な環境を維持できます。</t>
+          <t>キュレーションされた環境は、Machine Learning によって提供される事前に作成された環境であり、デプロイ時間を短縮し、デプロイとトレーニングの待機時間を短縮します。キュレーションされた環境を使用すると、トレーニングとデプロイの成功率が向上し、不要なイメージ ビルドが回避されます。Azure Container for PyTorch などのキュレーションされた環境は、Machine Learning で大規模なモデルをトレーニングするために最適化することもできます。</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -14903,21 +14883,17 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
+          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="C543" t="inlineStr">
         <is>
-          <t>厳格な Machine Learning ワークスペースのアクセス制御: Microsoft Entra ID グループを使用してワークスペースのアクセスを管理し、RBAC の最小特権の原則に従います。</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>厳格なワークスペースアクセス制御により、各個人が自分の役割に必要な権限のみを持つようにすることで、セキュリティを強化します。たとえば、データ サイエンティストは、実験を実行するためのアクセス権はあるが、セキュリティ設定を変更するためのアクセス権は持たない場合があるため、潜在的なセキュリティ リスクを最小限に抑えることができます。</t>
-        </is>
-      </c>
+          <t>パフォーマンス目標: モデルの許容可能なトレーニング時間と再トレーニング頻度を決定します。トレーニング時間の明確な目標をテストと共に設定すると、トレーニング時間の目標を達成するために必要なコンピューティング リソース、CPU と GPU、および CPU SKU を決定するのに役立ちます。</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14925,21 +14901,17 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
+          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="C544" t="inlineStr">
         <is>
-          <t>モデル・カタログ・デプロイメントの制限: モデル・デプロイメントを特定のレジストリに制限します。</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>モデルカタログからのデプロイメントを特定のレジストリに制限すると、承認されたレジストリにのみモデルをデプロイできます。このアプローチは、オープンソースの基本モデルへのアクセスを規制するのに役立ちます。</t>
-        </is>
-      </c>
+          <t>パフォーマンス目標: デプロイされたモデルに対して許容されるパフォーマンス目標 (応答時間、1 秒あたりのリクエスト数、エラー率、稼働時間など) を定義します。パフォーマンス目標は、デプロイされたモデルの効率のベンチマークとして機能します。ターゲットは、CPU と GPU の決定、CPU SKU の選択、スケーリング要件の作成に役立ちます。</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14947,21 +14919,17 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
+          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="C545" t="inlineStr">
         <is>
-          <t>保存データを暗号化する: Machine Learning でカスタマー マネージド キーを使用することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>保存データを暗号化すると、直接管理されるキーを使用して機密データが暗号化されるため、データのセキュリティが強化されます。独自の暗号化キーを管理する規制要件がある場合は、この機能を使用してその要件に準拠します。</t>
-        </is>
-      </c>
+          <t>容量要件を満たす: モデル トレーニングに適したコンピューティング リソースを選択します。</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14969,21 +14937,17 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
+          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="C546" t="inlineStr">
         <is>
-          <t>データ流出のリスクを最小限に抑える: データ流出防止を実装します。たとえば、エグレス仮想ネットワーク トラフィックをフィルター処理し、特定の Azure Storage アカウントに対してのみデータ流出を許可するサービス エンドポイント ポリシーを作成します。</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>データ流出のリスクを最小限に抑えるには、受信と送信の要件を制限します。</t>
-        </is>
-      </c>
+          <t>容量要件を満たす: モデル デプロイに適したコンピューティング リソースを選択します。</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -14991,14 +14955,14 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
+          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="C547" t="inlineStr">
         <is>
-          <t>使用量の最適化: 適切なリソースを選択して、ワークロード要件に合っていることを確認します。たとえば、CPU や GPU、さまざまな SKU、優先度の低い VM と通常の VM などを選択します。</t>
+          <t>容量要件を満たす: 自動スケーリング機能を備えたデプロイ環境を選択して、需要の変動に応じて容量を追加および削除します。</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
@@ -15009,14 +14973,14 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
+          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="C548" t="inlineStr">
         <is>
-          <t>使用量の最適化: 使用されていないコンピューティング リソースをスケールダウンまたはアイドル時にシャットダウンして、無駄を減らします。</t>
+          <t>パフォーマンスの達成と維持: デプロイされたモデルのパフォーマンスを継続的に監視し、結果を確認して、適切なアクションを実行します。</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
@@ -15027,14 +14991,14 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
+          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="C549" t="inlineStr">
         <is>
-          <t>使用量の最適化: ポリシーを適用し、設計の上限と下限に準拠するようにクォータを構成します。</t>
+          <t>パフォーマンスの達成と維持: デプロイされたモデルのインフラストラクチャのパフォーマンスを継続的に監視し、結果を確認して、適切なアクションを実行します。トレーニングインフラストラクチャを監視して、トレーニング時間の要件を満たしていることを確認します。</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -15045,17 +15009,21 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
+          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>使用量の最適化: トレーニング ワークロードの並列化をテストして、低コストの SKU でトレーニング要件を満たすことができるかどうかを判断します。</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
+          <t>モデル トレーニングに適したコンピューティング サービスを選択する: 自動スケールが必要な場合は、モデル トレーニングのコンピューティング インスタンスよりも Machine Learning コンピューティング クラスターを検討してください。トレーニング要件に基づいてコンピューティング リソースを最適化します。まず、CPUとGPUのどちらかを選択します。デフォルトでは CPU を使用しますが、ディープラーニング、画像やビデオの処理、大量のデータなどのワークロードには GPU を検討してください。次に、ワークロードに最適なイメージ SKU を選択します。テストを使用して、ベースラインを決定する際にトレーニング時間に対してコストを最適化するコンピューティング オプションを選択します。</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>適切なコンピューティングを選択することは、トレーニング時間に直接影響するため、非常に重要です。適切な SKU と CPU と GPU を選択することで、モデル トレーニングが要件とパフォーマンス目標を確実に満たすことができます。過度に使用される低パフォーマンスの SKU を選択すると、トレーニング時間が非常に長くなり、パフォーマンスの問題が発生する可能性があります。コンピューティングクラスターは、水平スケーリングをサポートするワークロードをスケールアウトすることでパフォーマンスを向上させる機能を提供します。この方法では、さまざまな要求を持つワークロードを柔軟に処理でき、必要に応じてマシンを追加または削除できます。</t>
+        </is>
+      </c>
       <c r="F550" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15063,17 +15031,21 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
+          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>レートの最適化: 今後 1 年から 3 年間の使用量の見積もりが適切である場合は、Azure Reserved Virtual Machine Instances を購入します。</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
+          <t>モデル デプロイ環境のスケーリング: デプロイ環境の自動スケーリング機能を使用します。AKS デプロイ環境の場合は、クラスター オートスケーラーを使用して、需要に合わせてスケーリングします。オンライン エンドポイントの場合は、Azure Monitor 自動スケール機能との統合により、自動的にスケーリングされます。</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>自動スケールは、デプロイされたモデルのインスタンスの数を需要に合わせて調整します。</t>
+        </is>
+      </c>
       <c r="F551" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15081,17 +15053,21 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
+          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>監視と最適化: モデルをトレーニングするときに、CPU や GPU の使用量などのリソース使用量を監視します。リソースが完全に使用されていない場合は、リソースをより適切に使用するようにコードを変更するか、より小さいまたは安価な VM サイズにスケールダウンします。</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
+          <t>モデルのパフォーマンスの監視: デプロイされたモデルのパフォーマンスを監視します。</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>本番環境でのモデルのパフォーマンスを追跡すると、データドリフト、予測ドリフト、データ品質、特徴属性ドリフトなどの潜在的な問題が警告されます。データ ドリフトを監視すると、モデルのパフォーマンスの低下につながる可能性のある入力データの変化を検出するのに役立ちます。データ ドリフトを管理すると、モデルが時間の経過と共に正確な結果を提供することを確認できます。</t>
+        </is>
+      </c>
       <c r="F552" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15099,19 +15075,19 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
+          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>コンピューティングリソースの最適化: ワークロードの要件に基づいてコンピューティングリソースを最適化します。ワークロードに最適なSKUを選択してください:&lt;ul&gt;&lt;li&gt;汎用 – バランスの取れたCPUとメモリの比率で、すべての目的に適しています。&lt;/li&gt;&lt;li&gt;コンピューティング最適化 – CPU とメモリの比率が高く、数学を多用する計算に適しています。&lt;/li&gt;&lt;li&gt;メモリ最適化 – CPU に対するメモリ容量が多く、メモリ内計算やデータベース アプリケーションに適しています。&lt;/li&gt;&lt;li&gt;Mシリーズ – 大量のメモリとCPUを搭載した非常に大きなマシン。 &lt;/li&gt;&lt;li&gt; GPU – 変数の数が多く、より高い並列処理と特殊なコア命令の恩恵を受けることができるモデルに適しています。一般的なアプリケーションは、ディープラーニング、画像またはビデオ処理、科学シミュレーション、データマイニング、およびGPU開発フレームワークの活用です。複数のファミリーでテストし、結果をベースラインとして文書化します。モデルとデータが進化するにつれて、最適なコンピューティング リソースが変わる可能性があります。実行時間を監視し、必要に応じて再評価します。</t>
+          <t>インフラストラクチャの監視: オンライン エンドポイントを監視し、監視と統合して、適切なメトリックとログを追跡および監視します。オンライン デプロイを作成するときに Application Insights を有効にします。トレーニング インフラストラクチャを監視し、モデルをトレーニングするときにメモリや CPU または GPU の使用量などのリソース使用量を確認して、ベースライン要件を満たしていることを確認します。</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>適切なコンピューティングを選択することは、ワークロードの実行コストに直接影響するため、非常に重要です。適切な使用をせずに GPU や高パフォーマンスの SKU を選択すると、無駄な支出につながる可能性があり、サイズが小さいコンピューティングを選択すると、トレーニング時間が法外に長くなり、パフォーマンスの問題が発生する可能性があります。</t>
+          <t>エンドポイントを監視すると、リクエストのレイテンシーや 1 分あたりのリクエスト数などのメトリクスを可視化できます。パフォーマンスとベースラインを比較し、この情報を使用してコンピューティング リソースに変更を加えることができます。ネットワーク バイト数などのメトリクスを監視することで、クォータ制限に近づいている場合にアラートを発し、スロットリングを防ぐことができます。同様に、トレーニング環境を監視すると、トレーニング環境に変更を加えるための情報が得られます。その情報を使用して、スケールインまたはスケールアウト、さまざまなパフォーマンスの高い SKU でのスケールアップまたはスケールダウン、または CPU と GPU の選択を決定します。</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -15121,21 +15097,17 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
+          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>コンピューティングのスケーリングを最適化する: コンピューティング クラスターを自動スケーリング用に構成して、必要なものだけを使用するようにします。トレーニング クラスターの場合は、ノードの最小数を 0 に設定し、ノードがアイドル状態になる時間を適切な時間に構成します。反復的な実験を減らすには、時間を短縮してコストを節約します。より反復的な実験を行うには、変更のたびにスケールアップまたはスケールダウンにかかる費用が発生しないように、時間を長くします。</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>コンピューティング クラスターの自動スケールを構成して、使用量が少ないときにスケールダウンします。 ノードの最小数を 0 に設定して、トレーニング クラスターが使用されていないときに 0 にスケールダウンします。</t>
-        </is>
-      </c>
+          <t>耐障害性: ユース ケースに基づいて、従量課金制またはプロビジョニングされたスループットのいずれかの適切なデプロイ オプションを選択します。予約容量は回復性を向上させるため、運用ソリューションにはプロビジョニングされたスループットを選択します。従量課金制のアプローチは、開発/テスト環境に最適です。</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
       <c r="F554" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15143,21 +15115,17 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
+          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>トレーニング終了ポリシーを設定する: トレーニング実行の期間を制限するか、早期に終了するために、早期終了ポリシーを設定します。</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>終了ポリシーを設定すると、不良実行を早期に停止することでコストを節約できます。</t>
-        </is>
-      </c>
+          <t>冗長性: Azure OpenAI デプロイの前に適切なゲートウェイを追加します。ゲートウェイには、調整などの一時的な障害に耐える機能があり、複数の Azure OpenAI インスタンスにルーティングする機能も必要です。リージョンの冗長性を構築するために、異なるリージョンのインスタンスへのルーティングを検討してください。</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15165,21 +15133,17 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
+          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>バッチ ワークロードに低優先度の仮想マシンを使用する: 時間に敏感ではなく、中断が回復可能なバッチ ワークロードには、低優先度の仮想マシンを使用することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>低優先度の仮想マシンを使用すると、大量のコンピューティング能力を低コストで使用できます。Azure の余剰容量を利用します。</t>
-        </is>
-      </c>
+          <t>回復性: プロビジョニングされたスループットを使用している場合は、オーバーフローを処理するために従量課金制インスタンスをデプロイすることも検討してください。プロビジョニングされたスループットモデルが調整されているときに、ゲートウェイ経由で従量課金制インスタンスに通話をルーティングできます。</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15187,21 +15151,17 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="C557" t="inlineStr">
         <is>
-          <t>コンピュート・インスタンスのアイドル・シャットダウンの有効化: コンピュート・インスタンスのアイドル・シャットダウンを有効にするか、使用時間がわかっている場合は開始時間と停止時間をスケジュールします。</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>デフォルトでは、コンピュート・インスタンスは使用可能であり、コストが発生します。アイドル状態のときにシャットダウンするようにコンピュート・インスタンスを構成するか、それらのスケジュールを構成すると、使用されていないときのコストを節約できます。</t>
-        </is>
-      </c>
+          <t>回復性: 容量の使用状況を監視して、スループットの制限を超えていないことを確認します。容量の使用状況を定期的に確認して、より正確な予測を実現し、容量の制約によるサービスの中断を防ぎます。</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15209,21 +15169,17 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
+          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="C558" t="inlineStr">
         <is>
-          <t>トレーニング ワークロードを並列化する: トレーニング ワークロードを並列化することを検討してください。Machine Learning の並列コンポーネントを使用して、それらを実行してテストします。</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>並列ワークロードは、複数の小さなインスタンスで実行できるため、コストを節約できる可能性があります。</t>
-        </is>
-      </c>
+          <t>回復性: 大きなデータ ファイルを使用した微調整のガイダンスに従い、Azure BLOB ストアからデータをインポートします。100 MB 以上の大きなファイルは、マルチパート フォームを介してアップロードすると、要求がアトミックであり、再試行または再開できないため、不安定になる可能性があります。</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15231,21 +15187,17 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Azure 予約 VM インスタンス: 今後 1 年から 3 年間の使用量の見積もりが適切である場合は、Azure 予約 VM インスタンスを購入します。サービスの予約容量オプションは、使用量の見積もりが適切である場合は、活用してください。</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>Azure Reserved VM Instances を購入して、仮想マシンの使用料金を前払いし、従量課金制の価格で割引を提供します。割引は、予約に一致する仮想マシンの使用量に自動的に適用されます。</t>
-        </is>
-      </c>
+          <t>復旧: 微調整されたモデルと Azure OpenAI にアップロードされたトレーニング データの復旧計画を含む復旧戦略を定義します。Azure OpenAI には自動フェールオーバーがないため、サービス全体とすべての依存関係 (トレーニング データを含むストレージなど) を網羅する戦略を設計する必要があります。</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15253,17 +15205,21 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
+          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="C560" t="inlineStr">
         <is>
-          <t>開発標準: Machine Learning モデルのカタログとレジストリを利用して、機械学習資産を格納、バージョン管理、共有します。</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
+          <t>従量課金制のレート制限を監視する: 従量課金制のアプローチを使用している場合は、モデル デプロイのレート制限を管理し、1 分あたりのトークン (TPM) と 1 分あたりの要求 (RPM) の使用状況を監視します。</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>この重要なスループット情報は、デプロイの需要を満たすためにクォータから十分な TPM を割り当てるために必要な情報を提供します。十分なクォータを割り当てると、デプロイされたモデルへの呼び出しの調整が防止されます。</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15271,17 +15227,21 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
+          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>効率化のための自動化: 機械学習の優れた運用 (MLOps) プラクティスに従います。可能であれば、データの準備、トレーニング、スコアリング プロセスのためのエンドツーエンドの自動パイプラインを構築します。開発では、スクリプトを自動パイプラインに簡単に統合できるため、モデルのトレーニングにはノートブックの代わりにスクリプトを使用します。</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
+          <t>プロビジョニングされたスループットのプロビジョニング管理された使用率をモニタリングする: プロビジョニングされたスループット支払いモデルを使用している場合は、プロビジョニング管理された使用状況をモニタリングします。</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>プロビジョニング管理された使用率を監視して 100% を超えないようにし、デプロイされたモデルへの呼び出しの調整を防ぐことが重要です。</t>
+        </is>
+      </c>
       <c r="F561" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15289,17 +15249,21 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
+          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>自信を持ってデプロイする: Machine Learning ワークスペース、コンピューティング クラスター、コンピューティング インスタンス、その他のデプロイ環境に対して、コードとしてのインフラストラクチャ (IaC) を実装します。</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
+          <t>コンテンツ フィルターの調整: コンテンツ フィルターを調整して、過度に攻撃的なフィルターによる誤検知を最小限に抑えます。</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>コンテンツ フィルターは、不透明なリスク分析に基づいてプロンプトまたは完了をブロックします。コンテンツフィルターが、ワークロードで予想される使用量を許容するように調整されていることを確認します。</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15307,14 +15271,14 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
+          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>可観測性: デプロイされたモデルのパフォーマンス (データ ドリフトを含む) を監視します。</t>
+          <t>機密性を保護する: トレーニング データを Azure OpenAI にアップロードする場合は、データ暗号化にカスタマー マネージド キーを使用し、キーローテーション戦略を実装し、トレーニング、検証、トレーニング結果データを削除します。トレーニング データに外部データ ストアを使用する場合は、そのストアのセキュリティに関するベスト プラクティスに従ってください。たとえば、Azure Blob Storage の場合は、暗号化にカスタマー マネージド キーを使用し、キーのローテーション戦略を実装します。マネージド ID ベースのアクセスを使用し、プライベート エンドポイントを使用してネットワーク境界を実装し、アクセス ログを有効にします。</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -15325,14 +15289,14 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
+          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="C564" t="inlineStr">
         <is>
-          <t>監視: モデルがオンライン エンドポイントにデプロイされている場合は、Application Insights を有効にしてオンライン エンドポイントとデプロイを監視できるようにします。トレーニング インフラストラクチャを監視して、ベースライン要件を満たしていることを確認します。</t>
+          <t>機密性を保護する: Azure OpenAI リソースがアクセスできる送信 URL を制限することで、データ流出から保護します。</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
@@ -15343,14 +15307,14 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
+          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="C565" t="inlineStr">
         <is>
-          <t>シンプルさ: 利用可能な場合は、Machine Learning 用に最適化されたキュレーションされた環境を使用します。</t>
+          <t>整合性の保護: システムへのユーザー アクセスを認証および承認するためのアクセス制御を実装するには、最小特権の原則を使用し、キーの代わりに個々の ID を使用します。</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
@@ -15361,21 +15325,17 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
+          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="C566" t="inlineStr">
         <is>
-          <t>Machine Learning ワークスペース インスタンスを最小限に抑える: 可能であれば、ワークスペースの数を最小限に抑えて、メンテナンスを減らします。</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>ワークスペースの数を制限することで、メンテナンスの労力と運用コストが削減されます。セキュリティなどの要件については、複数の個別のワークスペースが必要になる場合があります。可能な限り、ワークスペースの数を最小限に抑えます。</t>
-        </is>
-      </c>
+          <t>整合性の保護: ジェイルブレイク リスク検出を実装して、言語モデルのデプロイをプロンプト インジェクション攻撃から保護します。</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15383,21 +15343,17 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
+          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>モデル カタログとレジストリを活用する: Machine Learning モデル カタログとレジストリを利用して、機械学習資産を格納、バージョン管理、共有します。Machine Learning モデル カタログを使用して、モデルの A/B テストとデプロイを実装します。</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>Machine Learning モデル レジストリを使用して、機械学習モデルを格納およびバージョン管理し、変更を追跡し、トレーニングに使用されるジョブとデータセットの系列を維持します。機械学習モデル カタログを使用すると、データ サイエンス チームは、事前トレーニング済みの基本的な機械学習モデルを検出、評価、微調整できます。バージョン管理されたモデルを Machine Learning モデル レジストリに格納すると、A/B リリース、カナリア リリース、ロールバックなどのデプロイ戦略がサポートされます。</t>
-        </is>
-      </c>
+          <t>可用性の保護: セキュリティ制御を使用して、モデルの使用クォータを使い果たす可能性のある攻撃を防ぎます。ネットワーク上のサービスを分離するようにコントロールを構成できます。インターネットからサービスにアクセスできる必要がある場合は、ゲートウェイを使用して、ルーティングまたは調整を使用して不正使用の疑いをブロックすることを検討してください。</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15405,19 +15361,19 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
+          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="C568" t="inlineStr">
         <is>
-          <t>モデルのパフォーマンスの監視: デプロイされたモデルのパフォーマンスを監視し、データセットのデータ ドリフトを検出します。</t>
+          <t>セキュリティで保護されたキー: アーキテクチャで Azure OpenAI キーベースの認証が必要な場合は、それらのキーをアプリケーション コードではなく Azure Key Vault に格納します。</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>デプロイされたモデルを監視することで、モデルがパフォーマンス要件を満たしていることを確認できます。データ ドリフトを監視すると、モデルのパフォーマンスの低下につながる可能性のある入力データの変化を検出するのに役立ちます。データ ドリフトを管理すると、モデルが時間の経過と共に正確な結果を提供することを確認できます。</t>
+          <t>シークレットを Key Vault に格納してコードから分離すると、シークレットが漏洩する可能性が低くなります。また、分離により、シークレットの一元管理が容易になり、キーのローテーションなどの責任が軽減されます。</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -15427,19 +15383,19 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
+          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="C569" t="inlineStr">
         <is>
-          <t>インフラストラクチャの監視: モデルがオンライン エンドポイントにデプロイされている場合は、Application Insights を有効にしてオンライン エンドポイントとデプロイを監視します。トレーニング インフラストラクチャを監視して、ベースライン要件を満たしていることを確認します。Machine Learning のリソース ログを収集していることを確認します。</t>
+          <t>アクセスを制限する: ワークロードで必要とされない限り、Azure OpenAI へのパブリック アクセスを無効にします。Azure 仮想ネットワーク内のコンシューマーから接続する場合は、プライベート エンドポイントを作成します。</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>エンドポイントを監視すると、リクエストのレイテンシーや 1 分あたりのリクエスト数などのメトリクスを可視化できます。パフォーマンスとベースラインを比較し、この情報を使用してコンピューティング リソースに変更を加えることができます。ネットワーク バイト数などのメトリクスを監視することで、クォータ制限に近づいている場合にアラートを発し、スロットリングを防ぐことができます。同様に、トレーニング環境を監視すると、トレーニング環境に変更を加えるための情報が得られます。その情報を使用して、スケールインまたはスケールアウト、さまざまなパフォーマンスの高い SKU でのスケールアップまたはスケールダウン、または CPU と GPU の選択を決定します。</t>
+          <t>Azure OpenAI へのアクセスを制御すると、承認されていないユーザーからの攻撃を防ぐのに役立ちます。プライベートエンドポイントを使用すると、アプリケーションとプラットフォーム間のネットワークトラフィックのプライベートが保たれます。</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -15449,19 +15405,19 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
+          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="C570" t="inlineStr">
         <is>
-          <t>モデル トレーニング環境をキュレーションする: 機械学習用に最適化されたキュレーションされた環境 (使用可能な場合) を使用します。</t>
+          <t>Microsoft Entra ID: Microsoft Entra ID を使用して、認証を行い、ロールベースのアクセス制御 (RBAC) を使用して Azure OpenAI へのアクセスを承認します。Azure AI Services でローカル認証を無効にし、'disableLocalAuth' を 'true' に設定します。入力候補または画像生成を実行する ID に Cognitive Services OpenAI ユーザー ロールを付与します。モデル自動化パイプラインとアドホック データ サイエンス アクセスに、Cognitive Services OpenAI Contributor のようなロールを付与します。</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>キュレーションされた環境は、Machine Learning によって提供される事前に作成された環境であり、デプロイ時間を短縮し、デプロイとトレーニングの待機時間を短縮します。キュレーションされた環境を使用すると、トレーニングとデプロイの成功率が向上し、不要なイメージ ビルドが回避されます。Azure Container for PyTorch などのキュレーションされた環境は、Machine Learning で大規模なモデルをトレーニングするために最適化することもできます。</t>
+          <t>Microsoft Entra ID を使用すると、ID 管理コンポーネントが一元化され、API キーの使用がなくなります。RBAC を Microsoft Entra ID と共に使用すると、ユーザーまたはグループがジョブを実行するために必要なアクセス許可を正確に持つことができます。このようなきめ細かなアクセス制御は、Azure OpenAI API キーでは実現できません。</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -15471,17 +15427,21 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
+          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="C571" t="inlineStr">
         <is>
-          <t>パフォーマンス目標: モデルの許容可能なトレーニング時間と再トレーニング頻度を決定します。トレーニング時間の明確な目標をテストと共に設定すると、トレーニング時間の目標を達成するために必要なコンピューティング リソース、CPU と GPU、および CPU SKU を決定するのに役立ちます。</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
+          <t>カスタマー マネージド キーを使用する: Azure OpenAI にアップロードされる微調整されたモデルとトレーニング データには、カスタマー マネージド キーを使用します。</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>カスタマー管理キーを使用すると、アクセス制御の作成、ローテーション、無効化、取り消しを柔軟に行うことができます。</t>
+        </is>
+      </c>
       <c r="F571" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15489,17 +15449,21 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
+          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="C572" t="inlineStr">
         <is>
-          <t>パフォーマンス目標: デプロイされたモデルに対して許容されるパフォーマンス目標 (応答時間、1 秒あたりのリクエスト数、エラー率、稼働時間など) を定義します。パフォーマンス目標は、デプロイされたモデルの効率のベンチマークとして機能します。ターゲットは、CPU と GPU の決定、CPU SKU の選択、スケーリング要件の作成に役立ちます。</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
+          <t>脱獄攻撃から保護する: Azure AI Content Safety Studio を使用して、脱獄のリスクを検出します。</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>脱獄の試みを検出して、Azure OpenAI デプロイの安全メカニズムを回避しようとするプロンプトを特定してブロックします。</t>
+        </is>
+      </c>
       <c r="F572" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15507,14 +15471,14 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
+          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="C573" t="inlineStr">
         <is>
-          <t>容量要件を満たす: モデル トレーニングに適したコンピューティング リソースを選択します。</t>
+          <t>コスト管理: プロンプトのサイズを考慮して、コストモデルを開発します。プロンプトの入力と応答のサイズ、およびテキストがトークンにどのように変換されるかを理解することは、実行可能なコストモデルを作成するのに役立ちます。</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -15525,14 +15489,14 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
+          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>容量要件を満たす: モデル デプロイに適したコンピューティング リソースを選択します。</t>
+          <t>使用量の最適化: トークンの使用量が予測可能になるまで、Azure OpenAI の従量課金制の価格から始めます。</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
@@ -15543,14 +15507,14 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
+          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="C575" t="inlineStr">
         <is>
-          <t>容量要件を満たす: 自動スケーリング機能を備えたデプロイ環境を選択して、需要の変動に応じて容量を追加および削除します。</t>
+          <t>レートの最適化: トークンの使用量が十分に高く、一定期間にわたって予測可能な場合は、プロビジョニングされたスループット価格モデルを使用して、コストの最適化を改善します。</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
@@ -15561,14 +15525,14 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
+          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="C576" t="inlineStr">
         <is>
-          <t>パフォーマンスの達成と維持: デプロイされたモデルのパフォーマンスを継続的に監視し、結果を確認して、適切なアクションを実行します。</t>
+          <t>使用量の最適化: モデルを選択するときは、モデルの価格と機能を考慮してください。テキスト生成や完了タスクなどの複雑でないタスクのために、低コストのモデルから始めます。言語翻訳やコンテンツの理解など、より複雑なタスクの場合は、より高度なモデルの使用を検討してください。テキストの埋め込み、画像の生成、文字起こしのシナリオなどのユースケースに適したモデルを選択するときは、さまざまなモデル機能とトークンの最大使用制限を考慮してください。お客様のニーズに最適なモデルを慎重に選択することで、コストを最適化しながら、必要なアプリケーション性能を達成することができます。</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
@@ -15579,14 +15543,14 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
+          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>パフォーマンスの達成と維持: デプロイされたモデルのインフラストラクチャのパフォーマンスを継続的に監視し、結果を確認して、適切なアクションを実行します。トレーニングインフラストラクチャを監視して、トレーニング時間の要件を満たしていることを確認します。</t>
+          <t>使用の最適化: API 呼び出しによって提供されるトークン制限制約 (生成する完了の数を示す 'max_tokens' や 'n' など) を使用します。</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -15597,21 +15561,17 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
+          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>モデル トレーニングに適したコンピューティング サービスを選択する: 自動スケールが必要な場合は、モデル トレーニングのコンピューティング インスタンスよりも Machine Learning コンピューティング クラスターを検討してください。トレーニング要件に基づいてコンピューティング リソースを最適化します。まず、CPUとGPUのどちらかを選択します。デフォルトでは CPU を使用しますが、ディープラーニング、画像やビデオの処理、大量のデータなどのワークロードには GPU を検討してください。次に、ワークロードに最適なイメージ SKU を選択します。テストを使用して、ベースラインを決定する際にトレーニング時間に対してコストを最適化するコンピューティング オプションを選択します。</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>適切なコンピューティングを選択することは、トレーニング時間に直接影響するため、非常に重要です。適切な SKU と CPU と GPU を選択することで、モデル トレーニングが要件とパフォーマンス目標を確実に満たすことができます。過度に使用される低パフォーマンスの SKU を選択すると、トレーニング時間が非常に長くなり、パフォーマンスの問題が発生する可能性があります。コンピューティングクラスターは、水平スケーリングをサポートするワークロードをスケールアウトすることでパフォーマンスを向上させる機能を提供します。この方法では、さまざまな要求を持つワークロードを柔軟に処理でき、必要に応じてマシンを追加または削除できます。</t>
-        </is>
-      </c>
+          <t>使用の最適化: Azure OpenAI の価格ブレークポイントを最大化します (たとえば、画像生成などのブレークポイントの微調整やモデル化など)。微調整は時間単位で課金されるため、1時間あたりに利用できる時間を最大限に活用して、次の請求期間にずれ込むことなく微調整の結果を改善します。同様に、100 枚の画像を生成するためのコストは、1 つの画像に対するコストと同じです。価格のブレークポイントを最大化して有利にします。</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15619,21 +15579,17 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
+          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="C579" t="inlineStr">
         <is>
-          <t>モデル デプロイ環境のスケーリング: デプロイ環境の自動スケーリング機能を使用します。AKS デプロイ環境の場合は、クラスター オートスケーラーを使用して、需要に合わせてスケーリングします。オンライン エンドポイントの場合は、Azure Monitor 自動スケール機能との統合により、自動的にスケーリングされます。</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>自動スケールは、デプロイされたモデルのインスタンスの数を需要に合わせて調整します。</t>
-        </is>
-      </c>
+          <t>使用量の最適化: 未使用の微調整されたモデルは、継続的なホスティング料金が発生しないように、消費されなくなったら削除します。</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr"/>
       <c r="F579" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15641,21 +15597,17 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
+          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="C580" t="inlineStr">
         <is>
-          <t>モデルのパフォーマンスの監視: デプロイされたモデルのパフォーマンスを監視します。</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>本番環境でのモデルのパフォーマンスを追跡すると、データドリフト、予測ドリフト、データ品質、特徴属性ドリフトなどの潜在的な問題が警告されます。データ ドリフトを監視すると、モデルのパフォーマンスの低下につながる可能性のある入力データの変化を検出するのに役立ちます。データ ドリフトを管理すると、モデルが時間の経過と共に正確な結果を提供することを確認できます。</t>
-        </is>
-      </c>
+          <t>使用状況の調整: プロンプトの入力と応答の長さを最適化します。プロンプトが長いほど、より多くのトークンを消費するため、コストが増加します。ただし、十分なコンテキストが欠落しているプロンプトは、モデルが適切な結果を生み出すのに役立ちません。モデルが有用な応答を生成するのに十分なコンテキストを提供する簡潔なプロンプトを作成します。また、応答長の制限を最適化してください。</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr"/>
       <c r="F580" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15663,21 +15615,17 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
+          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="C581" t="inlineStr">
         <is>
-          <t>インフラストラクチャの監視: オンライン エンドポイントを監視し、監視と統合して、適切なメトリックとログを追跡および監視します。オンライン デプロイを作成するときに Application Insights を有効にします。トレーニング インフラストラクチャを監視し、モデルをトレーニングするときにメモリや CPU または GPU の使用量などのリソース使用量を確認して、ベースライン要件を満たしていることを確認します。</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>エンドポイントを監視すると、リクエストのレイテンシーや 1 分あたりのリクエスト数などのメトリクスを可視化できます。パフォーマンスとベースラインを比較し、この情報を使用してコンピューティング リソースに変更を加えることができます。ネットワーク バイト数などのメトリクスを監視することで、クォータ制限に近づいている場合にアラートを発し、スロットリングを防ぐことができます。同様に、トレーニング環境を監視すると、トレーニング環境に変更を加えるための情報が得られます。その情報を使用して、スケールインまたはスケールアウト、さまざまなパフォーマンスの高い SKU でのスケールアップまたはスケールダウン、または CPU と GPU の選択を決定します。</t>
-        </is>
-      </c>
+          <t>コスト効率: 可能な限りリクエストをバッチ処理して、呼び出しごとのオーバーヘッドを最小限に抑え、全体的なコストを削減できます。バッチ サイズを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
       <c r="F581" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15685,14 +15633,14 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
+          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>耐障害性: ユース ケースに基づいて、従量課金制またはプロビジョニングされたスループットのいずれかの適切なデプロイ オプションを選択します。予約容量は回復性を向上させるため、運用ソリューションにはプロビジョニングされたスループットを選択します。従量課金制のアプローチは、開発/テスト環境に最適です。</t>
+          <t>コスト効率: モデルには異なる微調整コストがあるため、ソリューションで微調整が必要な場合は、これらのコストを考慮してください。</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -15703,14 +15651,14 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
+          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>冗長性: Azure OpenAI デプロイの前に適切なゲートウェイを追加します。ゲートウェイには、調整などの一時的な障害に耐える機能があり、複数の Azure OpenAI インスタンスにルーティングする機能も必要です。リージョンの冗長性を構築するために、異なるリージョンのインスタンスへのルーティングを検討してください。</t>
+          <t>監視と最適化: モデルの使用状況を監視するコスト追跡システムを設定します。その情報を使用して、モデルの選択とプロンプトのサイズを通知します。</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -15721,17 +15669,21 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
+          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>回復性: プロビジョニングされたスループットを使用している場合は、オーバーフローを処理するために従量課金制インスタンスをデプロイすることも検討してください。プロビジョニングされたスループットモデルが調整されているときに、ゲートウェイ経由で従量課金制インスタンスに通話をルーティングできます。</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
+          <t>制限を設定するクライアント コードを設計する: カスタム クライアントでは、モデルあたりのトークン数の上限 ('max_tokens') や生成までの完了数 ('n') など、Azure OpenAI 入力候補 API の制限機能を使用する必要があります。制限を設定すると、サーバーが必要以上に生成されなくなります。</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>API 機能を使用して使用を制限すると、サービスの使用がクライアントのニーズに合わせて調整されます。これにより、モデルが必要以上にトークンを消費する過度に長い応答を生成しないようにすることで、コストを節約できます。</t>
+        </is>
+      </c>
       <c r="F584" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15739,17 +15691,21 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
+          <t>afb53b41-825a-4310-b445-bf391792c568</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="C585" t="inlineStr">
         <is>
-          <t>回復性: 容量の使用状況を監視して、スループットの制限を超えていないことを確認します。容量の使用状況を定期的に確認して、より正確な予測を実現し、容量の制約によるサービスの中断を防ぎます。</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
+          <t>従量課金制の使用状況を監視する: 従量課金制のアプローチを使用する場合は、TPM と RPM の使用状況を監視します。その情報を使用して、使用するモデルなどのアーキテクチャ設計の決定を通知し、プロンプト サイズを最適化します。</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>TPM と RPM を継続的に監視することで、Azure OpenAI モデルのコストを最適化するための関連メトリックが得られます。この監視をモデルの特徴およびモデルの価格設定と組み合わせて、モデルの使用を最適化できます。このモニタリングを使用して、プロンプトのサイズを最適化することもできます。</t>
+        </is>
+      </c>
       <c r="F585" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15757,17 +15713,21 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
+          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>回復性: 大きなデータ ファイルを使用した微調整のガイダンスに従い、Azure BLOB ストアからデータをインポートします。100 MB 以上の大きなファイルは、マルチパート フォームを介してアップロードすると、要求がアトミックであり、再試行または再開できないため、不安定になる可能性があります。</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
+          <t>プロビジョニングされたスループットの使用状況を監視する: プロビジョニングされたスループットを使用する場合は、プロビジョニング管理された使用状況を監視して、購入したプロビジョニングされたスループットが十分に活用されていないことを確認します。</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>プロビジョニング管理された使用率を継続的にモニタリングすることで、プロビジョニングされたスループットが十分に活用されていないかどうかを理解するために必要な情報が得られます。</t>
+        </is>
+      </c>
       <c r="F586" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15775,17 +15735,21 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
+          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="C587" t="inlineStr">
         <is>
-          <t>復旧: 微調整されたモデルと Azure OpenAI にアップロードされたトレーニング データの復旧計画を含む復旧戦略を定義します。Azure OpenAI には自動フェールオーバーがないため、サービス全体とすべての依存関係 (トレーニング データを含むストレージなど) を網羅する戦略を設計する必要があります。</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
+          <t>コスト管理: OpenAI のコスト管理機能を使用して、コストを監視し、コストを管理するための予算を設定し、リスクや異常を利害関係者に通知するアラートを作成します。</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>コストの監視、予算の設定、アラートの設定により、ガバナンスに適切な説明責任プロセスが提供されます。</t>
+        </is>
+      </c>
       <c r="F587" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15793,21 +15757,17 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
+          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>従量課金制のレート制限を監視する: 従量課金制のアプローチを使用している場合は、モデル デプロイのレート制限を管理し、1 分あたりのトークン (TPM) と 1 分あたりの要求 (RPM) の使用状況を監視します。</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>この重要なスループット情報は、デプロイの需要を満たすためにクォータから十分な TPM を割り当てるために必要な情報を提供します。十分なクォータを割り当てると、デプロイされたモデルへの呼び出しの調整が防止されます。</t>
-        </is>
-      </c>
+          <t>Azure DevOps カルチャ: 開発、テスト、運用など、さまざまな環境に Azure OpenAI インスタンスを確実にデプロイします。開発サイクル全体を通じて継続的な学習と実験をサポートする環境があることを確認します。</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr"/>
       <c r="F588" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15815,21 +15775,17 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
+          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="C589" t="inlineStr">
         <is>
-          <t>プロビジョニングされたスループットのプロビジョニング管理された使用率をモニタリングする: プロビジョニングされたスループット支払いモデルを使用している場合は、プロビジョニング管理された使用状況をモニタリングします。</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>プロビジョニング管理された使用率を監視して 100% を超えないようにし、デプロイされたモデルへの呼び出しの調整を防ぐことが重要です。</t>
-        </is>
-      </c>
+          <t>可観測性: 適切なメトリックを監視、集計、視覚化します。</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15837,21 +15793,17 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
+          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="C590" t="inlineStr">
         <is>
-          <t>コンテンツ フィルターの調整: コンテンツ フィルターを調整して、過度に攻撃的なフィルターによる誤検知を最小限に抑えます。</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>コンテンツ フィルターは、不透明なリスク分析に基づいてプロンプトまたは完了をブロックします。コンテンツフィルターが、ワークロードで予想される使用量を許容するように調整されていることを確認します。</t>
-        </is>
-      </c>
+          <t>監視: Azure OpenAI 診断がニーズに不十分な場合は、Azure OpenAI の前で Azure API Management などのゲートウェイを使用して、受信プロンプトと送信応答の両方をログに記録することを検討してください (許可されている場合)。この情報は、受信プロンプトに対するモデルの有効性を理解するのに役立ちます。</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr"/>
       <c r="F590" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15859,14 +15811,14 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
+          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="C591" t="inlineStr">
         <is>
-          <t>機密性を保護する: トレーニング データを Azure OpenAI にアップロードする場合は、データ暗号化にカスタマー マネージド キーを使用し、キーローテーション戦略を実装し、トレーニング、検証、トレーニング結果データを削除します。トレーニング データに外部データ ストアを使用する場合は、そのストアのセキュリティに関するベスト プラクティスに従ってください。たとえば、Azure Blob Storage の場合は、暗号化にカスタマー マネージド キーを使用し、キーのローテーション戦略を実装します。マネージド ID ベースのアクセスを使用し、プライベート エンドポイントを使用してネットワーク境界を実装し、アクセス ログを有効にします。</t>
+          <t>自信を持ってデプロイする: コードとしてのインフラストラクチャ (IaC) を使用して、Azure OpenAI、モデル デプロイ、およびモデルの微調整に必要なその他のインフラストラクチャをデプロイします。</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
@@ -15877,14 +15829,14 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
+          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="C592" t="inlineStr">
         <is>
-          <t>機密性を保護する: Azure OpenAI リソースがアクセスできる送信 URL を制限することで、データ流出から保護します。</t>
+          <t>自信を持ってデプロイする: 大規模言語モデル操作 (LLMOps) のプラクティスに従って、デプロイ、微調整、プロンプト エンジニアリングなど、Azure OpenAI LLM の管理を運用化します。</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -15895,14 +15847,14 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
+          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="C593" t="inlineStr">
         <is>
-          <t>整合性の保護: システムへのユーザー アクセスを認証および承認するためのアクセス制御を実装するには、最小特権の原則を使用し、キーの代わりに個々の ID を使用します。</t>
+          <t>効率化のための自動化: キーベースの認証を使用する場合は、自動キーローテーション戦略を実装します。</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
@@ -15913,17 +15865,21 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
+          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="C594" t="inlineStr">
         <is>
-          <t>整合性の保護: ジェイルブレイク リスク検出を実装して、言語モデルのデプロイをプロンプト インジェクション攻撃から保護します。</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr"/>
+          <t>Azure 診断を有効にして構成する: Azure OpenAI Service の診断を有効にして構成します。</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>診断では、メトリックとログが収集および分析され、Azure OpenAI の可用性、パフォーマンス、操作の監視に役立ちます。</t>
+        </is>
+      </c>
       <c r="F594" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15931,14 +15887,14 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
+          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>可用性の保護: セキュリティ制御を使用して、モデルの使用クォータを使い果たす可能性のある攻撃を防ぎます。ネットワーク上のサービスを分離するようにコントロールを構成できます。インターネットからサービスにアクセスできる必要がある場合は、ゲートウェイを使用して、ルーティングまたは調整を使用して不正使用の疑いをブロックすることを検討してください。</t>
+          <t>容量:消費者の弾力性の要求を推定します。同期応答を必要とする優先度の高いトラフィックと、非同期およびバッチ処理が可能な優先度の低いトラフィックを特定します。</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -15949,21 +15905,17 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
+          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="C596" t="inlineStr">
         <is>
-          <t>セキュリティで保護されたキー: アーキテクチャで Azure OpenAI キーベースの認証が必要な場合は、それらのキーをアプリケーション コードではなく Azure Key Vault に格納します。</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>シークレットを Key Vault に格納してコードから分離すると、シークレットが漏洩する可能性が低くなります。また、分離により、シークレットの一元管理が容易になり、キーのローテーションなどの責任が軽減されます。</t>
-        </is>
-      </c>
+          <t>容量:消費者からの推定需要に基づくトークン消費要件のベンチマーク。プロビジョニングされたスループット ユニット (PTU) デプロイを使用している場合は、Azure OpenAI ベンチマーク ツールを使用してスループットを検証することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15971,21 +15923,17 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
+          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="C597" t="inlineStr">
         <is>
-          <t>アクセスを制限する: ワークロードで必要とされない限り、Azure OpenAI へのパブリック アクセスを無効にします。Azure 仮想ネットワーク内のコンシューマーから接続する場合は、プライベート エンドポイントを作成します。</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>Azure OpenAI へのアクセスを制御すると、承認されていないユーザーからの攻撃を防ぐのに役立ちます。プライベートエンドポイントを使用すると、アプリケーションとプラットフォーム間のネットワークトラフィックのプライベートが保たれます。</t>
-        </is>
-      </c>
+          <t>容量: 運用ワークロードにプロビジョニングされたスループットを使用します。プロビジョニングされたスループットは、指定されたモデル バージョンに対して、専用のメモリとコンピューティング、予約容量、および一貫した最大レイテンシを提供します。従量課金制のオファリングは、レイテンシの増加や使用頻度の高い地域でのスロットリングなど、うるさい隣人の問題に悩まされる可能性があります。また、従量課金制のアプローチでは、容量が保証されていません。</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -15993,21 +15941,17 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
+          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID: Microsoft Entra ID を使用して、認証を行い、ロールベースのアクセス制御 (RBAC) を使用して Azure OpenAI へのアクセスを承認します。Azure AI Services でローカル認証を無効にし、'disableLocalAuth' を 'true' に設定します。入力候補または画像生成を実行する ID に Cognitive Services OpenAI ユーザー ロールを付与します。モデル自動化パイプラインとアドホック データ サイエンス アクセスに、Cognitive Services OpenAI Contributor のようなロールを付与します。</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>Microsoft Entra ID を使用すると、ID 管理コンポーネントが一元化され、API キーの使用がなくなります。RBAC を Microsoft Entra ID と共に使用すると、ユーザーまたはグループがジョブを実行するために必要なアクセス許可を正確に持つことができます。このようなきめ細かなアクセス制御は、Azure OpenAI API キーでは実現できません。</t>
-        </is>
-      </c>
+          <t>容量: Azure OpenAI デプロイの前に適切なゲートウェイを追加します。ゲートウェイが同じリージョンまたは異なるリージョンの複数のインスタンスにルーティングできることを確認します。</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr"/>
       <c r="F598" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16015,21 +15959,17 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
+          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="C599" t="inlineStr">
         <is>
-          <t>カスタマー マネージド キーを使用する: Azure OpenAI にアップロードされる微調整されたモデルとトレーニング データには、カスタマー マネージド キーを使用します。</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>カスタマー管理キーを使用すると、アクセス制御の作成、ローテーション、無効化、取り消しを柔軟に行うことができます。</t>
-        </is>
-      </c>
+          <t>容量: 予測される使用量をカバーするように PTU を割り当て、その制限を超える弾力性を処理するための TPM デプロイでこれらの PTU を補完します。このアプローチでは、基本スループットとエラスティック スループットを組み合わせて効率を高めます。他の考慮事項と同様に、このアプローチでは、PTU の制限に達したときに要求を TPM デプロイにルーティングするためのカスタム ゲートウェイ実装が必要です。</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr"/>
       <c r="F599" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16037,21 +15977,17 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
+          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="C600" t="inlineStr">
         <is>
-          <t>脱獄攻撃から保護する: Azure AI Content Safety Studio を使用して、脱獄のリスクを検出します。</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>脱獄の試みを検出して、Azure OpenAI デプロイの安全メカニズムを回避しようとするプロンプトを特定してブロックします。</t>
-        </is>
-      </c>
+          <t>容量: 優先度の高い要求を同期的に送信します。優先度の低いリクエストをキューに入れ、需要が少ないときにバッチで送信します。</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr"/>
       <c r="F600" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16059,14 +15995,14 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
+          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>コスト管理: プロンプトのサイズを考慮して、コストモデルを開発します。プロンプトの入力と応答のサイズ、およびテキストがトークンにどのように変換されるかを理解することは、実行可能なコストモデルを作成するのに役立ちます。</t>
+          <t>容量: 速度と出力の複雑さのトレードオフを考慮して、パフォーマンス要件に合ったモデルを選択してください。モデルのパフォーマンスは、選択したモデルタイプによって大きく異なります。スピードを重視して設計されたモデルは、応答時間が短縮されるため、迅速な操作が必要なアプリケーションに役立ちます。逆に、より洗練されたモデルでは、応答時間が長くなる代わりに、より高品質の出力が得られる可能性があります。</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -16077,14 +16013,14 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
+          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="C602" t="inlineStr">
         <is>
-          <t>使用量の最適化: トークンの使用量が予測可能になるまで、Azure OpenAI の従量課金制の価格から始めます。</t>
+          <t>パフォーマンスの達成: チャットボットや会話型インターフェイスなどのアプリケーションの場合は、ストリーミングの実装を検討してください。ストリーミングは、ユーザーに段階的に応答を提供することで、Azure OpenAI アプリケーションの体感的なパフォーマンスを向上させ、ユーザー エクスペリエンスを向上させることができます。</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
@@ -16095,14 +16031,14 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
+          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="C603" t="inlineStr">
         <is>
-          <t>レートの最適化: トークンの使用量が十分に高く、一定期間にわたって予測可能な場合は、プロビジョニングされたスループット価格モデルを使用して、コストの最適化を改善します。</t>
+          <t>パフォーマンスの達成: 微調整を行う前に、いつ微調整を使用するかを決定します。モデルのステアリングに必要な情報が長すぎたり複雑すぎてプロンプトに収まらない場合など、微調整には良いユースケースがありますが、プロンプトエンジニアリングと検索拡張生成(RAG)のアプローチが機能しないか、明らかにコストが高いことを確認してください。</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
@@ -16113,14 +16049,14 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
+          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>使用量の最適化: モデルを選択するときは、モデルの価格と機能を考慮してください。テキスト生成や完了タスクなどの複雑でないタスクのために、低コストのモデルから始めます。言語翻訳やコンテンツの理解など、より複雑なタスクの場合は、より高度なモデルの使用を検討してください。テキストの埋め込み、画像の生成、文字起こしのシナリオなどのユースケースに適したモデルを選択するときは、さまざまなモデル機能とトークンの最大使用制限を考慮してください。お客様のニーズに最適なモデルを慎重に選択することで、コストを最適化しながら、必要なアプリケーション性能を達成することができます。</t>
+          <t>パフォーマンスを実現する: コンシューマー グループごとに専用のモデル デプロイを使用して、コンシューマー グループ間のうるさい隣人を防ぐのに役立つモデルごとの使用分離を提供することを検討してください。</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -16131,14 +16067,14 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
+          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="C605" t="inlineStr">
         <is>
-          <t>使用の最適化: API 呼び出しによって提供されるトークン制限制約 (生成する完了の数を示す 'max_tokens' や 'n' など) を使用します。</t>
+          <t>設計上の制限が生じる可能性がある Virtual Machines のクォータと制限を確認します。VM には特定の制限とクォータがあり、VM の種類またはリージョンによって異なります。サブスクリプションあたりの VM の数や VM あたりのコア数など、サブスクリプションの制限がある場合があります。他のワークロードがサブスクリプションを共有している場合、データを使用する能力が低下する可能性があります。</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
@@ -16149,14 +16085,14 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
+          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>使用の最適化: Azure OpenAI の価格ブレークポイントを最大化します (たとえば、画像生成などのブレークポイントの微調整やモデル化など)。微調整は時間単位で課金されるため、1時間あたりに利用できる時間を最大限に活用して、次の請求期間にずれ込むことなく微調整の結果を改善します。同様に、100 枚の画像を生成するためのコストは、1 つの画像に対するコストと同じです。価格のブレークポイントを最大化して有利にします。</t>
+          <t>障害モード分析を実施して、VM とネットワークおよびストレージ コンポーネントとの相互作用を分析することにより、障害点を最小限に抑えます。エフェメラル オペレーティング システム (OS) ディスクなどの構成を選択して、ディスク アクセスをローカライズし、ネットワーク ホップを回避します。ロード バランサーを追加すると、ネットワーク トラフィックを複数の VM に分散して自己保存を強化し、可用性と信頼性が向上します。</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
@@ -16167,14 +16103,14 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
+          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="C607" t="inlineStr">
         <is>
-          <t>使用量の最適化: 未使用の微調整されたモデルは、継続的なホスティング料金が発生しないように、消費されなくなったら削除します。</t>
+          <t>Azure のサービス レベル アグリーメント (SLA) に基づいて、複合的なサービス レベル目標 (SLO) を計算します。非現実的な期待や潜在的な問題を回避するために、SLO が Azure SLA を超えていないことを確認します。</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
@@ -16185,14 +16121,14 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
+          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="C608" t="inlineStr">
         <is>
-          <t>使用状況の調整: プロンプトの入力と応答の長さを最適化します。プロンプトが長いほど、より多くのトークンを消費するため、コストが増加します。ただし、十分なコンテキストが欠落しているプロンプトは、モデルが適切な結果を生み出すのに役立ちません。モデルが有用な応答を生成するのに十分なコンテキストを提供する簡潔なプロンプトを作成します。また、応答長の制限を最適化してください。</t>
+          <t>状態の分離を作成します。ワークロード データは、OS ディスクとの干渉を防ぐために、別のデータ ディスクに配置する必要があります。VM に障害が発生した場合は、同じデータ ディスクを使用して新しい OS ディスクを作成できるため、回復性と障害の分離が保証されます。詳細については、「エフェメラル OS ディスク」を参照してください。</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
@@ -16203,14 +16139,14 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
+          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="C609" t="inlineStr">
         <is>
-          <t>コスト効率: 可能な限りリクエストをバッチ処理して、呼び出しごとのオーバーヘッドを最小限に抑え、全体的なコストを削減できます。バッチ サイズを最適化してください。</t>
+          <t>VM とその依存関係をゾーン間で冗長化します。VM に障害が発生した場合でも、冗長性のためにワークロードは引き続き機能する必要があります。冗長性の選択肢に依存関係を含めます。たとえば、ディスクで使用できる組み込みの冗長性オプションを使用します。ゾーン冗長 IP を使用して、データの可用性と高いアップタイムを確保します。</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
@@ -16221,14 +16157,14 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
+          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>コスト効率: モデルには異なる微調整コストがあるため、ソリューションで微調整が必要な場合は、これらのコストを考慮してください。</t>
+          <t>スケールアップとスケールアウトを準備して、サービスレベルの低下を防ぎ、障害を回避します。Virtual Machine Scale Sets には、必要に応じて新しいインスタンスを作成し、複数の VM と可用性ゾーンに負荷を分散する自動スケール機能があります。</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
@@ -16239,14 +16175,14 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
+          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="C611" t="inlineStr">
         <is>
-          <t>監視と最適化: モデルの使用状況を監視するコスト追跡システムを設定します。その情報を使用して、モデルの選択とプロンプトのサイズを通知します。</t>
+          <t>自動回復オプションを確認します。Azure では、VM の正常性低下の監視と自己修復機能がサポートされています。たとえば、スケール セットでは、インスタンスの自動修復が提供されます。より高度なシナリオでは、自己修復には、Azure Site Recovery の使用、フェールオーバー先のパッシブ スタンバイの使用、またはコードとしてのインフラストラクチャ (IaC) からの再デプロイが含まれます。選択する方法は、ビジネス要件と組織の運用に一致させる必要があります。詳細については、「VM サービスの中断」を参照してください。</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
@@ -16257,21 +16193,17 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
+          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="C612" t="inlineStr">
         <is>
-          <t>制限を設定するクライアント コードを設計する: カスタム クライアントでは、モデルあたりのトークン数の上限 ('max_tokens') や生成までの完了数 ('n') など、Azure OpenAI 入力候補 API の制限機能を使用する必要があります。制限を設定すると、サーバーが必要以上に生成されなくなります。</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>API 機能を使用して使用を制限すると、サービスの使用がクライアントのニーズに合わせて調整されます。これにより、モデルが必要以上にトークンを消費する過度に長い応答を生成しないようにすることで、コストを節約できます。</t>
-        </is>
-      </c>
+          <t>VM とその依存関係のサイズを適切に設定します。VM の予想される作業を理解して、サイズが小さすぎず、最大負荷を処理できることを確認します。障害を軽減するための追加の容量があります。</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16279,21 +16211,17 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>afb53b41-825a-4310-b445-bf391792c568</t>
+          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>従量課金制の使用状況を監視する: 従量課金制のアプローチを使用する場合は、TPM と RPM の使用状況を監視します。その情報を使用して、使用するモデルなどのアーキテクチャ設計の決定を通知し、プロンプト サイズを最適化します。</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>TPM と RPM を継続的に監視することで、Azure OpenAI モデルのコストを最適化するための関連メトリックが得られます。この監視をモデルの特徴およびモデルの価格設定と組み合わせて、モデルの使用を最適化できます。このモニタリングを使用して、プロンプトのサイズを最適化することもできます。</t>
-        </is>
-      </c>
+          <t>包括的なディザスタリカバリ計画を作成します。災害への備えとは、総合的な計画を立て、復旧のための技術を決定することです。</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr"/>
       <c r="F613" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16301,21 +16229,17 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
+          <t>cbe651de-8754-4078-8066-803f94814634</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>プロビジョニングされたスループットの使用状況を監視する: プロビジョニングされたスループットを使用する場合は、プロビジョニング管理された使用状況を監視して、購入したプロビジョニングされたスループットが十分に活用されていないことを確認します。</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>プロビジョニング管理された使用率を継続的にモニタリングすることで、プロビジョニングされたスループットが十分に活用されていないかどうかを理解するために必要な情報が得られます。</t>
-        </is>
-      </c>
+          <t>厳密に操作を実行します。信頼性設計の選択は、監視の原則に基づく効果的な運用、本番環境でのレジリエンシー テスト、自動化されたアプリケーション VM のパッチとアップグレード、およびデプロイの一貫性によってサポートされる必要があります。運用上のガイダンスについては、「オペレーショナル エクセレンス」を参照してください。</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr"/>
       <c r="F614" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16323,19 +16247,19 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
+          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>コスト管理: OpenAI のコスト管理機能を使用して、コストを監視し、コストを管理するための予算を設定し、リスクや異常を利害関係者に通知するアラートを作成します。</t>
+          <t>(スケールセット)Virtual Machine Scale Sets をフレキシブル オーケストレーション モードにして VM をデプロイします。</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>コストの監視、予算の設定、アラートの設定により、ガバナンスに適切な説明責任プロセスが提供されます。</t>
+          <t>アプリケーションのスケーリングを将来にわたって保証し、リージョンまたは可用性ゾーン内の障害ドメインに VM を分散する高可用性保証を活用します。</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -16345,17 +16269,21 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
+          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="C616" t="inlineStr">
         <is>
-          <t>Azure DevOps カルチャ: 開発、テスト、運用など、さまざまな環境に Azure OpenAI インスタンスを確実にデプロイします。開発サイクル全体を通じて継続的な学習と実験をサポートする環境があることを確認します。</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr"/>
+          <t>(仮想マシン)VM でインスタンスの正常性状態を出力する正常性エンドポイントを実装します。 (スケールセット)スケール セットで自動修復を有効にするには、優先する修復アクションを指定します。 VM の状態が変化した場合に自動修復が一時停止する時間枠を設定することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>インスタンスが異常であると見なされた場合でも可用性を維持します。自動修復は、障害のあるインスタンスを置き換えることによって回復を開始します。時間枠を設定すると、不注意による修復操作や時期尚早な修復操作を防ぐことができます。</t>
+        </is>
+      </c>
       <c r="F616" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16363,17 +16291,21 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
+          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="C617" t="inlineStr">
         <is>
-          <t>可観測性: 適切なメトリックを監視、集計、視覚化します。</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
+          <t>(スケールセット)スケール セットでオーバープロビジョニングを有効にします。</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>オーバープロビジョニングにより、デプロイ時間が短縮され、追加の VM は課金されないため、コスト面でのメリットがあります。</t>
+        </is>
+      </c>
       <c r="F617" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16381,17 +16313,21 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
+          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>監視: Azure OpenAI 診断がニーズに不十分な場合は、Azure OpenAI の前で Azure API Management などのゲートウェイを使用して、受信プロンプトと送信応答の両方をログに記録することを検討してください (許可されている場合)。この情報は、受信プロンプトに対するモデルの有効性を理解するのに役立ちます。</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr"/>
+          <t>(スケールセット)フレキシブル オーケストレーションにより、VM インスタンスをできるだけ多くの障害ドメインに分散できます。</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>このオプションは、障害ドメインを分離します。メンテナンス期間中、1つのフォルト・ドメインが更新されると、VMインスタンスは他のフォルト・ドメインで使用できます。</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16399,17 +16335,21 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
+          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>自信を持ってデプロイする: コードとしてのインフラストラクチャ (IaC) を使用して、Azure OpenAI、モデル デプロイ、およびモデルの微調整に必要なその他のインフラストラクチャをデプロイします。</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr"/>
+          <t>(スケールセット)スケール セットの可用性ゾーン全体にデプロイします。各ゾーンに少なくとも 2 つのインスタンスを設定します。ゾーンバランシングは、インスタンスをゾーン間で均等に分散します。</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>VM インスタンスは、各 Azure リージョン内の物理的に分離された場所にプロビジョニングされ、ローカルの障害に対して耐性があります。 リソースの可用性によっては、ゾーン間でインスタンスの数が不均一になる場合があることに注意してください。ゾーン バランシングは、1 つのゾーンがダウンした場合に、他のゾーンに十分なインスタンスがあることを確認することで可用性をサポートします。 各ゾーンの 2 つのインスタンスは、アップグレード中にバッファーを提供します。</t>
+        </is>
+      </c>
       <c r="F619" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16417,17 +16357,21 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
+          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="C620" t="inlineStr">
         <is>
-          <t>自信を持ってデプロイする: 大規模言語モデル操作 (LLMOps) のプラクティスに従って、デプロイ、微調整、プロンプト エンジニアリングなど、Azure OpenAI LLM の管理を運用化します。</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr"/>
+          <t>(仮想マシン)キャパシティーの予約機能を活用してください。</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>容量はお客様専用に予約されており、適用される SLA の範囲内で利用できます。キャパシティーの予約は不要になったときに削除でき、請求は使用量ベースです。</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16435,14 +16379,14 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
+          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="C621" t="inlineStr">
         <is>
-          <t>効率化のための自動化: キーベースの認証を使用する場合は、自動キーローテーション戦略を実装します。</t>
+          <t>Linux と Windows の VM と Virtual Machine Scale Sets のセキュリティ ベースラインを確認します。</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
@@ -16453,21 +16397,17 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
+          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="C622" t="inlineStr">
         <is>
-          <t>Azure 診断を有効にして構成する: Azure OpenAI Service の診断を有効にして構成します。</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>診断では、メトリックとログが収集および分析され、Azure OpenAI の可用性、パフォーマンス、操作の監視に役立ちます。</t>
-        </is>
-      </c>
+          <t>タイムリーで自動化されたセキュリティパッチ適用とアップグレードを確保します。更新プログラムが自動的にロールアウトされ、明確に定義されたプロセスを使用して検証されることを確認します。Azure Automation などのソリューションを使用して、OS の更新を管理し、重要な更新を行うことでセキュリティ コンプライアンスを維持します。</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16475,14 +16415,14 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
+          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="C623" t="inlineStr">
         <is>
-          <t>容量:消費者の弾力性の要求を推定します。同期応答を必要とする優先度の高いトラフィックと、非同期およびバッチ処理が可能な優先度の低いトラフィックを特定します。</t>
+          <t>状態を保持している VM を特定します。データが組織から提供された秘密度ラベルに従って分類されていることを確認します。適切なレベルの保存および転送中の暗号化などのセキュリティ制御を使用してデータを保護します。高い感度要件がある場合は、二重暗号化や Azure コンフィデンシャル コンピューティングなどの高セキュリティ制御を使用して、使用中のデータを保護することを検討してください。</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
@@ -16493,14 +16433,14 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
+          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="C624" t="inlineStr">
         <is>
-          <t>容量:消費者からの推定需要に基づくトークン消費要件のベンチマーク。プロビジョニングされたスループット ユニット (PTU) デプロイを使用している場合は、Azure OpenAI ベンチマーク ツールを使用してスループットを検証することを検討してください。</t>
+          <t>ネットワーク境界とアクセス制御を設定することで、VM とスケール セットにセグメント化を提供します。VM は、同じライフサイクルを共有するリソース グループに配置します。</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
@@ -16511,14 +16451,14 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
+          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="C625" t="inlineStr">
         <is>
-          <t>容量: 運用ワークロードにプロビジョニングされたスループットを使用します。プロビジョニングされたスループットは、指定されたモデル バージョンに対して、専用のメモリとコンピューティング、予約容量、および一貫した最大レイテンシを提供します。従量課金制のオファリングは、レイテンシの増加や使用頻度の高い地域でのスロットリングなど、うるさい隣人の問題に悩まされる可能性があります。また、従量課金制のアプローチでは、容量が保証されていません。</t>
+          <t>VM にアクセスしようとする ID と、他のリソースに到達する VM にアクセス制御を適用します。認証と承認のニーズには、Microsoft Entra ID を使用します。強力なパスワード、多要素認証、ロールベースのアクセス制御 (RBAC) を VM とその依存関係 (シークレットなど) に設定して、許可された ID がロールに期待される操作のみを実行できるようにします。</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
@@ -16529,14 +16469,14 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
+          <t>becd6031-a256-4186-995e-75817fc7783c</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="C626" t="inlineStr">
         <is>
-          <t>容量: Azure OpenAI デプロイの前に適切なゲートウェイを追加します。ゲートウェイが同じリージョンまたは異なるリージョンの複数のインスタンスにルーティングできることを確認します。</t>
+          <t>ネットワーク制御を使用して、イングレス トラフィックとエグレス トラフィックを制限します。Azure Virtual Network で VM とスケール セットを分離し、トラフィックをフィルター処理するネットワーク セキュリティ グループを定義します。分散型サービス拒否(DDoS)攻撃から保護します。ロードバランサーとファイアウォールルールを使用して、悪意のあるトラフィックやデータ流出攻撃から保護します。</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
@@ -16547,14 +16487,14 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
+          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="C627" t="inlineStr">
         <is>
-          <t>容量: 予測される使用量をカバーするように PTU を割り当て、その制限を超える弾力性を処理するための TPM デプロイでこれらの PTU を補完します。このアプローチでは、基本スループットとエラスティック スループットを組み合わせて効率を高めます。他の考慮事項と同様に、このアプローチでは、PTU の制限に達したときに要求を TPM デプロイにルーティングするためのカスタム ゲートウェイ実装が必要です。</t>
+          <t>OSイメージを強化し、未使用のコンポーネントを削除することで、攻撃対象領域を縮小します。小さいイメージを使用し、ワークロードの実行に必要のないバイナリを削除します。VM の構成を強化するには、既定のアカウントやポートなど、不要な機能を削除します。</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
@@ -16565,14 +16505,14 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
+          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="C628" t="inlineStr">
         <is>
-          <t>容量: 優先度の高い要求を同期的に送信します。優先度の低いリクエストをキューに入れ、需要が少ないときにバッチで送信します。</t>
+          <t>転送中のデータを保護するために必要な証明書などのシークレットを保護します。キー コンテナーに格納されている証明書を自動的に更新する Windows または Linux 用の Azure Key Vault 拡張機能の使用を検討してください。証明書の変更を検出すると、拡張機能は対応する証明書を取得してインストールします。</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
@@ -16583,14 +16523,14 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
+          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>容量: 速度と出力の複雑さのトレードオフを考慮して、パフォーマンス要件に合ったモデルを選択してください。モデルのパフォーマンスは、選択したモデルタイプによって大きく異なります。スピードを重視して設計されたモデルは、応答時間が短縮されるため、迅速な操作が必要なアプリケーションに役立ちます。逆に、より洗練されたモデルでは、応答時間が長くなる代わりに、より高品質の出力が得られる可能性があります。</t>
+          <t>脅威の検出。VM の脅威と設定ミスを監視します。Defender for Servers を使用して、VM と OS の変更をキャプチャし、アクセス、新しいアカウント、アクセス許可の変更の監査証跡を維持します。</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
@@ -16601,14 +16541,14 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
+          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>パフォーマンスの達成: チャットボットや会話型インターフェイスなどのアプリケーションの場合は、ストリーミングの実装を検討してください。ストリーミングは、ユーザーに段階的に応答を提供することで、Azure OpenAI アプリケーションの体感的なパフォーマンスを向上させ、ユーザー エクスペリエンスを向上させることができます。</t>
+          <t>脅威の防止。ファイアウォール、ウイルス対策ソフトウェア、侵入検知システムなどのセキュリティ制御を実装することで、マルウェアの攻撃や悪意のある攻撃者から保護します。Trusted Execution Environment(TEE)が必要かどうかを判断します。</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
@@ -16619,17 +16559,21 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
+          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>パフォーマンスの達成: 微調整を行う前に、いつ微調整を使用するかを決定します。モデルのステアリングに必要な情報が長すぎたり複雑すぎてプロンプトに収まらない場合など、微調整には良いユースケースがありますが、プロンプトエンジニアリングと検索拡張生成(RAG)のアプローチが機能しないか、明らかにコストが高いことを確認してください。</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr"/>
+          <t>(スケールセット)マネージド ID をスケール セットに割り当てます。スケール セット内のすべての VM は、指定された VM プロファイルを通じて同じ ID を取得します。 (仮想マシン)また、個々の VM を作成するときにマネージド ID を割り当て、必要に応じてスケール セットに追加することもできます。</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>VM が他のリソースと通信する場合、VM は信頼境界を越えます。スケール セットと VM は、通信を許可する前に ID を認証する必要があります。Microsoft Entra ID は、マネージド ID を使用してその認証を処理します。</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16637,17 +16581,21 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
+          <t>21e2209a-6217-464b-9886-1914124b0721</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="C632" t="inlineStr">
         <is>
-          <t>パフォーマンスを実現する: コンシューマー グループごとに専用のモデル デプロイを使用して、コンシューマー グループ間のうるさい隣人を防ぐのに役立つモデルごとの使用分離を提供することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr"/>
+          <t>(スケールセット)セキュリティ機能を備えた VM SKU を選択します。たとえば、一部の SKU では BitLocker 暗号化がサポートされており、コンフィデンシャル コンピューティングでは使用中のデータの暗号化が提供されます。 機能を確認して、制限事項を理解してください。</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Azure が提供する機能は、多くのテナント間でキャプチャされるシグナルに基づいており、カスタム コントロールよりもリソースをより適切に保護できます。ポリシーを使用して、これらの制御を適用することもできます。</t>
+        </is>
+      </c>
       <c r="F632" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16655,17 +16603,21 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
+          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="C633" t="inlineStr">
         <is>
-          <t>設計上の制限が生じる可能性がある Virtual Machines のクォータと制限を確認します。VM には特定の制限とクォータがあり、VM の種類またはリージョンによって異なります。サブスクリプションあたりの VM の数や VM あたりのコア数など、サブスクリプションの制限がある場合があります。他のワークロードがサブスクリプションを共有している場合、データを使用する能力が低下する可能性があります。</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr"/>
+          <t>(VM、スケール セット)プロビジョニングされたリソースに組織が推奨するタグを適用します。</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>タグ付けは、リソースをセグメント化して整理する一般的な方法であり、インシデント管理中に重要になる場合があります。詳細については、「名前付けとタグ付けの目的」を参照してください。</t>
+        </is>
+      </c>
       <c r="F633" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16673,17 +16625,21 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
+          <t>944802d9-671c-479f-b973-fd6111a18486</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="C634" t="inlineStr">
         <is>
-          <t>障害モード分析を実施して、VM とネットワークおよびストレージ コンポーネントとの相互作用を分析することにより、障害点を最小限に抑えます。エフェメラル オペレーティング システム (OS) ディスクなどの構成を選択して、ディスク アクセスをローカライズし、ネットワーク ホップを回避します。ロード バランサーを追加すると、ネットワーク トラフィックを複数の VM に分散して自己保存を強化し、可用性と信頼性が向上します。</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr"/>
+          <t>(VM、スケール セット)VM 構成で有効にするセキュリティ機能を使用して、セキュリティ プロファイルを設定します。 たとえば、プロファイルでホストでの暗号化を指定すると、VM ホストに格納されているデータは保存時に暗号化され、フローはストレージ サービスに暗号化されます。</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>セキュリティ プロファイルの機能は、VM の作成時に自動的に有効になります。 詳細については、「Virtual Machine Scale Sets の Azure セキュリティ ベースライン」を参照してください。</t>
+        </is>
+      </c>
       <c r="F634" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16691,17 +16647,21 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
+          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Azure のサービス レベル アグリーメント (SLA) に基づいて、複合的なサービス レベル目標 (SLO) を計算します。非現実的な期待や潜在的な問題を回避するために、SLO が Azure SLA を超えていないことを確認します。</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr"/>
+          <t>(仮想マシン)VM のネットワーク プロファイルのセキュリティで保護されたネットワーク オプションを選択します。 パブリック IP アドレスを VM に直接関連付けたり、IP 転送を有効にしたりしないでください。 すべての仮想ネットワーク インターフェイスにネットワーク セキュリティ グループが関連付けられていることを確認します。</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>セグメンテーション制御は、ネットワーキングプロファイルで設定できます。 攻撃者はパブリック IP アドレスをスキャンするため、VM は脅威に対して脆弱になります。</t>
+        </is>
+      </c>
       <c r="F635" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16709,17 +16669,21 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
+          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="C636" t="inlineStr">
         <is>
-          <t>状態の分離を作成します。ワークロード データは、OS ディスクとの干渉を防ぐために、別のデータ ディスクに配置する必要があります。VM に障害が発生した場合は、同じデータ ディスクを使用して新しい OS ディスクを作成できるため、回復性と障害の分離が保証されます。詳細については、「エフェメラル OS ディスク」を参照してください。</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr"/>
+          <t>(仮想マシン)VM のストレージ プロファイルの安全なストレージ オプションを選択します。 ディスクの暗号化と保存データの暗号化をデフォルトで有効にします。VM ディスクへのパブリック ネットワーク アクセスを無効にします。</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>パブリックネットワークアクセスを無効にすると、データやリソースへの不正アクセスを防ぐことができます。</t>
+        </is>
+      </c>
       <c r="F636" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16727,17 +16691,21 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
+          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="C637" t="inlineStr">
         <is>
-          <t>VM とその依存関係をゾーン間で冗長化します。VM に障害が発生した場合でも、冗長性のためにワークロードは引き続き機能する必要があります。冗長性の選択肢に依存関係を含めます。たとえば、ディスクで使用できる組み込みの冗長性オプションを使用します。ゾーン冗長 IP を使用して、データの可用性と高いアップタイムを確保します。</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr"/>
+          <t>(VM、スケール セット)脅威から保護する拡張機能を VM に含めます。 たとえば、Windows と Linux 用の Key Vault 拡張機能 - Microsoft Entra ID 認証 - Azure Cloud Services と Virtual Machines 用の Microsoft マルウェア対策 - Windows と Linux 用の Azure Disk Encryption 拡張機能です。</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>拡張機能は、VM へのアクセスと VM からのアクセスを保護する適切なソフトウェアを使用して VM をブートストラップするために使用されます。 Microsoft が提供する拡張機能は、進化するセキュリティ標準に対応するために頻繁に更新されます。</t>
+        </is>
+      </c>
       <c r="F637" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16745,14 +16713,14 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
+          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>スケールアップとスケールアウトを準備して、サービスレベルの低下を防ぎ、障害を回避します。Virtual Machine Scale Sets には、必要に応じて新しいインスタンスを作成し、複数の VM と可用性ゾーンに負荷を分散する自動スケール機能があります。</t>
+          <t>現実的なコストを見積もります。料金計算ツールを使用して、VM のコストを見積もります。VM セレクターを使用して、ワークロードに最適な VM を特定します。詳細については、「Linux と Windows の価格」を参照してください。</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
@@ -16763,14 +16731,14 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
+          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="C639" t="inlineStr">
         <is>
-          <t>自動回復オプションを確認します。Azure では、VM の正常性低下の監視と自己修復機能がサポートされています。たとえば、スケール セットでは、インスタンスの自動修復が提供されます。より高度なシナリオでは、自己修復には、Azure Site Recovery の使用、フェールオーバー先のパッシブ スタンバイの使用、またはコードとしてのインフラストラクチャ (IaC) からの再デプロイが含まれます。選択する方法は、ビジネス要件と組織の運用に一致させる必要があります。詳細については、「VM サービスの中断」を参照してください。</t>
+          <t>コストガードレールを実装します。ガバナンスポリシーを使用して、リソースのタイプ、構成、および場所を制限します。RBAC を使用して、過剰支出につながる可能性のあるアクションをブロックします。</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
@@ -16781,14 +16749,14 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
+          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="C640" t="inlineStr">
         <is>
-          <t>VM とその依存関係のサイズを適切に設定します。VM の予想される作業を理解して、サイズが小さすぎず、最大負荷を処理できることを確認します。障害を軽減するための追加の容量があります。</t>
+          <t>適切なリソースを選択してください。VM プランのサイズと SKU の選択は、全体的なコストに直接影響します。ワークロードの特性に基づいて VM を選択します。ワークロードはCPUに負荷がかかりますか、それとも割り込み可能なプロセスが実行されていますか?各 SKU には、全体的なコストに影響を与えるディスク オプションが関連付けられています。</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
@@ -16799,14 +16767,14 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
+          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="C641" t="inlineStr">
         <is>
-          <t>包括的なディザスタリカバリ計画を作成します。災害への備えとは、総合的な計画を立て、復旧のための技術を決定することです。</t>
+          <t>依存リソースに適した機能を選択します。コンテナー Standard レベルのバックアップ ストレージのコストを節約するには、予約容量のある Azure Backup ストレージを使用します。1年または3年の予約を確定すると割引が適用されます。</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
@@ -16817,14 +16785,14 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>cbe651de-8754-4078-8066-803f94814634</t>
+          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>厳密に操作を実行します。信頼性設計の選択は、監視の原則に基づく効果的な運用、本番環境でのレジリエンシー テスト、自動化されたアプリケーション VM のパッチとアップグレード、およびデプロイの一貫性によってサポートされる必要があります。運用上のガイダンスについては、「オペレーショナル エクセレンス」を参照してください。</t>
+          <t>適切な請求モデルを選択します。コンピューティングのコミットメントベースのモデルが、ワークロードのビジネス要件に基づいてコストを最適化するかどうかを評価します。次の Azure オプションを検討してください。</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
@@ -16835,21 +16803,17 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
+          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="C643" t="inlineStr">
         <is>
-          <t>(スケールセット)Virtual Machine Scale Sets をフレキシブル オーケストレーション モードにして VM をデプロイします。</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>アプリケーションのスケーリングを将来にわたって保証し、リージョンまたは可用性ゾーン内の障害ドメインに VM を分散する高可用性保証を活用します。</t>
-        </is>
-      </c>
+          <t>使用状況を監視します。使用パターンを継続的に監視し、未使用または使用率の低いVMを検出します。これらのインスタンスでは、使用されていない VM インスタンスをシャットダウンします。モニタリングは、オペレーショナルエクセレンスの主要なアプローチです。詳細については、「オペレーショナル エクセレンス」の推奨事項を参照してください。</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16857,21 +16821,17 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
+          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>(仮想マシン)VM でインスタンスの正常性状態を出力する正常性エンドポイントを実装します。 (スケールセット)スケール セットで自動修復を有効にするには、優先する修復アクションを指定します。 VM の状態が変化した場合に自動修復が一時停止する時間枠を設定することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>インスタンスが異常であると見なされた場合でも可用性を維持します。自動修復は、障害のあるインスタンスを置き換えることによって回復を開始します。時間枠を設定すると、不注意による修復操作や時期尚早な修復操作を防ぐことができます。</t>
-        </is>
-      </c>
+          <t>最適化する方法を探します。いくつかの戦略には、既存のシステムのリソースを増やすか、スケールアップしてそのシステムのインスタンスを追加するか、スケールアウトするかの間で、最もコスト効率の高いアプローチを選択することが含まれます。需要を他のリソースに分散して負荷を軽減することも、優先キュー、ゲートウェイ オフロード、バッファリング、およびレート制限を実装することで需要を減らすこともできます。詳細については、「パフォーマンス効率」の推奨事項を参照してください。</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16879,19 +16839,19 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
+          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="C645" t="inlineStr">
         <is>
-          <t>(スケールセット)スケール セットでオーバープロビジョニングを有効にします。</t>
+          <t>(VM、スケール セット)適切な VM プランのサイズと SKU を選択します。ワークロードに最適な VM サイズを特定します。 VM セレクターを使用して、ワークロードに最適な VM を特定します。「Windows と Linux の価格」を参照してください。 多少の中断を許容できる高並列バッチ処理ジョブなどのワークロードの場合は、Azure Spot Virtual Machines の使用を検討してください。スポット仮想マシンは、大規模なソリューションの実験、開発、テストに適しています。</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>オーバープロビジョニングにより、デプロイ時間が短縮され、追加の VM は課金されないため、コスト面でのメリットがあります。</t>
+          <t>SKU は、提供する機能に応じて価格が設定されます。高度な機能が必要ない場合は、SKU に過剰に費やさないでください。 スポット仮想マシンは、Azure の余剰容量を低コストで活用できます。</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -16901,19 +16861,19 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
+          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="C646" t="inlineStr">
         <is>
-          <t>(スケールセット)フレキシブル オーケストレーションにより、VM インスタンスをできるだけ多くの障害ドメインに分散できます。</t>
+          <t>(VM、スケール セット)VM の SKU に関連付けられているディスク オプションを評価します。 ストレージ容量のニーズを念頭に置き、変動するワークロードパターンを考慮しながら、パフォーマンスのニーズを決定します。 たとえば、Azure Premium SSD v2 ディスクを使用すると、ディスクのサイズに関係なく、パフォーマンスをきめ細かく調整できます。</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>このオプションは、障害ドメインを分離します。メンテナンス期間中、1つのフォルト・ドメインが更新されると、VMインスタンスは他のフォルト・ドメインで使用できます。</t>
+          <t>一部の高パフォーマンス ディスク タイプには、追加のコスト最適化機能と戦略が用意されています。 Premium SSD v2 ディスクの調整機能は、オーバープロビジョニングなしで高いパフォーマンスを提供するため、コストを削減できます。これにより、リソースが十分に活用されない可能性があります。</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -16923,19 +16883,19 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
+          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="C647" t="inlineStr">
         <is>
-          <t>(スケールセット)スケール セットの可用性ゾーン全体にデプロイします。各ゾーンに少なくとも 2 つのインスタンスを設定します。ゾーンバランシングは、インスタンスをゾーン間で均等に分散します。</t>
+          <t>(スケールセット)通常の VM とスポット仮想マシンを混在させます。 柔軟なオーケストレーションにより、指定した割合に基づいてスポット仮想マシンを分散できます。</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>VM インスタンスは、各 Azure リージョン内の物理的に分離された場所にプロビジョニングされ、ローカルの障害に対して耐性があります。 リソースの可用性によっては、ゾーン間でインスタンスの数が不均一になる場合があることに注意してください。ゾーン バランシングは、1 つのゾーンがダウンした場合に、他のゾーンに十分なインスタンスがあることを確認することで可用性をサポートします。 各ゾーンの 2 つのインスタンスは、アップグレード中にバッファーを提供します。</t>
+          <t>スポット仮想マシンの大幅な割引を適用することで、コンピューティング インフラストラクチャのコストを削減します。</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -16945,19 +16905,19 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
+          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>(仮想マシン)キャパシティーの予約機能を活用してください。</t>
+          <t>(スケールセット)需要が減少した場合は、VM インスタンスの数を減らします。条件に基づいてスケールインポリシーを設定します。  営業時間外に VM を停止します。Azure Automation の開始/停止機能を使用して、ビジネス ニーズに応じて構成できます。</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>容量はお客様専用に予約されており、適用される SLA の範囲内で利用できます。キャパシティーの予約は不要になったときに削除でき、請求は使用量ベースです。</t>
+          <t>使用されていないリソースをスケールインまたは停止すると、スケール セットで実行されている VM の数が減り、コストが節約されます。 スタート/ストップ機能は、低コストの自動化オプションです。</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -16967,17 +16927,21 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
+          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Linux と Windows の VM と Virtual Machine Scale Sets のセキュリティ ベースラインを確認します。</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr"/>
+          <t>(VM、スケール セット)Azure ハイブリッド特典を使用して、ライセンス モビリティを活用します。VM には、オンプレミスの Windows Server OS ライセンスを Azure に持ち込むことができるライセンス オプションがあります。 Azure ハイブリッド特典では、特定の Linux サブスクリプションを Azure に持ち込むこともできます。</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>オンプレミスのライセンスを最大限に活用しながら、クラウドのメリットを享受できます。</t>
+        </is>
+      </c>
       <c r="F649" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -16985,14 +16949,14 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
+          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>タイムリーで自動化されたセキュリティパッチ適用とアップグレードを確保します。更新プログラムが自動的にロールアウトされ、明確に定義されたプロセスを使用して検証されることを確認します。Azure Automation などのソリューションを使用して、OS の更新を管理し、重要な更新を行うことでセキュリティ コンプライアンスを維持します。</t>
+          <t>VM インスタンスを監視します。VMインスタンスからログとメトリックを収集して、リソースの使用状況を監視し、インスタンスの正常性を測定します。一般的なメトリクスには、CPU 使用率、リクエスト数、入出力 (I/O) レイテンシなどがあります。Azure Monitor アラートを設定して、問題に関する通知を受け取り、環境内の構成変更を検出します。</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -17003,14 +16967,14 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
+          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>状態を保持している VM を特定します。データが組織から提供された秘密度ラベルに従って分類されていることを確認します。適切なレベルの保存および転送中の暗号化などのセキュリティ制御を使用してデータを保護します。高い感度要件がある場合は、二重暗号化や Azure コンフィデンシャル コンピューティングなどの高セキュリティ制御を使用して、使用中のデータを保護することを検討してください。</t>
+          <t>VM とその依存関係の正常性を監視します。</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -17021,14 +16985,14 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
+          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>ネットワーク境界とアクセス制御を設定することで、VM とスケール セットにセグメント化を提供します。VM は、同じライフサイクルを共有するリソース グループに配置します。</t>
+          <t>日常的な運用の一部として定期的なシステムパッチ適用を含むメンテナンス計画を作成します。パッチをすぐに適用できる緊急プロセスを含めます。修正プログラムの適用を管理したり、タスクを Azure に部分的に委任したりするためのカスタム プロセスを持つことができます。</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -17039,14 +17003,14 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
+          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>VM にアクセスしようとする ID と、他のリソースに到達する VM にアクセス制御を適用します。認証と承認のニーズには、Microsoft Entra ID を使用します。強力なパスワード、多要素認証、ロールベースのアクセス制御 (RBAC) を VM とその依存関係 (シークレットなど) に設定して、許可された ID がロールに期待される操作のみを実行できるようにします。</t>
+          <t>ブートストラップ、スクリプトの実行、VMの構成のプロセスを自動化します。拡張機能またはカスタムスクリプトを使用してプロセスを自動化できます。次のオプションをお勧めします。</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
@@ -17057,14 +17021,14 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>becd6031-a256-4186-995e-75817fc7783c</t>
+          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>ネットワーク制御を使用して、イングレス トラフィックとエグレス トラフィックを制限します。Azure Virtual Network で VM とスケール セットを分離し、トラフィックをフィルター処理するネットワーク セキュリティ グループを定義します。分散型サービス拒否(DDoS)攻撃から保護します。ロードバランサーとファイアウォールルールを使用して、悪意のあるトラフィックやデータ流出攻撃から保護します。</t>
+          <t>自動更新をインストールするためのプロセスを用意します。重要なパッチとセキュリティパッチをタイムリーにロールアウトするために、VM ゲストの自動パッチ適用の使用を検討してください。Azure Update Manager を使用して、Azure の Windows および Linux 仮想マシンの OS 更新プログラムを管理します。</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
@@ -17075,14 +17039,14 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
+          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="C655" t="inlineStr">
         <is>
-          <t>OSイメージを強化し、未使用のコンポーネントを削除することで、攻撃対象領域を縮小します。小さいイメージを使用し、ワークロードの実行に必要のないバイナリを削除します。VM の構成を強化するには、既定のアカウントやポートなど、不要な機能を削除します。</t>
+          <t>運用環境に密接に一致するテスト環境を構築して、更新と変更を運用環境にデプロイする前にテストします。セキュリティ更新プログラム、パフォーマンス ベースライン、および信頼性障害をテストするためのプロセスを用意します。Azure Chaos Studio の障害ライブラリを利用して、エラー状態を挿入し、シミュレートします。詳細については、「Azure Chaos Studio の障害とアクション ライブラリ」を参照してください。</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
@@ -17093,14 +17057,14 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
+          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="C656" t="inlineStr">
         <is>
-          <t>転送中のデータを保護するために必要な証明書などのシークレットを保護します。キー コンテナーに格納されている証明書を自動的に更新する Windows または Linux 用の Azure Key Vault 拡張機能の使用を検討してください。証明書の変更を検出すると、拡張機能は対応する証明書を取得してインストールします。</t>
+          <t>クォータを管理します。ワークロードに必要なクォータのレベルを計画し、ワークロードの進化に合わせてそのレベルを定期的に見直します。クォータを増減する必要がある場合は、早めに変更をリクエストしてください。</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
@@ -17111,17 +17075,21 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
+          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>脅威の検出。VM の脅威と設定ミスを監視します。Defender for Servers を使用して、VM と OS の変更をキャプチャし、アクセス、新しいアカウント、アクセス許可の変更の監査証跡を維持します。</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr"/>
+          <t>(スケールセット)フレキシブル オーケストレーション モードの Virtual Machine Scale Sets は、ワークロードのデプロイと管理を簡略化するのに役立ちます。たとえば、自動修復を使用して自己修復を簡単に管理できます。</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>柔軟なオーケストレーションにより、VMインスタンスを大規模に管理できます。個々の VM を処理すると、運用上のオーバーヘッドが増加します。 たとえば、VM インスタンスを削除すると、関連付けられているディスクと NIC も自動的に削除されます。VM インスタンスは複数の障害ドメインに分散されるため、更新操作によってサービスが中断されることはありません。</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17129,17 +17097,21 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
+          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="C658" t="inlineStr">
         <is>
-          <t>脅威の防止。ファイアウォール、ウイルス対策ソフトウェア、侵入検知システムなどのセキュリティ制御を実装することで、マルウェアの攻撃や悪意のある攻撃者から保護します。Trusted Execution Environment(TEE)が必要かどうかを判断します。</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr"/>
+          <t>(スケールセット)アップグレード ポリシーを設定して、VM を最新の状態に保ちます。ローリングアップグレードをお勧めします。ただし、きめ細かな制御が必要な場合は、手動でアップグレードすることを選択します。 柔軟なオーケストレーションの場合は、Azure Update Manager を使用できます。</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>セキュリティは、アップグレードの主な理由です。インスタンスのセキュリティ保証は、時間の経過とともに衰えてはなりません。 ローリングアップグレードはバッチで行われるため、すべてのインスタンスが同時にダウンすることはありません。</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17147,19 +17119,19 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
+          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>(スケールセット)マネージド ID をスケール セットに割り当てます。スケール セット内のすべての VM は、指定された VM プロファイルを通じて同じ ID を取得します。 (仮想マシン)また、個々の VM を作成するときにマネージド ID を割り当て、必要に応じてスケール セットに追加することもできます。</t>
+          <t>(VM、スケール セット)プロファイルでアプリケーションを定義することにより、Azure Compute Gallery から VM アプリケーションを自動的にデプロイします。</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>VM が他のリソースと通信する場合、VM は信頼境界を越えます。スケール セットと VM は、通信を許可する前に ID を認証する必要があります。Microsoft Entra ID は、マネージド ID を使用してその認証を処理します。</t>
+          <t>スケール セット内の VM が作成され、指定したアプリがプレインストールされるため、管理が容易になります。</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -17169,19 +17141,19 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>21e2209a-6217-464b-9886-1914124b0721</t>
+          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="C660" t="inlineStr">
         <is>
-          <t>(スケールセット)セキュリティ機能を備えた VM SKU を選択します。たとえば、一部の SKU では BitLocker 暗号化がサポートされており、コンフィデンシャル コンピューティングでは使用中のデータの暗号化が提供されます。 機能を確認して、制限事項を理解してください。</t>
+          <t>ブートストラップの一部として、ビルド済みのソフトウェアコンポーネントを拡張機能としてインストールします。 Azure では、VM のユーティリティ アプリケーションを構成、監視、セキュリティ保護、提供するために使用できる多くの拡張機能がサポートされています。  拡張機能の自動アップグレードを有効にします。</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Azure が提供する機能は、多くのテナント間でキャプチャされるシグナルに基づいており、カスタム コントロールよりもリソースをより適切に保護できます。ポリシーを使用して、これらの制御を適用することもできます。</t>
+          <t>拡張機能を使用すると、各 VM でソフトウェアを手動でインストール、構成、またはアップグレードすることなく、大規模なソフトウェアのインストールを簡略化できます。</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -17191,19 +17163,19 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
+          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>(VM、スケール セット)プロビジョニングされたリソースに組織が推奨するタグを適用します。</t>
+          <t>(VM、スケール セット)VM インスタンスの正常性を監視および測定します。 Monitor エージェント拡張機能を VM にデプロイして、OS 固有のデータ収集ルールを使用してゲスト OS から監視データを収集します。 VM insights を有効にして、正常性とパフォーマンスを監視し、収集されたデータから傾向を表示します。ブート診断を使用して、VM のブート時に情報を取得します。ブート診断では、ブート障害も診断されます。</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>タグ付けは、リソースをセグメント化して整理する一般的な方法であり、インシデント管理中に重要になる場合があります。詳細については、「名前付けとタグ付けの目的」を参照してください。</t>
+          <t>データの監視は、インシデント解決の中核をなすものです。包括的な監視スタックは、VM のパフォーマンスとその正常性に関する情報を提供します。インスタンスを継続的に監視することで、パフォーマンスの過負荷や信頼性の問題などの障害に備えたり、防止したりできます。</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -17213,21 +17185,17 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>944802d9-671c-479f-b973-fd6111a18486</t>
+          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>(VM、スケール セット)VM 構成で有効にするセキュリティ機能を使用して、セキュリティ プロファイルを設定します。 たとえば、プロファイルでホストでの暗号化を指定すると、VM ホストに格納されているデータは保存時に暗号化され、フローはストレージ サービスに暗号化されます。</t>
-        </is>
-      </c>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>セキュリティ プロファイルの機能は、VM の作成時に自動的に有効になります。 詳細については、「Virtual Machine Scale Sets の Azure セキュリティ ベースライン」を参照してください。</t>
-        </is>
-      </c>
+          <t>パフォーマンス目標を定義する。追跡するVMメトリックを特定し、応答時間、CPU使用率、メモリ使用率などのパフォーマンス指標と、1秒あたりのトランザクション数、同時ユーザー数、可用性と正常性などのワークロードメトリックに対して測定します。</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17235,21 +17203,17 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
+          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>(仮想マシン)VM のネットワーク プロファイルのセキュリティで保護されたネットワーク オプションを選択します。 パブリック IP アドレスを VM に直接関連付けたり、IP 転送を有効にしたりしないでください。 すべての仮想ネットワーク インターフェイスにネットワーク セキュリティ グループが関連付けられていることを確認します。</t>
-        </is>
-      </c>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>セグメンテーション制御は、ネットワーキングプロファイルで設定できます。 攻撃者はパブリック IP アドレスをスキャンするため、VM は脅威に対して脆弱になります。</t>
-        </is>
-      </c>
+          <t>容量計画では、VM、スケール セット、ディスク構成のパフォーマンス プロファイルを考慮します。各 SKU には、メモリと CPU の異なるプロファイルがあり、ワークロードの種類に応じて動作が異なります。パイロットと概念実証を実施して、特定のワークロードでのパフォーマンス動作を理解します。</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17257,21 +17221,17 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
+          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>(仮想マシン)VM のストレージ プロファイルの安全なストレージ オプションを選択します。 ディスクの暗号化と保存データの暗号化をデフォルトで有効にします。VM ディスクへのパブリック ネットワーク アクセスを無効にします。</t>
-        </is>
-      </c>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>パブリックネットワークアクセスを無効にすると、データやリソースへの不正アクセスを防ぐことができます。</t>
-        </is>
-      </c>
+          <t>VM のパフォーマンス チューニング。パフォーマンスの最適化と、ワークロードの必要に応じて機能の強化を活用します。たとえば、高パフォーマンスのユース ケースと高速ネットワークには、ローカルに接続された Non-Volatile Memory Express (NVMe) を使用し、パフォーマンスとスケーラビリティを向上させるために Premium SSD v2 を使用します。</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17279,21 +17239,17 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
+          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>(VM、スケール セット)脅威から保護する拡張機能を VM に含めます。 たとえば、Windows と Linux 用の Key Vault 拡張機能 - Microsoft Entra ID 認証 - Azure Cloud Services と Virtual Machines 用の Microsoft マルウェア対策 - Windows と Linux 用の Azure Disk Encryption 拡張機能です。</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>拡張機能は、VM へのアクセスと VM からのアクセスを保護する適切なソフトウェアを使用して VM をブートストラップするために使用されます。 Microsoft が提供する拡張機能は、進化するセキュリティ標準に対応するために頻繁に更新されます。</t>
-        </is>
-      </c>
+          <t>依存するサービスを考慮に入れます。VM と対話するワークロードの依存関係 (キャッシュ、ネットワーク トラフィック、コンテンツ配信ネットワークなど) は、パフォーマンスに影響を与える可能性があります。また、ゾーンやリージョンなどの地理的な分布も考慮すると、レイテンシーが増加する可能性があります。</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17301,14 +17257,14 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
+          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>現実的なコストを見積もります。料金計算ツールを使用して、VM のコストを見積もります。VM セレクターを使用して、ワークロードに最適な VM を特定します。詳細については、「Linux と Windows の価格」を参照してください。</t>
+          <t>パフォーマンスデータを収集します。監視のためのオペレーショナルエクセレンスのベストプラクティスに従い、適切な拡張機能をデプロイして、パフォーマンス指標に対して追跡するメトリクスを表示します。</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -17319,14 +17275,14 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
+          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>コストガードレールを実装します。ガバナンスポリシーを使用して、リソースのタイプ、構成、および場所を制限します。RBAC を使用して、過剰支出につながる可能性のあるアクションをブロックします。</t>
+          <t>近接配置グループ。低レイテンシが必要なワークロードでは、近接配置グループを使用して、VM が物理的に互いに近接して配置されるようにします。</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -17337,17 +17293,21 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
+          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>適切なリソースを選択してください。VM プランのサイズと SKU の選択は、全体的なコストに直接影響します。ワークロードの特性に基づいて VM を選択します。ワークロードはCPUに負荷がかかりますか、それとも割り込み可能なプロセスが実行されていますか?各 SKU には、全体的なコストに影響を与えるディスク オプションが関連付けられています。</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
+          <t>(VM、スケール セット)容量計画に適した VM の SKU を選択します。コア数、メモリ、ストレージ、ネットワーク帯域幅など、ワークロードの要件を十分に理解して、不適切な SKU を除外できるようにします。</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>VM の適切なサイズ設定は、ワークロードのパフォーマンスに大きく影響する基本的な決定事項です。適切な VM のセットがないと、パフォーマンスの問題が発生し、不要なコストが発生する可能性があります。</t>
+        </is>
+      </c>
       <c r="F668" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17355,17 +17315,21 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
+          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>依存リソースに適した機能を選択します。コンテナー Standard レベルのバックアップ ストレージのコストを節約するには、予約容量のある Azure Backup ストレージを使用します。1年または3年の予約を確定すると割引が適用されます。</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
+          <t>(VM、スケール セット)待機時間の影響を受けやすいワークロード VM を近接配置グループにデプロイします。</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>近接通信配置グループを使用すると、Azure コンピューティング リソース間の物理的な距離が短縮されるため、スタンドアロン VM、複数の可用性セット内の VM、または複数のスケール セット内の VM 間のパフォーマンスが向上し、ネットワーク待機時間を短縮できます。</t>
+        </is>
+      </c>
       <c r="F669" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17373,17 +17337,21 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
+          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="C670" t="inlineStr">
         <is>
-          <t>適切な請求モデルを選択します。コンピューティングのコミットメントベースのモデルが、ワークロードのビジネス要件に基づいてコストを最適化するかどうかを評価します。次の Azure オプションを検討してください。</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
+          <t>(VM、スケール セット) 既存のワークロードと VM SKU のディスク パフォーマンスを分析して、ストレージ プロファイルを設定します。 運用 VM には Premium SSD を使用します。Premium SSD v2 を使用してディスクのパフォーマンスを調整します。ローカルに接続された NVMe デバイスを使用します。</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Premium SSD は、I/O 集中型のワークロードを備えた高パフォーマンスで低遅延のディスク サポート VM を提供します。 Premium SSD v2 ではディスクのサイズを変更する必要がないため、過剰なオーバープロビジョニングを行わずに高パフォーマンスを実現し、未使用の容量のコストを最小限に抑えます。 VM SKU で使用できる場合、ローカルに接続された NVMe または同様のデバイスは、特に高い 1 秒あたりの入出力操作 (IOPS) と低待機時間を必要とするユース ケースで、高いパフォーマンスを提供できます。</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17391,17 +17359,21 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
+          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>使用状況を監視します。使用パターンを継続的に監視し、未使用または使用率の低いVMを検出します。これらのインスタンスでは、使用されていない VM インスタンスをシャットダウンします。モニタリングは、オペレーショナルエクセレンスの主要なアプローチです。詳細については、「オペレーショナル エクセレンス」の推奨事項を参照してください。</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
+          <t>(仮想マシン)高速ネットワークを有効にすることを検討してください。</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>これにより、VM へのシングル ルート I/O 仮想化 (SR-IOV) が可能になり、ネットワーク パフォーマンスが大幅に向上します。</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr">
         <is>
           <t>未確認</t>
@@ -17409,587 +17381,27 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
+          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>最適化する方法を探します。いくつかの戦略には、既存のシステムのリソースを増やすか、スケールアップしてそのシステムのインスタンスを追加するか、スケールアウトするかの間で、最もコスト効率の高いアプローチを選択することが含まれます。需要を他のリソースに分散して負荷を軽減することも、優先キュー、ゲートウェイ オフロード、バッファリング、およびレート制限を実装することで需要を減らすこともできます。詳細については、「パフォーマンス効率」の推奨事項を参照してください。</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
+          <t>(VM、スケール セット)自動スケール ルールを設定して、需要に基づいてスケール セット内の VM インスタンスの数を増減します。</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>アプリケーションの需要が増加すると、スケール セット内の VM インスタンスの負荷が増加します。自動スケール ルールにより、需要を満たすのに十分なリソースが確保されます。</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr">
         <is>
           <t>未確認</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
-        <is>
-          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)適切な VM プランのサイズと SKU を選択します。ワークロードに最適な VM サイズを特定します。 VM セレクターを使用して、ワークロードに最適な VM を特定します。「Windows と Linux の価格」を参照してください。 多少の中断を許容できる高並列バッチ処理ジョブなどのワークロードの場合は、Azure Spot Virtual Machines の使用を検討してください。スポット仮想マシンは、大規模なソリューションの実験、開発、テストに適しています。</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>SKU は、提供する機能に応じて価格が設定されます。高度な機能が必要ない場合は、SKU に過剰に費やさないでください。 スポット仮想マシンは、Azure の余剰容量を低コストで活用できます。</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)VM の SKU に関連付けられているディスク オプションを評価します。 ストレージ容量のニーズを念頭に置き、変動するワークロードパターンを考慮しながら、パフォーマンスのニーズを決定します。 たとえば、Azure Premium SSD v2 ディスクを使用すると、ディスクのサイズに関係なく、パフォーマンスをきめ細かく調整できます。</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>一部の高パフォーマンス ディスク タイプには、追加のコスト最適化機能と戦略が用意されています。 Premium SSD v2 ディスクの調整機能は、オーバープロビジョニングなしで高いパフォーマンスを提供するため、コストを削減できます。これにより、リソースが十分に活用されない可能性があります。</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>(スケールセット)通常の VM とスポット仮想マシンを混在させます。 柔軟なオーケストレーションにより、指定した割合に基づいてスポット仮想マシンを分散できます。</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>スポット仮想マシンの大幅な割引を適用することで、コンピューティング インフラストラクチャのコストを削減します。</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>(スケールセット)需要が減少した場合は、VM インスタンスの数を減らします。条件に基づいてスケールインポリシーを設定します。  営業時間外に VM を停止します。Azure Automation の開始/停止機能を使用して、ビジネス ニーズに応じて構成できます。</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>使用されていないリソースをスケールインまたは停止すると、スケール セットで実行されている VM の数が減り、コストが節約されます。 スタート/ストップ機能は、低コストの自動化オプションです。</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)Azure ハイブリッド特典を使用して、ライセンス モビリティを活用します。VM には、オンプレミスの Windows Server OS ライセンスを Azure に持ち込むことができるライセンス オプションがあります。 Azure ハイブリッド特典では、特定の Linux サブスクリプションを Azure に持ち込むこともできます。</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>オンプレミスのライセンスを最大限に活用しながら、クラウドのメリットを享受できます。</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>VM インスタンスを監視します。VMインスタンスからログとメトリックを収集して、リソースの使用状況を監視し、インスタンスの正常性を測定します。一般的なメトリクスには、CPU 使用率、リクエスト数、入出力 (I/O) レイテンシなどがあります。Azure Monitor アラートを設定して、問題に関する通知を受け取り、環境内の構成変更を検出します。</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>VM とその依存関係の正常性を監視します。</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="F679" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>日常的な運用の一部として定期的なシステムパッチ適用を含むメンテナンス計画を作成します。パッチをすぐに適用できる緊急プロセスを含めます。修正プログラムの適用を管理したり、タスクを Azure に部分的に委任したりするためのカスタム プロセスを持つことができます。</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="F680" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>ブートストラップ、スクリプトの実行、VMの構成のプロセスを自動化します。拡張機能またはカスタムスクリプトを使用してプロセスを自動化できます。次のオプションをお勧めします。</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>自動更新をインストールするためのプロセスを用意します。重要なパッチとセキュリティパッチをタイムリーにロールアウトするために、VM ゲストの自動パッチ適用の使用を検討してください。Azure Update Manager を使用して、Azure の Windows および Linux 仮想マシンの OS 更新プログラムを管理します。</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>運用環境に密接に一致するテスト環境を構築して、更新と変更を運用環境にデプロイする前にテストします。セキュリティ更新プログラム、パフォーマンス ベースライン、および信頼性障害をテストするためのプロセスを用意します。Azure Chaos Studio の障害ライブラリを利用して、エラー状態を挿入し、シミュレートします。詳細については、「Azure Chaos Studio の障害とアクション ライブラリ」を参照してください。</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>クォータを管理します。ワークロードに必要なクォータのレベルを計画し、ワークロードの進化に合わせてそのレベルを定期的に見直します。クォータを増減する必要がある場合は、早めに変更をリクエストしてください。</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>(スケールセット)フレキシブル オーケストレーション モードの Virtual Machine Scale Sets は、ワークロードのデプロイと管理を簡略化するのに役立ちます。たとえば、自動修復を使用して自己修復を簡単に管理できます。</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>柔軟なオーケストレーションにより、VMインスタンスを大規模に管理できます。個々の VM を処理すると、運用上のオーバーヘッドが増加します。 たとえば、VM インスタンスを削除すると、関連付けられているディスクと NIC も自動的に削除されます。VM インスタンスは複数の障害ドメインに分散されるため、更新操作によってサービスが中断されることはありません。</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>(スケールセット)アップグレード ポリシーを設定して、VM を最新の状態に保ちます。ローリングアップグレードをお勧めします。ただし、きめ細かな制御が必要な場合は、手動でアップグレードすることを選択します。 柔軟なオーケストレーションの場合は、Azure Update Manager を使用できます。</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>セキュリティは、アップグレードの主な理由です。インスタンスのセキュリティ保証は、時間の経過とともに衰えてはなりません。 ローリングアップグレードはバッチで行われるため、すべてのインスタンスが同時にダウンすることはありません。</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)プロファイルでアプリケーションを定義することにより、Azure Compute Gallery から VM アプリケーションを自動的にデプロイします。</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr">
-        <is>
-          <t>スケール セット内の VM が作成され、指定したアプリがプレインストールされるため、管理が容易になります。</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>ブートストラップの一部として、ビルド済みのソフトウェアコンポーネントを拡張機能としてインストールします。 Azure では、VM のユーティリティ アプリケーションを構成、監視、セキュリティ保護、提供するために使用できる多くの拡張機能がサポートされています。  拡張機能の自動アップグレードを有効にします。</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>拡張機能を使用すると、各 VM でソフトウェアを手動でインストール、構成、またはアップグレードすることなく、大規模なソフトウェアのインストールを簡略化できます。</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)VM インスタンスの正常性を監視および測定します。 Monitor エージェント拡張機能を VM にデプロイして、OS 固有のデータ収集ルールを使用してゲスト OS から監視データを収集します。 VM insights を有効にして、正常性とパフォーマンスを監視し、収集されたデータから傾向を表示します。ブート診断を使用して、VM のブート時に情報を取得します。ブート診断では、ブート障害も診断されます。</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>データの監視は、インシデント解決の中核をなすものです。包括的な監視スタックは、VM のパフォーマンスとその正常性に関する情報を提供します。インスタンスを継続的に監視することで、パフォーマンスの過負荷や信頼性の問題などの障害に備えたり、防止したりできます。</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>パフォーマンス目標を定義する。追跡するVMメトリックを特定し、応答時間、CPU使用率、メモリ使用率などのパフォーマンス指標と、1秒あたりのトランザクション数、同時ユーザー数、可用性と正常性などのワークロードメトリックに対して測定します。</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="F690" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>容量計画では、VM、スケール セット、ディスク構成のパフォーマンス プロファイルを考慮します。各 SKU には、メモリと CPU の異なるプロファイルがあり、ワークロードの種類に応じて動作が異なります。パイロットと概念実証を実施して、特定のワークロードでのパフォーマンス動作を理解します。</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>VM のパフォーマンス チューニング。パフォーマンスの最適化と、ワークロードの必要に応じて機能の強化を活用します。たとえば、高パフォーマンスのユース ケースと高速ネットワークには、ローカルに接続された Non-Volatile Memory Express (NVMe) を使用し、パフォーマンスとスケーラビリティを向上させるために Premium SSD v2 を使用します。</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="F692" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>依存するサービスを考慮に入れます。VM と対話するワークロードの依存関係 (キャッシュ、ネットワーク トラフィック、コンテンツ配信ネットワークなど) は、パフォーマンスに影響を与える可能性があります。また、ゾーンやリージョンなどの地理的な分布も考慮すると、レイテンシーが増加する可能性があります。</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>パフォーマンスデータを収集します。監視のためのオペレーショナルエクセレンスのベストプラクティスに従い、適切な拡張機能をデプロイして、パフォーマンス指標に対して追跡するメトリクスを表示します。</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="F694" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>近接配置グループ。低レイテンシが必要なワークロードでは、近接配置グループを使用して、VM が物理的に互いに近接して配置されるようにします。</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)容量計画に適した VM の SKU を選択します。コア数、メモリ、ストレージ、ネットワーク帯域幅など、ワークロードの要件を十分に理解して、不適切な SKU を除外できるようにします。</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>VM の適切なサイズ設定は、ワークロードのパフォーマンスに大きく影響する基本的な決定事項です。適切な VM のセットがないと、パフォーマンスの問題が発生し、不要なコストが発生する可能性があります。</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)待機時間の影響を受けやすいワークロード VM を近接配置グループにデプロイします。</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>近接通信配置グループを使用すると、Azure コンピューティング リソース間の物理的な距離が短縮されるため、スタンドアロン VM、複数の可用性セット内の VM、または複数のスケール セット内の VM 間のパフォーマンスが向上し、ネットワーク待機時間を短縮できます。</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット) 既存のワークロードと VM SKU のディスク パフォーマンスを分析して、ストレージ プロファイルを設定します。 運用 VM には Premium SSD を使用します。Premium SSD v2 を使用してディスクのパフォーマンスを調整します。ローカルに接続された NVMe デバイスを使用します。</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>Premium SSD は、I/O 集中型のワークロードを備えた高パフォーマンスで低遅延のディスク サポート VM を提供します。 Premium SSD v2 ではディスクのサイズを変更する必要がないため、過剰なオーバープロビジョニングを行わずに高パフォーマンスを実現し、未使用の容量のコストを最小限に抑えます。 VM SKU で使用できる場合、ローカルに接続された NVMe または同様のデバイスは、特に高い 1 秒あたりの入出力操作 (IOPS) と低待機時間を必要とするユース ケースで、高いパフォーマンスを提供できます。</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>(仮想マシン)高速ネットワークを有効にすることを検討してください。</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>これにより、VM へのシングル ルート I/O 仮想化 (SR-IOV) が可能になり、ネットワーク パフォーマンスが大幅に向上します。</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>(VM、スケール セット)自動スケール ルールを設定して、需要に基づいてスケール セット内の VM インスタンスの数を増減します。</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>アプリケーションの需要が増加すると、スケール セット内の VM インスタンスの負荷が増加します。自動スケール ルールにより、需要を満たすのに十分なリソースが確保されます。</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
-      <c r="L700" t="inlineStr">
         <is>
           <t>785858b0-2f0b-476d-9f1e-af92b57314c9</t>
         </is>
@@ -18121,7 +17533,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F701" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F673" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
